--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Gimicks\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE3F5C-9CD3-4853-9E28-F89569BAEDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECA2A60-3ED0-498F-81C1-8B889F64313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -179,6 +179,22 @@
   </si>
   <si>
     <t>TXT_TestVoice_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestChoise_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You chose "kill"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestChose_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You chose "death"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -565,7 +581,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -742,6 +758,12 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
@@ -750,6 +772,12 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -804,7 +832,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>12</v>
       </c>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECA2A60-3ED0-498F-81C1-8B889F64313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F4B0B2-E99A-46F8-9C91-D8A1313521C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -138,18 +138,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kill</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_TestChoise_003</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>death</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_TestVoice_001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,15 +178,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>You chose "kill"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_TestChose_005</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>You chose "death"</t>
+    <t>get r6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You got r6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get r4 and r8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You got r4 and r8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -578,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -748,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -756,77 +768,86 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -834,7 +855,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -845,7 +866,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -854,8 +875,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F4B0B2-E99A-46F8-9C91-D8A1313521C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E0058-279D-4579-870D-FC84706149DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>r6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testdemo1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testdemo2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -779,6 +787,12 @@
       <c r="E11" t="s">
         <v>46</v>
       </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
@@ -798,6 +812,9 @@
       </c>
       <c r="F12" t="s">
         <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9">

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E0058-279D-4579-870D-FC84706149DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694B58A1-528E-4A2C-99BA-DA4657F5A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -215,6 +215,30 @@
   </si>
   <si>
     <t>testdemo2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestItem_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is test item01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is test item02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is test item03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestItem_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestItem_003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -598,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -892,8 +916,41 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694B58A1-528E-4A2C-99BA-DA4657F5A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797387A2-52CE-4514-B0BB-95762CF6F883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -924,7 +924,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -935,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797387A2-52CE-4514-B0BB-95762CF6F883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797BE67B-B016-4C8B-A276-0A901FF61E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>If I climb up to the top,I can touch that.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Climb?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,6 +235,19 @@
   </si>
   <si>
     <t>TXT_TestItem_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stretcherUp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#closeui: -1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If I climb up to the top,I can touch that.
+Climb?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -330,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -341,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -669,18 +681,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+    <row r="2" spans="1:9" ht="26.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1">
@@ -688,24 +706,20 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -716,10 +730,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5" thickBot="1">
@@ -727,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -738,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -774,10 +791,10 @@
     </row>
     <row r="10" spans="1:9" ht="19.5" thickBot="1">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -789,106 +806,106 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -896,10 +913,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -907,10 +924,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -918,10 +935,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -929,10 +946,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -940,10 +957,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -952,6 +969,11 @@
     <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797BE67B-B016-4C8B-A276-0A901FF61E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9273A-01C7-4B35-A320-9694EE4604E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -979,5 +979,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC9273A-01C7-4B35-A320-9694EE4604E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122761FE-6C13-4BDD-BF1D-B1DC311B36F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -70,10 +70,6 @@
     <t>TXT_Stretcher_003</t>
   </si>
   <si>
-    <t>#ui 0:hanyo 1:dialog 2:voice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>choise0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,15 +235,289 @@
   </si>
   <si>
     <t>stretcherUp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#closeui: -1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>If I climb up to the top,I can touch that.
 Climb?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_2_001</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_2_002</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_2_003</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_2_004</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_001</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_002</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_003</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_004</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_001</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_002</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_003</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_004</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_005</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_001</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_002</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_003</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_004</t>
+  </si>
+  <si>
+    <t>カセットテープだ</t>
+  </si>
+  <si>
+    <t>タイトルは......「溶液Ａの作成方法」...！</t>
+  </si>
+  <si>
+    <t>これ、大事な情報かも知れない...！</t>
+  </si>
+  <si>
+    <t>カセットテープ「溶液Ａの作成方法」を入手した</t>
+  </si>
+  <si>
+    <t>タイトルは......「溶液Bの作成方法」...！</t>
+  </si>
+  <si>
+    <t>カセットテープ「溶液Bの作成方法」を入手した</t>
+  </si>
+  <si>
+    <t>タイトルは......「溶液匚の作成方法」...？</t>
+  </si>
+  <si>
+    <t>溶液Cでいいのかな？</t>
+  </si>
+  <si>
+    <t>少しタイトルが変な気がするけど、一応貰っておこう</t>
+  </si>
+  <si>
+    <t>カセットテープ「溶液匚の作成方法」を入手した</t>
+  </si>
+  <si>
+    <t>タイトルは......「溶液Cの作成方法」...！</t>
+  </si>
+  <si>
+    <t>カセットテープ「溶液Cの作成方法」を入手した</t>
+  </si>
+  <si>
+    <t>溶液Ａの作成方法</t>
+  </si>
+  <si>
+    <t>溶液Ｂの作成方法</t>
+  </si>
+  <si>
+    <t>溶液匚の作成方法</t>
+  </si>
+  <si>
+    <t>溶液Ｃの作成方法</t>
+  </si>
+  <si>
+    <t>TXT_ItemName_CassetteTape_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_ItemName_CassetteTape_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_ItemName_CassetteTape_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_ItemName_CassetteTape_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>テープがあれば再生できそう</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カセットプレーヤーだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>テープ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>のヒント</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>テープ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>のヒント</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>テープ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>のヒント</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>テープ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>のヒント</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -255,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +552,19 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -297,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -335,11 +618,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -353,6 +656,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,16 +949,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="47.125" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
@@ -657,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -666,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -686,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -706,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -719,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -730,13 +1045,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5" thickBot="1">
@@ -744,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -752,38 +1067,38 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -791,10 +1106,10 @@
     </row>
     <row r="10" spans="1:9" ht="19.5" thickBot="1">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -806,174 +1121,499 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4" ht="19.5" thickBot="1">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="22" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A22" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122761FE-6C13-4BDD-BF1D-B1DC311B36F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FF375-E771-4F64-8469-92A059631A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -518,6 +518,129 @@
   </si>
   <si>
     <t>TXT_CassettePlayer_T5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>メモのヒント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1_1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>メモのヒント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1_2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_1_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_1_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Roter4_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>つ穴ローターを手に入れた</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Roter_no_Memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Roter6_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6つ穴ローターを手に入れた</t>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Roter8_get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8つ穴ローターを手に入れた</t>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんだこれ？説明書はないかな…</t>
+    <rPh sb="6" eb="9">
+      <t>セツメイショ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,6 +790,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1616,6 +1748,75 @@
         <v>2</v>
       </c>
     </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="11">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FF375-E771-4F64-8469-92A059631A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87D248-E20C-4672-97F8-D0DD023A153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -518,48 +518,6 @@
   </si>
   <si>
     <t>TXT_CassettePlayer_T5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>メモのヒント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1_1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>メモのヒント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1_2</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -643,12 +601,128 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TXT_Memo_2_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_2_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>メモのヒント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2_1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>メモのヒント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2_2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>起きていること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>研究所内の状況を伝えてくれる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>また部屋の色々な所にカセットテープとメモを隠したことが伝えられる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good Luck!</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +762,27 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -703,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -761,11 +856,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -795,10 +899,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1748,72 +1855,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="63">
       <c r="A49" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="10">
+      <c r="B49" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="8">
         <v>1</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="10">
+      <c r="B50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="11">
-        <v>2</v>
-      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="11">
-        <v>2</v>
+      <c r="A52" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="11">
+        <v>108</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="11">
+        <v>106</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="10">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87D248-E20C-4672-97F8-D0DD023A153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D995BA-58BF-482A-BBB9-104AD224FF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="136">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -606,49 +606,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TXT_Memo_2_02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>メモのヒント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2_1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>メモのヒント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2_2</t>
-    </r>
+    <t>TXT_Memo_3_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_4_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_5_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+症状が進行しておらず、助かる見込みがあるやつなら、という条件付きだがな。
+まずは「青い溶液の作成方法」
+と書かれたメモを探せ。
+</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -660,7 +634,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>起きていること</t>
+      <t>このメモを読んでいるあんたには悪いが、実験室は私が荒らした。</t>
     </r>
     <r>
       <rPr>
@@ -670,17 +644,71 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>化け物になる手前でまだ知能が残っているやつ施設から出すわけにはいかないんだ。理解してくれ。
+ただ安心してほしい。無事な奴まで見殺しにするほど鬼じゃない。
+ここで体に入り込んだ胞子を死滅させる薬は作れる。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>次は赤い溶液だ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>研究所内の状況を伝えてくれる。</t>
+      <t>やるこはさっきと同じで、用意されている溶液の遠心分離だ。
+必要なのは「チューブセット」と「小型遠心分離機」だ。
+詳細な指示は「赤い溶液の作成方法」と書かれているカセットテープに録音した。
+今度はこいつを探すのに苦労してもらおう。</t>
+    </r>
+    <rPh sb="98" eb="100">
+      <t>ロクオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>これを見つけられるくらいの知能は残っているみたいだな。</t>
     </r>
     <r>
       <rPr>
@@ -696,25 +724,181 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>では「抵抗薬」の生成方法を指示する。
+まずは「試験管セット」を「遠心分離機」にかけろ。
+詳細は「青い溶液の作成方法」と書かれているカセットテープに録音した。
+次はそいつを探すんだ。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">青い溶液と赤い溶液を適切な分量で混ぜれば抵抗薬の完成だ。
+例によって詳細は同じ名前のカセットテープだ。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まったく、家族が恋しいよ。
+教授も実験室も家族写真を置いていて、いつも娘さんを眺めていたな。
+なぜこんなことになってしまったんだろうな。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抵抗薬は作り終えたか？後は逃げるだけだ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>また部屋の色々な所にカセットテープとメモを隠したことが伝えられる。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Good Luck!</t>
+      <t>出口のドアは電子ロックだ。
+通電と同時にロックされているはずだから一度ブレーカーを落とせ。</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Freezer_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Freezer_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷凍庫だ　鍵がかかって開かない</t>
+    <rPh sb="0" eb="3">
+      <t>レイトウコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験管セットはこの中だ　鍵を探そう…</t>
+    <rPh sb="0" eb="3">
+      <t>シケンカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Freezer_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Freezer_04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験管セットはもう持っている</t>
+    <rPh sb="0" eb="3">
+      <t>シケンカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_DimpleKey_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_DimpleKey_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何かを開けられるかも　とりあえずもっておこう</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変なカギだ</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷凍庫が開いた　試験管セットがたくさんある</t>
+    <rPh sb="0" eb="3">
+      <t>レイトウコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シケンカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -722,7 +906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,15 +956,22 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -798,7 +989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -856,20 +1047,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -902,10 +1084,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1855,12 +2040,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="63">
+    <row r="49" spans="1:4" ht="108">
       <c r="A49" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
@@ -1869,70 +2054,68 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="131.25">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="124.5">
       <c r="A51" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>116</v>
+      <c r="B51" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C51" s="10">
         <v>1</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" ht="112.5">
       <c r="A52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>117</v>
+      <c r="B52" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C52" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>113</v>
+    <row r="53" spans="1:4" ht="102.75">
+      <c r="A53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C53" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="63">
+      <c r="A54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="C54" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C55" s="10">
         <v>2</v>
@@ -1940,14 +2123,105 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="10">
-        <v>2</v>
-      </c>
+      <c r="C58" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D995BA-58BF-482A-BBB9-104AD224FF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A362B922-AB28-45A7-8B70-5900EE81047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -872,23 +872,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>何かを開けられるかも　とりあえずもっておこう</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変なカギだ</t>
-    <rPh sb="0" eb="1">
-      <t>ヘン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>冷凍庫が開いた　試験管セットがたくさんある</t>
     <rPh sb="0" eb="3">
       <t>レイトウコ</t>
@@ -899,6 +882,133 @@
     <rPh sb="8" eb="11">
       <t>シケンカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_DimpleKey_03</t>
+  </si>
+  <si>
+    <t>中はガラクタばかりだ　役に立ちそうなものはもうない</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変なカギだ　何かを開けられるかも　とりあえずもっておこう</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中はガラクタばかりだ　役立ちそうなものはあるかな？</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_02</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_03</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_04</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_05</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_07</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_08</t>
+  </si>
+  <si>
+    <t>何かの機械だ</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠心分離機だ　まずはローターを探さなきゃ</t>
+    <rPh sb="0" eb="5">
+      <t>エンシンブンリキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4つ穴ローターをセットした</t>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6つ穴ローターをセットした</t>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8つ穴ローターをセットした</t>
+    <rPh sb="2" eb="3">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとは試験管セットがあれば…</t>
+    <rPh sb="3" eb="6">
+      <t>シケンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よし、始めよう</t>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度やってみる</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_06</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1051,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1089,9 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2158,8 +2265,8 @@
       <c r="A59" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>134</v>
+      <c r="B59" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C59" s="10">
         <v>2</v>
@@ -2170,7 +2277,7 @@
         <v>132</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C60" s="10">
         <v>2</v>
@@ -2178,10 +2285,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>126</v>
+        <v>134</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="C61" s="10">
         <v>2</v>
@@ -2189,10 +2296,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="C62" s="10">
         <v>2</v>
@@ -2200,10 +2307,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C63" s="10">
         <v>2</v>
@@ -2211,17 +2318,113 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B65" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="10"/>
+      <c r="C65" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A362B922-AB28-45A7-8B70-5900EE81047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01794006-8131-4417-B037-93D4E67C593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="156">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1009,6 +1009,20 @@
   </si>
   <si>
     <t>TXT_Centrifuge_06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestTube_ItemUse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験管セットだ　遠心分離機にセットしよう</t>
+    <rPh sb="0" eb="3">
+      <t>シケンカン</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>エンシンブンリキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1480,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2426,6 +2440,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01794006-8131-4417-B037-93D4E67C593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF93038-CA29-444A-8B97-C1D2AEC0C0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1024,6 +1024,155 @@
       <t>エンシンブンリキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_2_005</t>
+  </si>
+  <si>
+    <t>カセットテープだ　よくお父さんが研究について録音していた
+何が記録されているのだろう？</t>
+    <rPh sb="12" eb="13">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ロクオン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_005</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_3_006</t>
+  </si>
+  <si>
+    <t>救急箱だ　かなり本格的だ
+なにか役立つものはないかな？</t>
+    <rPh sb="0" eb="3">
+      <t>キュウキュウバコ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ホンカクテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>救急箱だ　かなり本格的だが、役立ちそうなものはない</t>
+    <rPh sb="0" eb="3">
+      <t>キュウキュウバコ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ホンカクテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中にカセットテープが入っている</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_006</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1? 写真立ての中にカセットテープが隠されてあった</t>
+    <rPh sb="3" eb="6">
+      <t>シャシンタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミ箱の中にカセットテープが入っている</t>
+    <rPh sb="2" eb="3">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_005</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_006</t>
+  </si>
+  <si>
+    <t>ゴミ箱だ　...もしかしたら何かあるかも</t>
+    <rPh sb="2" eb="3">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミ箱だ　中は当然ゴミだけだ</t>
+    <rPh sb="2" eb="3">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_4_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真立てだ　私とお父さんが写っている</t>
+    <rPh sb="0" eb="3">
+      <t>シャシンダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>...まだ家に帰ってきてくれた頃のお父さんだ</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1171,11 +1320,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1213,6 +1375,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1878,182 +2055,180 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="19.5" thickBot="1">
+    <row r="26" spans="1:4" ht="24.75" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" thickBot="1">
       <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" thickBot="1">
       <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="19.5" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="6">
+        <v>74</v>
+      </c>
+      <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" thickBot="1">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="24.75" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="19.5" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="19.5" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="19.5" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="3">
+        <v>81</v>
+      </c>
+      <c r="C37" s="6">
         <v>2</v>
       </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" ht="19.5" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>163</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>84</v>
+      <c r="A39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
       </c>
       <c r="C39" s="7">
         <v>2</v>
@@ -2061,270 +2236,281 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="8">
-        <v>2</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="8">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" thickBot="1">
       <c r="A42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="16">
+        <v>2</v>
+      </c>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="16">
+        <v>2</v>
+      </c>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
+      <c r="C50" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="8">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="7" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7" t="s">
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="7" t="s">
+      <c r="C53" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
+      <c r="C54" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="108">
-      <c r="A49" s="7" t="s">
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="108">
+      <c r="A57" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B57" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C57" s="8">
         <v>1</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="131.25">
-      <c r="A50" s="7" t="s">
+    <row r="58" spans="1:4" ht="131.25">
+      <c r="A58" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B58" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C58" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="124.5">
-      <c r="A51" s="7" t="s">
+    <row r="59" spans="1:4" ht="124.5">
+      <c r="A59" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C59" s="10">
         <v>1</v>
       </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" ht="112.5">
-      <c r="A52" s="7" t="s">
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" ht="112.5">
+      <c r="A60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C60" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="102.75">
-      <c r="A53" s="7" t="s">
+    <row r="61" spans="1:4" ht="102.75">
+      <c r="A61" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C61" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="63">
-      <c r="A54" s="7" t="s">
+    <row r="62" spans="1:4" ht="63">
+      <c r="A62" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C62" s="10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C63" s="10">
         <v>2</v>
@@ -2332,10 +2518,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C64" s="10">
         <v>2</v>
@@ -2343,10 +2529,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C65" s="10">
         <v>2</v>
@@ -2354,10 +2540,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C66" s="10">
         <v>2</v>
@@ -2365,10 +2551,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -2376,10 +2562,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C68" s="10">
         <v>2</v>
@@ -2387,10 +2573,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -2398,10 +2584,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C70" s="10">
         <v>2</v>
@@ -2409,10 +2595,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -2420,10 +2606,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C72" s="10">
         <v>2</v>
@@ -2431,10 +2617,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -2442,12 +2628,100 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B82" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C82" s="10">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF93038-CA29-444A-8B97-C1D2AEC0C0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93491D8E-9A00-46F8-A9E1-F0A9EE128375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="185">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1173,6 +1173,81 @@
   </si>
   <si>
     <t>...まだ家に帰ってきてくれた頃のお父さんだ</t>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_02</t>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_03</t>
+  </si>
+  <si>
+    <t>何の機械だろう？</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤い溶液はもう持っている</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チューブセットをセットして…
+蓋を閉じれば…</t>
+    <rPh sb="15" eb="16">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…赤い溶液ができた</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_RedSolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤い溶液だ　これで何をするのだろう？</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1337,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1389,6 +1464,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1671,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2703,7 +2784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>144</v>
       </c>
@@ -2714,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" s="8" t="s">
         <v>154</v>
       </c>
@@ -2722,6 +2803,64 @@
         <v>155</v>
       </c>
       <c r="C82" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="33">
+      <c r="A84" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="10">
+        <v>2</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="20">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93491D8E-9A00-46F8-A9E1-F0A9EE128375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503AD78-437F-401E-AD03-CC555BA132B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="230">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -994,20 +994,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>よし、始めよう</t>
-    <rPh sb="3" eb="4">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もう一度やってみる</t>
-    <rPh sb="2" eb="4">
-      <t>イチド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_Centrifuge_06</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1246,6 +1232,258 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_09</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_10</t>
+  </si>
+  <si>
+    <t>ローターをセットしよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験管セットを配置した</t>
+    <rPh sb="0" eb="3">
+      <t>シケンカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転数をセットしよう</t>
+    <rPh sb="0" eb="3">
+      <t>カイテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_11</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_12</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_13</t>
+  </si>
+  <si>
+    <t>B ( rpm )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A ( rpm )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C (rpm )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_14</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_15</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_16</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_17</t>
+  </si>
+  <si>
+    <t>D ( sec )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E ( sec )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F ( sec )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_18</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_19</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_20</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_21</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_22</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_23</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_24</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_25</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_26</t>
+  </si>
+  <si>
+    <t>青い溶液を手に入れた</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青黒い溶液を手に入れた</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_27</t>
+  </si>
+  <si>
+    <t>Flag_BlueSolution_Obtained</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_28</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_29</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_30</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_31</t>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_32</t>
+  </si>
+  <si>
+    <t>もう青い溶液は持っている</t>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度やり直そう</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Centrifuge_23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_BlueSolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_BlueCSolution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い溶液だ　これで何をするのだろう？</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は回転時間だ</t>
+    <rPh sb="2" eb="4">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_BlueCloudySolution_Obtained</t>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_007</t>
+  </si>
+  <si>
+    <t>青黒い溶液を捨てた</t>
+    <rPh sb="0" eb="2">
+      <t>アオグロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青黒い溶液だ　…変なニオイだ
+はやくゴミ箱に捨てよう</t>
+    <rPh sb="0" eb="2">
+      <t>アオグロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,7 +1492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1321,6 +1559,12 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1469,9 +1713,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1752,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2138,10 +2380,10 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -2153,7 +2395,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -2202,10 +2444,10 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" thickBot="1">
       <c r="A31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -2214,10 +2456,10 @@
     </row>
     <row r="32" spans="1:4" ht="19.5" thickBot="1">
       <c r="A32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -2229,7 +2471,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -2292,24 +2534,24 @@
     </row>
     <row r="38" spans="1:4" ht="19.5" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" thickBot="1">
       <c r="A39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
         <v>172</v>
-      </c>
-      <c r="B39" t="s">
-        <v>174</v>
       </c>
       <c r="C39" s="7">
         <v>2</v>
@@ -2317,10 +2559,10 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" thickBot="1">
       <c r="A40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -2332,7 +2574,7 @@
         <v>68</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -2381,10 +2623,10 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" thickBot="1">
       <c r="A45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>168</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>170</v>
       </c>
       <c r="C45" s="16">
         <v>2</v>
@@ -2393,44 +2635,45 @@
     </row>
     <row r="46" spans="1:4" ht="19.5" thickBot="1">
       <c r="A46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="C46" s="16">
         <v>2</v>
       </c>
       <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="16">
+        <v>2</v>
+      </c>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="8">
         <v>2</v>
@@ -2438,46 +2681,46 @@
     </row>
     <row r="50" spans="1:4" ht="19.5" thickBot="1">
       <c r="A50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A51" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C51" s="8">
         <v>2</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="8">
-        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C53" s="8">
         <v>2</v>
@@ -2485,10 +2728,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -2496,10 +2739,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
@@ -2507,102 +2750,102 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="108">
-      <c r="A57" s="7" t="s">
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="108">
+      <c r="A58" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B58" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="C57" s="8">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="131.25">
-      <c r="A58" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="C58" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="124.5">
+      <c r="D58" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="131.25">
       <c r="A59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="124.5">
+      <c r="A60" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C59" s="10">
-        <v>1</v>
-      </c>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" ht="112.5">
-      <c r="A60" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="C60" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="102.75">
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" ht="112.5">
       <c r="A61" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="63">
+    <row r="62" spans="1:4" ht="102.75">
       <c r="A62" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>113</v>
+    <row r="63" spans="1:4" ht="63">
+      <c r="A63" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="C63" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C64" s="10">
         <v>2</v>
@@ -2610,10 +2853,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C65" s="10">
         <v>2</v>
@@ -2621,10 +2864,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" s="10">
         <v>2</v>
@@ -2632,10 +2875,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -2643,10 +2886,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="10">
         <v>2</v>
@@ -2654,10 +2897,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -2665,10 +2908,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C70" s="10">
         <v>2</v>
@@ -2676,10 +2919,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -2687,10 +2930,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C72" s="10">
         <v>2</v>
@@ -2698,10 +2941,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -2709,10 +2952,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -2720,10 +2963,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="10">
         <v>2</v>
@@ -2731,10 +2974,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -2742,10 +2985,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="10">
         <v>2</v>
@@ -2753,10 +2996,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -2764,10 +3007,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -2775,92 +3018,500 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="8" t="s">
+      <c r="B81" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B82" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="10">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="10">
+        <v>0</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="10">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="10">
+        <v>0</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="10">
+        <v>0</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="10">
+        <v>0</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="10">
+        <v>0</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="10">
+        <v>0</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="10">
+        <v>0</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="10">
+        <v>0</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="10">
+        <v>0</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="10">
+        <v>0</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" s="10">
+        <v>0</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="10">
+        <v>0</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="10">
+        <v>0</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="10">
+        <v>0</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="10">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="10">
+        <v>0</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="10">
+        <v>2</v>
+      </c>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="10">
+        <v>2</v>
+      </c>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="8" t="s">
+      <c r="B107" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="33">
+      <c r="A109" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="10">
+        <v>2</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="11" t="s">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="33">
-      <c r="A84" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B84" s="19" t="s">
+      <c r="C111" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="10">
-        <v>2</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85" s="11" t="s">
+      <c r="B112" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="20">
+      <c r="C112" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="33">
+      <c r="A114" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="10">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503AD78-437F-401E-AD03-CC555BA132B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742C806-E0CB-4D7D-8418-193D602B627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="237">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1223,19 +1223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤い溶液だ　これで何をするのだろう？</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウエキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_Centrifuge_09</t>
   </si>
   <si>
@@ -1423,19 +1410,6 @@
   </si>
   <si>
     <t>TXT_BlueCSolution</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青い溶液だ　これで何をするのだろう？</t>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウエキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナニ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1484,6 +1458,77 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤い溶液だ　抵抗薬を合成しよう</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い溶液だ　抵抗薬の材料になる</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_002</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_003</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_004</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_005</t>
+  </si>
+  <si>
+    <t>ピペットだ　理科の授業で使ったことがある</t>
+    <rPh sb="6" eb="8">
+      <t>リカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピペットだ　部品が足りないみたい</t>
+    <rPh sb="6" eb="8">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1994,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2647,10 +2692,10 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C47" s="16">
         <v>2</v>
@@ -3032,7 +3077,7 @@
         <v>143</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C81" s="10">
         <v>2</v>
@@ -3043,7 +3088,7 @@
         <v>144</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -3051,10 +3096,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -3062,339 +3107,339 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C84" s="10">
         <v>0</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C85" s="10">
         <v>0</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>197</v>
-      </c>
       <c r="G85" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C86" s="10">
         <v>0</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C87" s="10">
         <v>0</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C88" s="10">
         <v>0</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C89" s="10">
         <v>0</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C90" s="10">
         <v>0</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="10">
         <v>0</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C92" s="10">
         <v>0</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C93" s="10">
         <v>0</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C94" s="10">
         <v>0</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C95" s="10">
         <v>0</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C96" s="10">
         <v>0</v>
       </c>
       <c r="E96" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C97" s="10">
         <v>0</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F97" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="10">
         <v>0</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G98" s="8"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" s="10">
         <v>0</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C100" s="10">
         <v>0</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C101" s="10">
         <v>0</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C102" s="10">
         <v>0</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C103" s="10">
         <v>0</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C104" s="10">
         <v>2</v>
@@ -3403,10 +3448,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C105" s="10">
         <v>2</v>
@@ -3415,10 +3460,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="C106" s="10">
         <v>2</v>
@@ -3487,7 +3532,7 @@
         <v>181</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="C112" s="10">
         <v>2</v>
@@ -3495,10 +3540,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C113" s="10">
         <v>2</v>
@@ -3506,13 +3551,50 @@
     </row>
     <row r="114" spans="1:3" ht="33">
       <c r="A114" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C114" s="10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C116" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742C806-E0CB-4D7D-8418-193D602B627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A84D1E-E653-4377-876F-CE40027D6B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="245">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1529,6 +1529,49 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Door_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアだ　ロックがかかっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Door_002</t>
+  </si>
+  <si>
+    <t>TXT_Door_003</t>
+  </si>
+  <si>
+    <t>TXT_Door_004</t>
+  </si>
+  <si>
+    <t>メモによると、抵抗薬を作らないと開けちゃだめだ</t>
+    <rPh sb="7" eb="9">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T6</t>
+  </si>
+  <si>
+    <t>カセットプレーヤーを止めた</t>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1701,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1759,6 +1802,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2039,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2815,93 +2861,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="108">
+    <row r="58" spans="1:4">
       <c r="A58" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="108">
+      <c r="A59" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="C58" s="8">
-        <v>1</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="131.25">
-      <c r="A59" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="124.5">
+      <c r="D59" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="131.25">
       <c r="A60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="124.5">
+      <c r="A61" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C60" s="10">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" ht="112.5">
-      <c r="A61" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="C61" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="102.75">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" ht="112.5">
       <c r="A62" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C62" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="63">
+    <row r="63" spans="1:4" ht="102.75">
       <c r="A63" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>113</v>
+    <row r="64" spans="1:4" ht="63">
+      <c r="A64" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="C64" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C65" s="10">
         <v>2</v>
@@ -2909,10 +2955,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C66" s="10">
         <v>2</v>
@@ -2920,10 +2966,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -2931,10 +2977,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C68" s="10">
         <v>2</v>
@@ -2942,10 +2988,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -2953,10 +2999,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="10">
         <v>2</v>
@@ -2964,10 +3010,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -2975,10 +3021,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="10">
         <v>2</v>
@@ -2986,10 +3032,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -2997,10 +3043,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -3008,10 +3054,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C75" s="10">
         <v>2</v>
@@ -3019,10 +3065,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -3030,10 +3076,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="10">
         <v>2</v>
@@ -3041,10 +3087,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -3052,10 +3098,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -3063,10 +3109,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="10">
         <v>2</v>
@@ -3074,10 +3120,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C81" s="10">
         <v>2</v>
@@ -3085,10 +3131,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -3096,10 +3142,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -3107,27 +3153,18 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C84" s="10">
-        <v>0</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>186</v>
@@ -3136,18 +3173,18 @@
         <v>0</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>186</v>
@@ -3156,35 +3193,41 @@
         <v>0</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C87" s="10">
         <v>0</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>204</v>
+      <c r="E87" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C88" s="10">
         <v>0</v>
@@ -3195,10 +3238,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C89" s="10">
         <v>0</v>
@@ -3209,10 +3252,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C90" s="10">
         <v>0</v>
@@ -3223,10 +3266,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C91" s="10">
         <v>0</v>
@@ -3237,10 +3280,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C92" s="10">
         <v>0</v>
@@ -3251,10 +3294,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C93" s="10">
         <v>0</v>
@@ -3265,10 +3308,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C94" s="10">
         <v>0</v>
@@ -3279,41 +3322,35 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C95" s="10">
         <v>0</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C96" s="10">
         <v>0</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>208</v>
+      <c r="D96" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>223</v>
@@ -3322,39 +3359,41 @@
         <v>0</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C98" s="10">
         <v>0</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G98" s="8"/>
+      <c r="E98" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C99" s="10">
         <v>0</v>
@@ -3365,13 +3404,14 @@
       <c r="E99" s="20" t="s">
         <v>224</v>
       </c>
+      <c r="G99" s="8"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C100" s="10">
         <v>0</v>
@@ -3385,10 +3425,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C101" s="10">
         <v>0</v>
@@ -3402,10 +3442,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C102" s="10">
         <v>0</v>
@@ -3419,39 +3459,44 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C103" s="10">
         <v>0</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C104" s="10">
-        <v>2</v>
-      </c>
-      <c r="E104" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C105" s="10">
         <v>2</v>
@@ -3460,21 +3505,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C106" s="10">
         <v>2</v>
       </c>
+      <c r="E106" s="20"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="8" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="C107" s="10">
         <v>2</v>
@@ -3482,46 +3528,46 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B109" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C108" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="33">
-      <c r="A109" s="8" t="s">
+      <c r="C109" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="33">
+      <c r="A110" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B110" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C109" s="10">
-        <v>2</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="C110" s="10">
+        <v>2</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C111" s="10">
         <v>2</v>
@@ -3529,10 +3575,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C112" s="10">
         <v>2</v>
@@ -3540,32 +3586,32 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B114" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C113" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="33">
-      <c r="A114" s="8" t="s">
+      <c r="C114" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="33">
+      <c r="A115" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B115" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="C114" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="C115" s="10">
         <v>2</v>
@@ -3573,10 +3619,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C116" s="10">
         <v>2</v>
@@ -3584,18 +3630,64 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="8" t="s">
         <v>234</v>
       </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A84D1E-E653-4377-876F-CE40027D6B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14DB8E7-D83B-4A72-B943-808EA9155F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="309">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -658,45 +658,6 @@
 ただ安心してほしい。無事な奴まで見殺しにするほど鬼じゃない。
 ここで体に入り込んだ胞子を死滅させる薬は作れる。</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>次は赤い溶液だ。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>やるこはさっきと同じで、用意されている溶液の遠心分離だ。
-必要なのは「チューブセット」と「小型遠心分離機」だ。
-詳細な指示は「赤い溶液の作成方法」と書かれているカセットテープに録音した。
-今度はこいつを探すのに苦労してもらおう。</t>
-    </r>
-    <rPh sb="98" eb="100">
-      <t>ロクオン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1523,16 +1484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ピペットだ　部品が足りないみたい</t>
-    <rPh sb="6" eb="8">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_Door_001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1572,6 +1523,465 @@
     <t>カセットプレーヤーを止めた</t>
     <rPh sb="10" eb="11">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_ReagentBottle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試薬瓶だ　不思議な形をしている</t>
+    <rPh sb="0" eb="3">
+      <t>シヤクビン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TipHolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チップホルダーだ　これでピペットが使えるようになる</t>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_ReagentBottle_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_ReagentBottle_002</t>
+  </si>
+  <si>
+    <t>TXT_ReagentBottle_003</t>
+  </si>
+  <si>
+    <t>不思議な形をした瓶がたくさんある</t>
+    <rPh sb="0" eb="3">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試薬瓶はもう持っている</t>
+    <rPh sb="0" eb="3">
+      <t>シヤクビン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試薬瓶を手に入れた</t>
+    <rPh sb="0" eb="3">
+      <t>シヤクビン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>次は赤い溶液だ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>やるこはさっきと同じで、用意されている溶液の遠心分離だ。
+必要なのは「試験管セット」と「小型遠心分離機」だ。
+。</t>
+    </r>
+    <rPh sb="44" eb="47">
+      <t>シケンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TipHolder_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TipHolder_002</t>
+  </si>
+  <si>
+    <t>なんだかよくわからない箱だ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チップホルダーを手に入れた</t>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_PurpleSolution_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗薬だ　なんだか濁っている</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウヤク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗薬だ　</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_PurpleClowdySolution_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チップホルダーは手に入った</t>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピペットだ　チップホルダーはあるから…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チップホルダーと試薬瓶はそろった</t>
+    <rPh sb="8" eb="11">
+      <t>シヤクビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試薬瓶とチップホルダーはそろった</t>
+    <rPh sb="0" eb="3">
+      <t>シヤクビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_006</t>
+  </si>
+  <si>
+    <t>ピペットだ　試薬瓶はあるから…</t>
+    <rPh sb="6" eb="9">
+      <t>シヤクビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピペットだ　チップホルダーが必要だ</t>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_007</t>
+  </si>
+  <si>
+    <t>TXT_PpetChoice_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_PpetChoice_002</t>
+  </si>
+  <si>
+    <t>TXT_PpetChoice_003</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_008</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_009</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_010</t>
+  </si>
+  <si>
+    <t>赤い溶液は持っている</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い溶液は持っている</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青黒い溶液は持っている…</t>
+    <rPh sb="0" eb="2">
+      <t>アオグロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混合を始めよう
+青い溶液はどれだけ入れる?</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_GetPurpleSol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_GetPurpleCloudySol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗薬が完成した</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗薬が完成した…?</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_PurpleClowdySolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag_PurpleSolution_Obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_011</t>
+  </si>
+  <si>
+    <t>混合を始めよう
+青黒い溶液はどれだけ入れる?</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_012</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_013</t>
+  </si>
+  <si>
+    <t>TXT_PpetChoice_004</t>
+  </si>
+  <si>
+    <t>TXT_PpetChoice_005</t>
+  </si>
+  <si>
+    <t>TXT_PpetChoice_006</t>
+  </si>
+  <si>
+    <t>赤い溶液はどれだけ入れる? Spi</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤い溶液はどれだけ入れる? Seiko</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_PpetChoice_007</t>
+  </si>
+  <si>
+    <t>TXT_PpetChoice_008</t>
+  </si>
+  <si>
+    <t>0.2( mL )x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1( mL )x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10( mL )o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10( mL )x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1( mL )o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Pipet_014</t>
+  </si>
+  <si>
+    <t>TXT_Pipet_015</t>
+  </si>
+  <si>
+    <t>指示通りにできたはずだよね</t>
+    <rPh sb="0" eb="2">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと濁った抵抗薬ができた</t>
+    <rPh sb="4" eb="5">
+      <t>ニゴ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>テイコウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassetteTape_5_008</t>
+  </si>
+  <si>
+    <t>濁った抵抗薬を捨てた</t>
+    <rPh sb="0" eb="1">
+      <t>ニゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>テイコウヤク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1580,7 +1990,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1650,6 +2060,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1744,7 +2168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1802,9 +2226,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2085,20 +2516,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="47.125" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
@@ -2471,10 +2902,10 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" thickBot="1">
       <c r="A26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -2486,7 +2917,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -2535,10 +2966,10 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -2547,10 +2978,10 @@
     </row>
     <row r="32" spans="1:4" ht="19.5" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -2562,7 +2993,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -2625,24 +3056,24 @@
     </row>
     <row r="38" spans="1:4" ht="19.5" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="7">
         <v>2</v>
@@ -2650,10 +3081,10 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -2665,7 +3096,7 @@
         <v>68</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -2714,10 +3145,10 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" s="16">
         <v>2</v>
@@ -2726,10 +3157,10 @@
     </row>
     <row r="46" spans="1:4" ht="19.5" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" s="16">
         <v>2</v>
@@ -2738,44 +3169,45 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" thickBot="1">
       <c r="A47" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>226</v>
-      </c>
       <c r="C47" s="16">
         <v>2</v>
       </c>
       <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="16">
+        <v>2</v>
+      </c>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="19.5" thickBot="1">
-      <c r="A49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
@@ -2783,46 +3215,46 @@
     </row>
     <row r="51" spans="1:4" ht="19.5" thickBot="1">
       <c r="A51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C52" s="8">
         <v>2</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -2830,10 +3262,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
@@ -2841,10 +3273,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
@@ -2852,10 +3284,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
@@ -2863,55 +3295,54 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>244</v>
+        <v>103</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="108">
+    <row r="59" spans="1:4">
       <c r="A59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="108">
+      <c r="A60" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="131.25">
-      <c r="A60" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="C60" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="124.5">
+      <c r="D60" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="131.25">
       <c r="A61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="124.5">
+      <c r="A62" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1</v>
-      </c>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" ht="112.5">
-      <c r="A62" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>120</v>
@@ -2919,46 +3350,47 @@
       <c r="C62" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="102.75">
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" ht="63">
       <c r="A63" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="C63" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="63">
+    <row r="64" spans="1:4" ht="102.75">
       <c r="A64" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C64" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>113</v>
+    <row r="65" spans="1:3" ht="63">
+      <c r="A65" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C65" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C66" s="10">
         <v>2</v>
@@ -2966,10 +3398,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -2977,10 +3409,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" s="10">
         <v>2</v>
@@ -2988,10 +3420,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -2999,7 +3431,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>136</v>
@@ -3010,7 +3442,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>135</v>
@@ -3021,10 +3453,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C72" s="10">
         <v>2</v>
@@ -3032,10 +3464,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -3043,10 +3475,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -3054,10 +3486,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C75" s="10">
         <v>2</v>
@@ -3065,10 +3497,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -3076,10 +3508,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C77" s="10">
         <v>2</v>
@@ -3087,10 +3519,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -3098,10 +3530,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -3109,10 +3541,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C80" s="10">
         <v>2</v>
@@ -3120,10 +3552,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81" s="10">
         <v>2</v>
@@ -3131,10 +3563,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -3142,10 +3574,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -3153,10 +3585,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
@@ -3164,81 +3596,78 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="C85" s="10">
-        <v>0</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C86" s="10">
         <v>0</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" s="10">
         <v>0</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C88" s="10">
         <v>0</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>204</v>
+      <c r="E88" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>190</v>
@@ -3247,26 +3676,26 @@
         <v>0</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C90" s="10">
         <v>0</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>191</v>
@@ -3275,12 +3704,12 @@
         <v>0</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>190</v>
@@ -3289,26 +3718,26 @@
         <v>0</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C93" s="10">
         <v>0</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>191</v>
@@ -3317,12 +3746,12 @@
         <v>0</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>190</v>
@@ -3331,181 +3760,183 @@
         <v>0</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C96" s="10">
         <v>0</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C97" s="10">
         <v>0</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>208</v>
+      <c r="D97" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C98" s="10">
         <v>0</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C99" s="10">
         <v>0</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G99" s="8"/>
+      <c r="E99" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C100" s="10">
         <v>0</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>224</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G100" s="8"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C101" s="10">
         <v>0</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C102" s="10">
         <v>0</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C103" s="10">
         <v>0</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C104" s="10">
         <v>0</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" s="10">
+        <v>0</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="10">
-        <v>2</v>
-      </c>
-      <c r="E105" s="20"/>
+      <c r="E105" s="20" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>209</v>
@@ -3517,21 +3948,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C107" s="10">
         <v>2</v>
       </c>
+      <c r="E107" s="20"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="8" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="C108" s="10">
         <v>2</v>
@@ -3539,155 +3971,581 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="33">
+      <c r="A111" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C109" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="33">
-      <c r="A110" s="8" t="s">
+      <c r="B111" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" s="10">
+        <v>2</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C110" s="10">
-        <v>2</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C111" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C112" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B113" s="11" t="s">
+      <c r="C113" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C113" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="8" t="s">
+      <c r="C115" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="33">
+      <c r="A116" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B116" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="33">
-      <c r="A115" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="8" t="s">
+      <c r="B117" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B118" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" s="10">
+        <v>2</v>
+      </c>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C124" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="37.5">
+      <c r="A126" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" s="10">
+        <v>0</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="37.5">
+      <c r="A127" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="10">
+        <v>0</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B128" t="s">
+        <v>293</v>
+      </c>
+      <c r="C128" s="10">
+        <v>0</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" s="10">
+        <v>0</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B131" t="s">
+        <v>306</v>
+      </c>
+      <c r="C131" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C132" s="10">
+        <v>0</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C133" s="10">
+        <v>0</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" s="10">
+        <v>0</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="10">
+        <v>0</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136" s="10">
+        <v>0</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="10">
+        <v>0</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138" s="22">
+        <v>0</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C139" s="22">
+        <v>0</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C116" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="11" t="s">
+      <c r="B142" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="8" t="s">
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B143" t="s">
+        <v>240</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="8" t="s">
+      <c r="B144" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B122" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="8"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B146" t="s">
+        <v>244</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B148" t="s">
+        <v>250</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B149" t="s">
+        <v>252</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B151" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B152" t="s">
+        <v>257</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B153" t="s">
+        <v>260</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>261</v>
+      </c>
+      <c r="B154" t="s">
+        <v>259</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14DB8E7-D83B-4A72-B943-808EA9155F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB72A3-8742-4C9C-A6B7-1ADC2D33A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="311">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -730,43 +730,6 @@
 教授も実験室も家族写真を置いていて、いつも娘さんを眺めていたな。
 なぜこんなことになってしまったんだろうな。</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>抵抗薬は作り終えたか？後は逃げるだけだ。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>出口のドアは電子ロックだ。
-通電と同時にロックされているはずだから一度ブレーカーを落とせ。</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>デグチ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1985,12 +1948,62 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TXT_Memo_5_02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抵抗薬は作り終えたようだな。後は逃げるだけだ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>出口のドアは電子ロックだ。
+通電と同時にロックされているはずだから一度ブレーカーを落とせ。</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗薬を作るまで開けてはならない。</t>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2077,6 +2090,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2229,13 +2249,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2516,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2902,10 +2922,10 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" thickBot="1">
       <c r="A26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -2917,7 +2937,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -2966,10 +2986,10 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -2978,10 +2998,10 @@
     </row>
     <row r="32" spans="1:4" ht="19.5" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -2993,7 +3013,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -3056,24 +3076,24 @@
     </row>
     <row r="38" spans="1:4" ht="19.5" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="7">
         <v>2</v>
@@ -3081,10 +3101,10 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -3096,7 +3116,7 @@
         <v>68</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -3145,10 +3165,10 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" s="16">
         <v>2</v>
@@ -3157,10 +3177,10 @@
     </row>
     <row r="46" spans="1:4" ht="19.5" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" s="16">
         <v>2</v>
@@ -3169,10 +3189,10 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" thickBot="1">
       <c r="A47" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="C47" s="16">
         <v>2</v>
@@ -3181,10 +3201,10 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" thickBot="1">
       <c r="A48" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="C48" s="16">
         <v>2</v>
@@ -3306,10 +3326,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>242</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -3357,7 +3377,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63" s="10">
         <v>1</v>
@@ -3379,29 +3399,29 @@
         <v>117</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>113</v>
+      <c r="A66" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="C66" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -3409,10 +3429,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C68" s="10">
         <v>2</v>
@@ -3420,10 +3440,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -3431,10 +3451,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C70" s="10">
         <v>2</v>
@@ -3442,7 +3462,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>135</v>
@@ -3453,7 +3473,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>134</v>
@@ -3464,10 +3484,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -3475,10 +3495,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -3486,10 +3506,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C75" s="10">
         <v>2</v>
@@ -3497,10 +3517,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -3508,10 +3528,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C77" s="10">
         <v>2</v>
@@ -3519,10 +3539,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -3530,10 +3550,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -3541,10 +3561,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" s="10">
         <v>2</v>
@@ -3552,10 +3572,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C81" s="10">
         <v>2</v>
@@ -3563,10 +3583,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -3574,10 +3594,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -3585,10 +3605,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
@@ -3596,10 +3616,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="C85" s="10">
         <v>2</v>
@@ -3607,81 +3627,78 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="C86" s="10">
-        <v>0</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>193</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C87" s="10">
         <v>0</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C88" s="10">
         <v>0</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C89" s="10">
         <v>0</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>203</v>
+      <c r="E89" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>189</v>
@@ -3690,26 +3707,26 @@
         <v>0</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C91" s="10">
         <v>0</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>190</v>
@@ -3718,12 +3735,12 @@
         <v>0</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>189</v>
@@ -3732,26 +3749,26 @@
         <v>0</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C94" s="10">
         <v>0</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>190</v>
@@ -3760,12 +3777,12 @@
         <v>0</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>189</v>
@@ -3774,181 +3791,183 @@
         <v>0</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C97" s="10">
         <v>0</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="C98" s="10">
         <v>0</v>
       </c>
-      <c r="E98" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>207</v>
+      <c r="D98" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C99" s="10">
         <v>0</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C100" s="10">
         <v>0</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="G100" s="8"/>
+      <c r="E100" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C101" s="10">
         <v>0</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>223</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G101" s="8"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C102" s="10">
         <v>0</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C103" s="10">
         <v>0</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C104" s="10">
         <v>0</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C105" s="10">
         <v>0</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="10">
+        <v>0</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="10">
-        <v>2</v>
-      </c>
-      <c r="E106" s="20"/>
+      <c r="E106" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>208</v>
@@ -3960,21 +3979,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C108" s="10">
         <v>2</v>
       </c>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="8" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="C109" s="10">
         <v>2</v>
@@ -3982,46 +4002,46 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="33">
+      <c r="A112" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="33">
-      <c r="A111" s="8" t="s">
+      <c r="B112" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" s="10">
+        <v>2</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C111" s="10">
-        <v>2</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C112" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C113" s="10">
         <v>2</v>
@@ -4029,10 +4049,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="C114" s="10">
         <v>2</v>
@@ -4040,32 +4060,32 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="33">
+      <c r="A117" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="33">
-      <c r="A116" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C116" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>234</v>
+      <c r="B117" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="C117" s="10">
         <v>2</v>
@@ -4073,10 +4093,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C118" s="10">
         <v>2</v>
@@ -4084,10 +4104,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C119" s="10">
         <v>2</v>
@@ -4095,10 +4115,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C120" s="10">
         <v>2</v>
@@ -4106,10 +4126,10 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C121" s="10">
         <v>2</v>
@@ -4117,10 +4137,10 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="8" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C122" s="10">
         <v>2</v>
@@ -4128,305 +4148,305 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>276</v>
+        <v>265</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="C123" s="10">
         <v>2</v>
       </c>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>277</v>
+        <v>268</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="C124" s="10">
         <v>2</v>
       </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C125" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="37.5">
+    <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C126" s="10">
-        <v>0</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F126" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>272</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="37.5">
       <c r="A127" s="8" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C127" s="10">
         <v>0</v>
       </c>
-      <c r="E127" s="22" t="s">
+      <c r="E127" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="G127" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G127" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+    </row>
+    <row r="128" spans="1:7" ht="37.5">
       <c r="A128" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B128" t="s">
-        <v>293</v>
+        <v>285</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>286</v>
       </c>
       <c r="C128" s="10">
         <v>0</v>
       </c>
-      <c r="E128" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F128" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>292</v>
+      <c r="E128" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C129" s="10">
         <v>0</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="E129" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F129" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="F129" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G129" s="22" t="s">
-        <v>292</v>
+      <c r="G129" s="10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="8" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B130" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C130" s="10">
         <v>0</v>
       </c>
+      <c r="E130" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131" t="s">
         <v>304</v>
-      </c>
-      <c r="B131" t="s">
-        <v>306</v>
       </c>
       <c r="C131" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>298</v>
+      <c r="A132" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B132" t="s">
+        <v>305</v>
       </c>
       <c r="C132" s="10">
         <v>0</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="22" t="s">
-        <v>271</v>
+      <c r="A133" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C133" s="10">
         <v>0</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="22" t="s">
-        <v>272</v>
+      <c r="A134" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C134" s="10">
         <v>0</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="22" t="s">
-        <v>290</v>
+      <c r="A135" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C135" s="10">
         <v>0</v>
       </c>
-      <c r="D135" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>284</v>
+      <c r="D135" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="22" t="s">
-        <v>291</v>
+      <c r="A136" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C136" s="10">
         <v>0</v>
       </c>
-      <c r="D136" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="E136" s="24" t="s">
-        <v>284</v>
+      <c r="D136" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="22" t="s">
-        <v>292</v>
+      <c r="A137" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C137" s="10">
         <v>0</v>
       </c>
-      <c r="D137" s="22" t="s">
+      <c r="D137" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C138" s="10">
+        <v>0</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" s="10">
+        <v>0</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C140" s="10">
+        <v>0</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E137" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C138" s="22">
-        <v>0</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C139" s="22">
-        <v>0</v>
-      </c>
-      <c r="D139" s="22" t="s">
+      <c r="C141" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E139" s="24" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="B140" s="11" t="s">
+      <c r="B142" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C140" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C141" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B142" t="s">
-        <v>236</v>
-      </c>
-      <c r="C142">
+      <c r="C142" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B143" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -4434,37 +4454,37 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
-      </c>
-      <c r="C144" s="10">
+        <v>239</v>
+      </c>
+      <c r="C144">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="B145" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B146" t="s">
-        <v>244</v>
-      </c>
-      <c r="C146">
-        <v>2</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B147" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C147">
         <v>2</v>
@@ -4472,10 +4492,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B148" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -4483,10 +4503,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B149" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -4494,7 +4514,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B150" t="s">
         <v>251</v>
@@ -4505,10 +4525,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B151" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -4516,10 +4536,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" t="s">
         <v>255</v>
-      </c>
-      <c r="B152" t="s">
-        <v>257</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -4527,23 +4547,34 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>261</v>
+      <c r="A154" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="B154" t="s">
         <v>259</v>
       </c>
       <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" t="s">
+        <v>258</v>
+      </c>
+      <c r="C155">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB72A3-8742-4C9C-A6B7-1ADC2D33A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BBA21C-FFBA-4534-BCBB-D62B4A6A23EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="346">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -382,142 +382,6 @@
   </si>
   <si>
     <t>カセットプレーヤーだ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TXT_CassettePlayer_T2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>テープ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>のヒント</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>テープ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>のヒント</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>テープ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>のヒント</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>テープ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>のヒント</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TXT_CassettePlayer_T3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TXT_CassettePlayer_T4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TXT_CassettePlayer_T5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -615,121 +479,6 @@
   </si>
   <si>
     <t>TXT_Memo_5_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-症状が進行しておらず、助かる見込みがあるやつなら、という条件付きだがな。
-まずは「青い溶液の作成方法」
-と書かれたメモを探せ。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>このメモを読んでいるあんたには悪いが、実験室は私が荒らした。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>化け物になる手前でまだ知能が残っているやつ施設から出すわけにはいかないんだ。理解してくれ。
-ただ安心してほしい。無事な奴まで見殺しにするほど鬼じゃない。
-ここで体に入り込んだ胞子を死滅させる薬は作れる。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>これを見つけられるくらいの知能は残っているみたいだな。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>では「抵抗薬」の生成方法を指示する。
-まずは「試験管セット」を「遠心分離機」にかけろ。
-詳細は「青い溶液の作成方法」と書かれているカセットテープに録音した。
-次はそいつを探すんだ。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">青い溶液と赤い溶液を適切な分量で混ぜれば抵抗薬の完成だ。
-例によって詳細は同じ名前のカセットテープだ。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>まったく、家族が恋しいよ。
-教授も実験室も家族写真を置いていて、いつも娘さんを眺めていたな。
-なぜこんなことになってしまったんだろうな。</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1480,9 +1229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TXT_CassettePlayer_T6</t>
-  </si>
-  <si>
     <t>カセットプレーヤーを止めた</t>
     <rPh sb="10" eb="11">
       <t>ト</t>
@@ -1560,44 +1306,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>次は赤い溶液だ。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>やるこはさっきと同じで、用意されている溶液の遠心分離だ。
-必要なのは「試験管セット」と「小型遠心分離機」だ。
-。</t>
-    </r>
-    <rPh sb="44" eb="47">
-      <t>シケンカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1952,43 +1660,6 @@
     <t>TXT_Memo_5_02</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>抵抗薬は作り終えたようだな。後は逃げるだけだ。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>出口のドアは電子ロックだ。
-通電と同時にロックされているはずだから一度ブレーカーを落とせ。</t>
-    </r>
-    <rPh sb="25" eb="27">
-      <t>デグチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>抵抗薬を作るまで開けてはならない。</t>
     <rPh sb="4" eb="5">
       <t>ツク</t>
@@ -1997,13 +1668,1109 @@
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>これを読んでいるあんた、悪いが実験室は私が荒らした。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>化け物になりかけで知能が残っていたらまずいからな。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そんな奴を外に出すわけにはいかない理解してくれ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だが安心はしていい。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無事な奴まで見殺しにするほど私も鬼じゃない。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸い込んだ胞子を除去する『抵抗薬』はここで作れる。
+まだ脳が侵されていなければ、という条件付きだがな。
+まずは『青い溶液の作成方法』がメモを探せ。
+それすらできなきゃ。あんたはもう終わりだ。
+数時間後には化け物の仲間入りだ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_2_02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まずは『試験管セット』を『遠心分離機』にかけろ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>当然、これにも少し面倒な手順を踏んでもらう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細は『青い溶液の作成方法』と書いた</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>『カセットテープ』に録音した。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>次はそいつを探すんだ。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>『赤い溶液の作成方法』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>やるこは青い溶液と同じだ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用意しておいてやった溶液を遠心分離すればいい。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必要なのは『チューブセット』と『卓上遠心分離機』だ。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細な指示はカセットテープに録音した。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>このメモと同じタイトルのカセットテープを探せ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>今度はこいつを探すのに苦労してもらおう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>もし見つからないようなら一度頭を冷やすといい。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>確か救急箱に保冷シートが入っていたはずだ。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_3_02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>『抵抗薬の作成方法』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い溶液と赤い溶液を適切な分量で混ぜれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>『抵抗薬』の完成だ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例によって詳細は同じ名前のカセットテープだ。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_4_02</t>
+  </si>
+  <si>
+    <r>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まったく、家族が恋しいよ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>教授も実験室に家族写真を置いていて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>いつも娘さんを眺めていたな。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なぜ、こんなことになってしまったんだろうな。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">『青い溶液の作成方法』
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文字はまだ読めるようだな助かりたければ急げよ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で『抵抗薬』の生成方法を指示する。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_5_03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>『脱出方法』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抵抗薬は作り終えたか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>後は逃げるだけだ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>この部屋のドアは電子ロックになっている。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通電と同時にロックされているはずだから</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一度ブレーカーを落とせ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>真っ暗にはなるが狭い研究室だ、問題ないだろう。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逃げる途中に化け物に出くわしたら気をつけろ。
+あいつらは目も見えないし鼻もほぼ利かないが
+音には敏感だ。
+それでもゆっくりと脇を通れば問題ない。
+私は別の実験室にも同じ仕込みをしに行く。
+研究者としての責任だ。
+ここまでやれたんだ、あんたは無事に逃げ切ってくれよ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T2_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T2_002</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T2_003</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T2_004</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T2_005</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T3_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪いが声は加工させてもらうぞ
+聞き苦しくて悪いが、一応の保険だ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さて、試験管セットは極低温で保存している
+手が届かなかったら段ボールの中でも探してみろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所のヒントはこれで十分だろう...
+次に、遠心分離機を使うにはローターが必要だ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T4_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T6_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T3_002</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T3_003</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T3_004</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T3_005</t>
+  </si>
+  <si>
+    <t>穴の開いた丸い金属部品を探せ
+遠心分離は重さのバランスが悪いと失敗する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分らない事があればホワイトボードを見に行け
+問題がなければ、『青い溶液』が出来上がるはずだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">良く見つけたな、赤い溶液の作成は簡単だ
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T4_002</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T4_003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">青い溶液と赤い溶液を
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全て作業机の上の</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これで抵抗薬は完成
+飲めばお前は助かる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアのロックを解除して早く逃げろ
+俺は、先に行っている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5_002</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5_003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>手元には青い溶液の試験管３本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い溶液のチューブ２本があるな</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれ、微妙に溶液の濃さが違うだろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青い方は薄い順に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">10ml
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤い溶液も同様、薄い順に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4ml</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>それをクリーンベンチの上の試薬瓶に入れろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実験台のピペットで正確な分量が計れる</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5_004</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5_005</t>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上手くいっていれば透明な紫色の溶液になる
+症状が進行する前に早く飲んでしまえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>後は逃げるだけだ　逃げ方のメモを用意した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>あんたが入ってきたドアの周囲を調べてみろ</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CassettePlayer_T5_006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2065,13 +2832,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2093,6 +2853,55 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -2188,7 +2997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2245,15 +3054,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2536,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2922,10 +3752,10 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -2937,7 +3767,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -2986,10 +3816,10 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -2998,10 +3828,10 @@
     </row>
     <row r="32" spans="1:4" ht="19.5" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -3013,7 +3843,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -3076,24 +3906,24 @@
     </row>
     <row r="38" spans="1:4" ht="19.5" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C39" s="7">
         <v>2</v>
@@ -3101,10 +3931,10 @@
     </row>
     <row r="40" spans="1:4" ht="19.5" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -3116,7 +3946,7 @@
         <v>68</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -3165,10 +3995,10 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C45" s="16">
         <v>2</v>
@@ -3177,10 +4007,10 @@
     </row>
     <row r="46" spans="1:4" ht="19.5" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C46" s="16">
         <v>2</v>
@@ -3189,10 +4019,10 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C47" s="16">
         <v>2</v>
@@ -3201,10 +4031,10 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C48" s="16">
         <v>2</v>
@@ -3280,1162 +4110,1133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="33">
       <c r="A55" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="32.25">
+      <c r="A56" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="32.25">
+      <c r="A57" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="32.25">
+      <c r="A58" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="32.25">
+      <c r="A59" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="33">
+      <c r="A60" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8">
+        <v>2</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8">
+        <v>2</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="25.5">
+      <c r="A65" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" s="8">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="33">
+      <c r="A66" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="8">
+        <v>2</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24">
+      <c r="A67" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="25.5">
+      <c r="A68" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C68" s="8">
+        <v>2</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C69" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="25.5">
+      <c r="A70" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" s="8">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="25.5">
+      <c r="A71" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="24.75">
+      <c r="A72" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="8">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="25.5">
+      <c r="A73" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C73" s="8">
+        <v>2</v>
+      </c>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="83.25">
+      <c r="A75" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B75" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="7" t="s">
+    </row>
+    <row r="76" spans="1:4" ht="131.25">
+      <c r="A76" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="82.5" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="96" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1</v>
+      </c>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" ht="75.75">
+      <c r="A79" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="83.25">
+      <c r="A80" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" ht="79.5" customHeight="1">
+      <c r="A81" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="80.25" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C82" s="10">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" ht="129">
+      <c r="A83" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C83" s="10">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="99.75" customHeight="1">
+      <c r="A85" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="7" t="s">
+      <c r="B88" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="7" t="s">
+      <c r="C88" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="108">
-      <c r="A60" s="7" t="s">
+      <c r="B89" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="C89" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="8">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="131.25">
-      <c r="A61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="124.5">
-      <c r="A62" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="10">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" ht="63">
-      <c r="A63" s="7" t="s">
+      <c r="C95" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C63" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="102.75">
-      <c r="A64" s="7" t="s">
+      <c r="B96" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="63">
-      <c r="A65" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C82" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C84" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C85" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C86" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="10">
-        <v>0</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" s="10">
-        <v>0</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" s="10">
-        <v>0</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="10">
-        <v>0</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="10">
-        <v>0</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="10">
-        <v>0</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="10">
-        <v>0</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="10">
-        <v>0</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" s="10">
-        <v>0</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="C96" s="10">
-        <v>0</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C97" s="10">
-        <v>0</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="C98" s="10">
-        <v>0</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>218</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="C99" s="10">
-        <v>0</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="C100" s="10">
-        <v>0</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>212</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="C101" s="10">
-        <v>0</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G101" s="8"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="C102" s="10">
-        <v>0</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>222</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C103" s="10">
-        <v>0</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E103" s="20" t="s">
-        <v>222</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C104" s="10">
-        <v>0</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>222</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C105" s="10">
-        <v>0</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>222</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C106" s="10">
         <v>0</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>210</v>
+      <c r="E106" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="8" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="C107" s="10">
-        <v>2</v>
-      </c>
-      <c r="E107" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="8" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C108" s="10">
-        <v>2</v>
-      </c>
-      <c r="E108" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="8" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="C109" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C110" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C111" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="33">
+        <v>0</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C112" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="8" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C113" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C114" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="C115" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="8" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="C116" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="33">
+        <v>0</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>225</v>
+        <v>189</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="C117" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="8" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C118" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="8" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="C119" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="8" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="C120" s="10">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="8" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="C121" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="8" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="C122" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" s="20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="8" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="C123" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>275</v>
+        <v>199</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="C124" s="10">
-        <v>2</v>
-      </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="8" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="C125" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="C126" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="37.5">
+      <c r="E126" s="20"/>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>278</v>
+        <v>202</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C127" s="10">
-        <v>0</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="37.5">
+        <v>2</v>
+      </c>
+      <c r="E127" s="20"/>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>286</v>
+        <v>203</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="C128" s="10">
-        <v>0</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>295</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B129" t="s">
-        <v>292</v>
+        <v>138</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="C129" s="10">
-        <v>0</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>291</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B130" t="s">
-        <v>293</v>
+        <v>159</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="C130" s="10">
-        <v>0</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="33">
       <c r="A131" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B131" t="s">
-        <v>304</v>
+        <v>160</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="C131" s="10">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B132" t="s">
-        <v>305</v>
+        <v>161</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C132" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="10" t="s">
-        <v>269</v>
+      <c r="A133" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="C133" s="10">
-        <v>0</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>287</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="10" t="s">
-        <v>270</v>
+      <c r="A134" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="C134" s="10">
-        <v>0</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>287</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="10" t="s">
-        <v>271</v>
+      <c r="A135" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="C135" s="10">
-        <v>0</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>297</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="33">
+      <c r="A136" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="C136" s="10">
-        <v>0</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E136" s="23" t="s">
-        <v>283</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="10" t="s">
-        <v>290</v>
+      <c r="A137" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="C137" s="10">
-        <v>0</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E137" s="23" t="s">
-        <v>283</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="10" t="s">
-        <v>291</v>
+      <c r="A138" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C138" s="10">
-        <v>0</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E138" s="23" t="s">
-        <v>283</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="10" t="s">
-        <v>295</v>
+      <c r="A139" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="C139" s="10">
-        <v>0</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>287</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="10" t="s">
-        <v>296</v>
+      <c r="A140" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="C140" s="10">
-        <v>0</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E140" s="23" t="s">
-        <v>284</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="10" t="s">
-        <v>279</v>
+      <c r="A141" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C141" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="10" t="s">
-        <v>280</v>
+      <c r="A142" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C142" s="10">
         <v>2</v>
@@ -4443,138 +5244,422 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B143" t="s">
-        <v>235</v>
-      </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" s="10">
+        <v>2</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C145" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="37.5">
+      <c r="A146" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C146" s="10">
+        <v>0</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="37.5">
+      <c r="A147" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C147" s="10">
+        <v>0</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" t="s">
+        <v>278</v>
+      </c>
+      <c r="C148" s="10">
+        <v>0</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" t="s">
+        <v>279</v>
+      </c>
+      <c r="C149" s="10">
+        <v>0</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C152" s="10">
+        <v>0</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" s="10">
+        <v>0</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C154" s="10">
+        <v>0</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="10">
+        <v>0</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C156" s="10">
+        <v>0</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C157" s="10">
+        <v>0</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C158" s="10">
+        <v>0</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C159" s="10">
+        <v>0</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E159" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C160" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C161" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" t="s">
+        <v>223</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B164" t="s">
+        <v>247</v>
+      </c>
+      <c r="C164" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B166" t="s">
+        <v>230</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B167" t="s">
+        <v>232</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B168" t="s">
         <v>236</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B169" t="s">
+        <v>238</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B170" t="s">
+        <v>237</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B145" t="s">
-        <v>261</v>
-      </c>
-      <c r="C145" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="8" t="s">
+      <c r="B171" t="s">
+        <v>241</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B172" t="s">
         <v>242</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="8" t="s">
+      <c r="B173" t="s">
+        <v>245</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" t="s">
         <v>244</v>
       </c>
-      <c r="B148" t="s">
-        <v>245</v>
-      </c>
-      <c r="C148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B149" t="s">
-        <v>249</v>
-      </c>
-      <c r="C149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B150" t="s">
-        <v>251</v>
-      </c>
-      <c r="C150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B151" t="s">
-        <v>250</v>
-      </c>
-      <c r="C151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B152" t="s">
-        <v>255</v>
-      </c>
-      <c r="C152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B153" t="s">
-        <v>256</v>
-      </c>
-      <c r="C153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B154" t="s">
-        <v>259</v>
-      </c>
-      <c r="C154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>260</v>
-      </c>
-      <c r="B155" t="s">
-        <v>258</v>
-      </c>
-      <c r="C155">
+      <c r="C174">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BBA21C-FFBA-4534-BCBB-D62B4A6A23EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BD3F0-5301-4C02-953D-C37F66B01980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="356">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1658,16 +1658,6 @@
   </si>
   <si>
     <t>TXT_Memo_5_02</t>
-  </si>
-  <si>
-    <t>抵抗薬を作るまで開けてはならない。</t>
-    <rPh sb="4" eb="5">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -2765,12 +2755,116 @@
   <si>
     <t>TXT_CassettePlayer_T5_006</t>
   </si>
+  <si>
+    <t>TXT_Memo_2_00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_3_00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『青い溶液の作成方法』...
+書かれているのは何かの実験手順かな？</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>サクセイホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『赤い溶液の作成方法』…
+書かれているのは何かの実験手順かな？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_3_03</t>
+  </si>
+  <si>
+    <t>TXT_Memo_4_00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『赤い溶液の作成方法』のメモだ
+だけど、まずは青い溶液を作らなきゃ</t>
+    <rPh sb="23" eb="24">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『抵抗薬の作成方法』…
+今読んでもよくわからないや</t>
+    <rPh sb="12" eb="13">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_Memo_4_03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>『抵抗薬の作成方法」のメモだ！
+けど、今は赤い溶液を作らなきゃ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『脱出方法』...
+まだ逃げていられない</t>
+    <rPh sb="12" eb="13">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2907,6 +3001,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2997,7 +3098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3085,6 +3186,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3366,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4112,66 +4216,66 @@
     </row>
     <row r="55" spans="1:4" ht="33">
       <c r="A55" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="C55" s="8">
-        <v>2</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="32.25">
       <c r="A56" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C56" s="8">
-        <v>2</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="32.25">
       <c r="A57" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="32.25">
       <c r="A58" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="32.25">
       <c r="A59" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -4179,45 +4283,45 @@
     </row>
     <row r="60" spans="1:4" ht="33">
       <c r="A60" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8">
         <v>2</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8">
         <v>2</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8">
@@ -4226,7 +4330,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8">
@@ -4235,38 +4339,38 @@
     </row>
     <row r="65" spans="1:4" ht="25.5">
       <c r="A65" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="33">
       <c r="A66" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C66" s="8">
+        <v>2</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="C66" s="8">
-        <v>2</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24">
       <c r="A67" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C67" s="8">
         <v>2</v>
@@ -4274,80 +4378,80 @@
     </row>
     <row r="68" spans="1:4" ht="25.5">
       <c r="A68" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C68" s="8">
         <v>2</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C69" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="C69" s="8">
-        <v>2</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="25.5">
       <c r="A70" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C70" s="8">
         <v>2</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="25.5">
       <c r="A71" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C71" s="8">
         <v>2</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75">
       <c r="A72" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="25.5">
       <c r="A73" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -4356,7 +4460,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>228</v>
@@ -4370,7 +4474,7 @@
         <v>96</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C75" s="8">
         <v>1</v>
@@ -4384,184 +4488,188 @@
         <v>97</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C76" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="82.5" customHeight="1">
+    <row r="77" spans="1:4" ht="37.5">
       <c r="A77" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="82.5" customHeight="1">
+      <c r="A78" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C77" s="10">
-        <v>1</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="96" customHeight="1">
-      <c r="A78" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="B78" s="12" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C78" s="10">
         <v>1</v>
       </c>
-      <c r="D78" s="10"/>
-    </row>
-    <row r="79" spans="1:4" ht="75.75">
+      <c r="D78" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="96" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C79" s="10">
         <v>1</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="83.25">
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" ht="96" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C80" s="10"/>
-    </row>
-    <row r="81" spans="1:4" ht="79.5" customHeight="1">
+        <v>346</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" ht="75.75">
       <c r="A81" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C81" s="10">
         <v>1</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="80.25" customHeight="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="83.25">
       <c r="A82" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C82" s="10">
         <v>1</v>
       </c>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" ht="129">
+    </row>
+    <row r="83" spans="1:4" ht="27.75">
       <c r="A83" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>308</v>
+        <v>349</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="C83" s="10">
-        <v>1</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="27.75">
       <c r="A84" s="7" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="C84" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="99.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="79.5" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>309</v>
+        <v>108</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="C85" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>105</v>
+      <c r="D85" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="80.25" customHeight="1">
+      <c r="A86" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="C86" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" ht="41.25" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="C87" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>102</v>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" ht="129">
+      <c r="A88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="C88" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="27.75">
+      <c r="A89" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>355</v>
       </c>
       <c r="C89" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>123</v>
+    <row r="90" spans="1:4" ht="99.75" customHeight="1">
+      <c r="A90" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>308</v>
       </c>
       <c r="C90" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C91" s="10">
         <v>2</v>
@@ -4569,10 +4677,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C92" s="10">
         <v>2</v>
@@ -4580,10 +4688,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C93" s="10">
         <v>2</v>
@@ -4591,10 +4699,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C94" s="10">
         <v>2</v>
@@ -4602,10 +4710,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C95" s="10">
         <v>2</v>
@@ -4613,10 +4721,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C96" s="10">
         <v>2</v>
@@ -4624,10 +4732,10 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C97" s="10">
         <v>2</v>
@@ -4635,10 +4743,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C98" s="10">
         <v>2</v>
@@ -4646,10 +4754,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C99" s="10">
         <v>2</v>
@@ -4657,10 +4765,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C100" s="10">
         <v>2</v>
@@ -4668,10 +4776,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C101" s="10">
         <v>2</v>
@@ -4679,10 +4787,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C102" s="10">
         <v>2</v>
@@ -4690,10 +4798,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C103" s="10">
         <v>2</v>
@@ -4701,10 +4809,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="C104" s="10">
         <v>2</v>
@@ -4712,10 +4820,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C105" s="10">
         <v>2</v>
@@ -4723,140 +4831,125 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C106" s="10">
-        <v>0</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>180</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="8" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="C107" s="10">
-        <v>0</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>186</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="8" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C108" s="10">
-        <v>0</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="8" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C109" s="10">
-        <v>0</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="8" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C110" s="10">
-        <v>0</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C111" s="10">
         <v>0</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>190</v>
+      <c r="E111" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C112" s="10">
         <v>0</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>190</v>
+      <c r="E112" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C113" s="10">
         <v>0</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>190</v>
+      <c r="E113" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C114" s="10">
         <v>0</v>
@@ -4867,10 +4960,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C115" s="10">
         <v>0</v>
@@ -4881,10 +4974,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C116" s="10">
         <v>0</v>
@@ -4895,373 +4988,385 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C117" s="10">
         <v>0</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C118" s="10">
         <v>0</v>
       </c>
-      <c r="E118" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>194</v>
+      <c r="D118" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C119" s="10">
         <v>0</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>200</v>
+      <c r="D119" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C120" s="10">
         <v>0</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E120" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G120" s="8"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C121" s="10">
         <v>0</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C122" s="10">
         <v>0</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E122" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="C123" s="10">
         <v>0</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E123" s="20" t="s">
-        <v>210</v>
+      <c r="E123" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C124" s="10">
         <v>0</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E124" s="20" t="s">
-        <v>210</v>
+      <c r="E124" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C125" s="10">
         <v>0</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>198</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G125" s="8"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="10">
+        <v>0</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C126" s="10">
-        <v>2</v>
-      </c>
-      <c r="E126" s="20"/>
+      <c r="E126" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C127" s="10">
-        <v>2</v>
-      </c>
-      <c r="E127" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C128" s="10">
+        <v>0</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E128" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C129" s="10">
+        <v>0</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="10">
+        <v>0</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C131" s="10">
+        <v>2</v>
+      </c>
+      <c r="E131" s="20"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C132" s="10">
+        <v>2</v>
+      </c>
+      <c r="E132" s="20"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C128" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="8" t="s">
+      <c r="C133" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B134" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C129" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="8" t="s">
+      <c r="C134" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C130" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="33">
-      <c r="A131" s="8" t="s">
+      <c r="C135" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="33">
+      <c r="A136" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="B136" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C131" s="10">
-        <v>2</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="C136" s="10">
+        <v>2</v>
+      </c>
+      <c r="D136" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="8" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C132" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="8" t="s">
+      <c r="C137" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B138" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C133" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="8" t="s">
+      <c r="C138" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B139" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C134" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="8" t="s">
+      <c r="C139" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B140" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C135" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="33">
-      <c r="A136" s="8" t="s">
+      <c r="C140" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="33">
+      <c r="A141" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B141" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C136" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="8" t="s">
+      <c r="C141" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B142" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C137" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="8" t="s">
+      <c r="C142" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B143" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C138" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="8" t="s">
+      <c r="C143" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B144" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="C139" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C140" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C141" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C142" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C143" s="10">
-        <v>2</v>
-      </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="C144" s="10">
         <v>2</v>
@@ -5269,216 +5374,195 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="8" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C145" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="37.5">
+    <row r="146" spans="1:7">
       <c r="A146" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>264</v>
+        <v>220</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="C146" s="10">
-        <v>0</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F146" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="37.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="C147" s="10">
-        <v>0</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F147" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>281</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B148" t="s">
-        <v>278</v>
+        <v>254</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="C148" s="10">
-        <v>0</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>277</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B149" t="s">
-        <v>279</v>
+        <v>258</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="C149" s="10">
-        <v>0</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>277</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B150" t="s">
-        <v>290</v>
+        <v>259</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="C150" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="37.5">
       <c r="A151" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B151" t="s">
-        <v>291</v>
+        <v>260</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="C151" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="10" t="s">
+      <c r="E151" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>283</v>
+      <c r="F151" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="37.5">
+      <c r="A152" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="C152" s="10">
         <v>0</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="E152" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="8" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>284</v>
+      <c r="B153" t="s">
+        <v>278</v>
       </c>
       <c r="C153" s="10">
         <v>0</v>
       </c>
-      <c r="D153" s="8" t="s">
-        <v>273</v>
+      <c r="E153" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>285</v>
+      <c r="A154" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B154" t="s">
+        <v>279</v>
       </c>
       <c r="C154" s="10">
         <v>0</v>
       </c>
-      <c r="D154" s="8" t="s">
-        <v>280</v>
+      <c r="E154" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>283</v>
+      <c r="A155" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B155" t="s">
+        <v>290</v>
       </c>
       <c r="C155" s="10">
         <v>0</v>
       </c>
-      <c r="D155" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>284</v>
+      <c r="A156" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" t="s">
+        <v>291</v>
       </c>
       <c r="C156" s="10">
         <v>0</v>
       </c>
-      <c r="D156" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="10" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C157" s="10">
         <v>0</v>
       </c>
-      <c r="D157" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E157" s="23" t="s">
-        <v>269</v>
+      <c r="D157" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="10" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C158" s="10">
         <v>0</v>
@@ -5489,177 +5573,256 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="10" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C159" s="10">
         <v>0</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E159" s="23" t="s">
-        <v>270</v>
+      <c r="D159" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C160" s="10">
+        <v>0</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C161" s="10">
+        <v>0</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E161" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C162" s="10">
+        <v>0</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C163" s="10">
+        <v>0</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C164" s="10">
+        <v>0</v>
+      </c>
+      <c r="D164" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="E164" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B165" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C160" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="10" t="s">
+      <c r="C165" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B166" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C161" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="8" t="s">
+      <c r="C166" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B167" t="s">
         <v>223</v>
       </c>
-      <c r="C162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="8" t="s">
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B168" t="s">
         <v>227</v>
       </c>
-      <c r="C163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="8" t="s">
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B169" t="s">
         <v>247</v>
       </c>
-      <c r="C164" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="8" t="s">
+      <c r="C169" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="8" t="s">
+    <row r="171" spans="1:5">
+      <c r="A171" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B171" t="s">
         <v>230</v>
       </c>
-      <c r="C166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="8" t="s">
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B172" t="s">
         <v>232</v>
       </c>
-      <c r="C167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="8" t="s">
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B173" t="s">
         <v>236</v>
       </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="8" t="s">
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B174" t="s">
         <v>238</v>
       </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="8" t="s">
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B175" t="s">
         <v>237</v>
       </c>
-      <c r="C170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="8" t="s">
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B176" t="s">
         <v>241</v>
       </c>
-      <c r="C171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="8" t="s">
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B177" t="s">
         <v>242</v>
       </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="8" t="s">
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B178" t="s">
         <v>245</v>
       </c>
-      <c r="C173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
         <v>246</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B179" t="s">
         <v>244</v>
       </c>
-      <c r="C174">
+      <c r="C179">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BD3F0-5301-4C02-953D-C37F66B01980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F7873-B357-4C02-A75B-849072BC76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="358">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1353,16 +1353,6 @@
   </si>
   <si>
     <t>TXT_PurpleClowdySolution_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チップホルダーは手に入った</t>
-    <rPh sb="8" eb="9">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1861,79 +1851,6 @@
         <charset val="128"/>
       </rPr>
       <t>次はそいつを探すんだ。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>『赤い溶液の作成方法』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>やるこは青い溶液と同じだ。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>用意しておいてやった溶液を遠心分離すればいい。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>必要なのは『チューブセット』と『卓上遠心分離機』だ。</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2856,6 +2773,102 @@
 まだ逃げていられない</t>
     <rPh sb="12" eb="13">
       <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_CentrifugeM_05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>『赤い溶液の作成方法』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>手順は青い溶液と同じだ。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用意しておいてやった溶液を遠心分離すればいい。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必要なのは『チューブセット』と『卓上遠心分離機』だ。</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きっとこれが卓上遠心分離機だ</t>
+    <rPh sb="6" eb="8">
+      <t>タクジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>エンシンブンリキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレーカーを落とそう</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3098,7 +3111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3186,9 +3199,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3470,10 +3480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4135,10 +4145,10 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" thickBot="1">
       <c r="A48" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>292</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>293</v>
       </c>
       <c r="C48" s="16">
         <v>2</v>
@@ -4216,66 +4226,66 @@
     </row>
     <row r="55" spans="1:4" ht="33">
       <c r="A55" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="32.25">
       <c r="A56" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="32.25">
       <c r="A57" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="32.25">
       <c r="A58" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="32.25">
       <c r="A59" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -4283,45 +4293,45 @@
     </row>
     <row r="60" spans="1:4" ht="33">
       <c r="A60" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8">
         <v>2</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8">
         <v>2</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8">
@@ -4330,7 +4340,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8">
@@ -4339,38 +4349,38 @@
     </row>
     <row r="65" spans="1:4" ht="25.5">
       <c r="A65" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="33">
       <c r="A66" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C66" s="8">
         <v>2</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24">
       <c r="A67" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C67" s="8">
         <v>2</v>
@@ -4378,80 +4388,80 @@
     </row>
     <row r="68" spans="1:4" ht="25.5">
       <c r="A68" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C68" s="8">
         <v>2</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C69" s="8">
         <v>2</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="25.5">
       <c r="A70" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B70" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="C70" s="8">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="C70" s="8">
-        <v>2</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="25.5">
       <c r="A71" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B71" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="C71" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75">
       <c r="A72" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B72" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="C72" s="8">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="C72" s="8">
-        <v>2</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="25.5">
       <c r="A73" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -4460,7 +4470,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>228</v>
@@ -4474,7 +4484,7 @@
         <v>96</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C75" s="8">
         <v>1</v>
@@ -4488,7 +4498,7 @@
         <v>97</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C76" s="8">
         <v>1</v>
@@ -4496,12 +4506,12 @@
     </row>
     <row r="77" spans="1:4" ht="37.5">
       <c r="A77" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C77" s="32">
+      <c r="C77" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4510,21 +4520,21 @@
         <v>106</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C78" s="10">
         <v>1</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="96" customHeight="1">
       <c r="A79" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="C79" s="10">
         <v>1</v>
@@ -4533,10 +4543,10 @@
     </row>
     <row r="80" spans="1:4" ht="96" customHeight="1">
       <c r="A80" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B80" s="24" t="s">
         <v>346</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>348</v>
       </c>
       <c r="C80" s="10">
         <v>2</v>
@@ -4548,21 +4558,21 @@
         <v>107</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="C81" s="10">
         <v>1</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="83.25">
       <c r="A82" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C82" s="10">
         <v>1</v>
@@ -4570,10 +4580,10 @@
     </row>
     <row r="83" spans="1:4" ht="27.75">
       <c r="A83" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B83" s="24" t="s">
         <v>349</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>351</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -4581,10 +4591,10 @@
     </row>
     <row r="84" spans="1:4" ht="27.75">
       <c r="A84" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="24" t="s">
         <v>350</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>352</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
@@ -4595,21 +4605,21 @@
         <v>108</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C85" s="10">
         <v>1</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="80.25" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C86" s="10">
         <v>1</v>
@@ -4618,10 +4628,10 @@
     </row>
     <row r="87" spans="1:4" ht="41.25" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C87" s="10">
         <v>2</v>
@@ -4633,21 +4643,21 @@
         <v>109</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C88" s="10">
         <v>1</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="27.75">
       <c r="A89" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C89" s="10">
         <v>2</v>
@@ -4655,10 +4665,10 @@
     </row>
     <row r="90" spans="1:4" ht="99.75" customHeight="1">
       <c r="A90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>308</v>
       </c>
       <c r="C90" s="10">
         <v>1</v>
@@ -5308,10 +5318,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>214</v>
+        <v>356</v>
       </c>
       <c r="C139" s="10">
         <v>2</v>
@@ -5319,32 +5329,32 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C140" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B141" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C140" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="33">
-      <c r="A141" s="8" t="s">
+      <c r="C141" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="33">
+      <c r="A142" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B142" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="C141" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="C142" s="10">
         <v>2</v>
@@ -5352,10 +5362,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C143" s="10">
         <v>2</v>
@@ -5363,10 +5373,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C144" s="10">
         <v>2</v>
@@ -5374,10 +5384,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C145" s="10">
         <v>2</v>
@@ -5385,10 +5395,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C146" s="10">
         <v>2</v>
@@ -5396,10 +5406,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="8" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C147" s="10">
         <v>2</v>
@@ -5407,305 +5417,305 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B148" s="22" t="s">
-        <v>261</v>
+        <v>250</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="C148" s="10">
         <v>2</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>262</v>
+        <v>253</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="C149" s="10">
         <v>2</v>
       </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C150" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="37.5">
+    <row r="151" spans="1:7">
       <c r="A151" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="C151" s="10">
-        <v>0</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="37.5">
       <c r="A152" s="8" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C152" s="10">
         <v>0</v>
       </c>
       <c r="E152" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F152" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F152" s="10" t="s">
+      <c r="G152" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G152" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+    </row>
+    <row r="153" spans="1:7" ht="37.5">
       <c r="A153" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B153" t="s">
-        <v>278</v>
+        <v>270</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="C153" s="10">
         <v>0</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C154" s="10">
         <v>0</v>
       </c>
       <c r="E154" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F154" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F154" s="10" t="s">
-        <v>282</v>
-      </c>
       <c r="G154" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B155" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C155" s="10">
         <v>0</v>
       </c>
+      <c r="E155" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B156" t="s">
         <v>289</v>
-      </c>
-      <c r="B156" t="s">
-        <v>291</v>
       </c>
       <c r="C156" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>283</v>
+      <c r="A157" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B157" t="s">
+        <v>290</v>
       </c>
       <c r="C157" s="10">
         <v>0</v>
       </c>
-      <c r="D157" s="8" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C158" s="10">
         <v>0</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C159" s="10">
         <v>0</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="10" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C160" s="10">
         <v>0</v>
       </c>
-      <c r="D160" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E160" s="23" t="s">
-        <v>269</v>
+      <c r="D160" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C161" s="10">
         <v>0</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C162" s="10">
         <v>0</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C163" s="10">
         <v>0</v>
       </c>
-      <c r="D163" s="8" t="s">
-        <v>273</v>
+      <c r="D163" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C164" s="10">
         <v>0</v>
       </c>
-      <c r="D164" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E164" s="23" t="s">
-        <v>270</v>
+      <c r="D164" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="10" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C165" s="10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B166" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="C166" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" t="s">
-        <v>223</v>
-      </c>
-      <c r="C167">
+      <c r="A167" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C167" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B168" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -5713,37 +5723,37 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B169" t="s">
-        <v>247</v>
-      </c>
-      <c r="C169" s="10">
+        <v>227</v>
+      </c>
+      <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="B170" t="s">
+        <v>357</v>
+      </c>
+      <c r="C170" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B171" t="s">
-        <v>230</v>
-      </c>
-      <c r="C171">
-        <v>2</v>
+        <v>226</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B172" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -5751,10 +5761,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B173" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -5762,10 +5772,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B174" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -5773,10 +5783,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B175" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -5784,10 +5794,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -5795,10 +5805,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B177" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -5806,23 +5816,34 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B178" t="s">
+        <v>242</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>245</v>
       </c>
-      <c r="C178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
         <v>246</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>244</v>
       </c>
-      <c r="C179">
+      <c r="C180">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F7873-B357-4C02-A75B-849072BC76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E07D9E-A4CD-4B0A-B717-2DB60DC4DCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="360">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -916,13 +916,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回転数をセットしよう</t>
-    <rPh sb="0" eb="3">
-      <t>カイテンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_Centrifuge_11</t>
   </si>
   <si>
@@ -932,18 +925,6 @@
     <t>TXT_Centrifuge_13</t>
   </si>
   <si>
-    <t>B ( rpm )</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A ( rpm )</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C (rpm )</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_Centrifuge_14</t>
   </si>
   <si>
@@ -954,18 +935,6 @@
   </si>
   <si>
     <t>TXT_Centrifuge_17</t>
-  </si>
-  <si>
-    <t>D ( sec )</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E ( sec )</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F ( sec )</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TXT_Centrifuge_18</t>
@@ -1011,25 +980,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>青黒い溶液を手に入れた</t>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウエキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TXT_Centrifuge_27</t>
   </si>
   <si>
@@ -1060,16 +1010,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もう一度やり直そう</t>
-    <rPh sb="2" eb="4">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1585,10 +1525,6 @@
     <t>TXT_PpetChoice_008</t>
   </si>
   <si>
-    <t>0.2( mL )x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1( mL )x</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1598,10 +1534,6 @@
   </si>
   <si>
     <t>10( mL )x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1( mL )o</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2872,12 +2804,137 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>5( mL )x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5( mL )o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱出方法のメモを探そう</t>
+    <rPh sb="0" eb="4">
+      <t>ダッシュツホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えーっと、『回転速度』の設定...？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>えーっと、『回転速度』の設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000 rpm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4000 rpm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6000 rpm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 秒</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10 秒</t>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15 秒</t>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青黒い溶液を手に入れた…</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度やり直そう
+青黒い溶液は捨ててしまおう</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アオグロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3021,6 +3078,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3111,7 +3188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3200,6 +3277,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3482,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4133,10 +4212,10 @@
     </row>
     <row r="47" spans="1:4" ht="19.5" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C47" s="16">
         <v>2</v>
@@ -4145,10 +4224,10 @@
     </row>
     <row r="48" spans="1:4" ht="19.5" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C48" s="16">
         <v>2</v>
@@ -4226,66 +4305,66 @@
     </row>
     <row r="55" spans="1:4" ht="33">
       <c r="A55" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="32.25">
       <c r="A56" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="32.25">
       <c r="A57" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="32.25">
       <c r="A58" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="32.25">
       <c r="A59" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -4293,45 +4372,45 @@
     </row>
     <row r="60" spans="1:4" ht="33">
       <c r="A60" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8">
         <v>2</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8">
         <v>2</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8">
@@ -4340,7 +4419,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8">
@@ -4349,38 +4428,38 @@
     </row>
     <row r="65" spans="1:4" ht="25.5">
       <c r="A65" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="33">
       <c r="A66" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C66" s="8">
         <v>2</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24">
       <c r="A67" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C67" s="8">
         <v>2</v>
@@ -4388,80 +4467,80 @@
     </row>
     <row r="68" spans="1:4" ht="25.5">
       <c r="A68" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C68" s="8">
         <v>2</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C69" s="8">
         <v>2</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="25.5">
       <c r="A70" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C70" s="8">
         <v>2</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="25.5">
       <c r="A71" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C71" s="8">
         <v>2</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75">
       <c r="A72" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="25.5">
       <c r="A73" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -4470,10 +4549,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C74" s="8">
         <v>2</v>
@@ -4484,7 +4563,7 @@
         <v>96</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C75" s="8">
         <v>1</v>
@@ -4498,7 +4577,7 @@
         <v>97</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C76" s="8">
         <v>1</v>
@@ -4506,10 +4585,10 @@
     </row>
     <row r="77" spans="1:4" ht="37.5">
       <c r="A77" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C77" s="10">
         <v>2</v>
@@ -4520,21 +4599,21 @@
         <v>106</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C78" s="10">
         <v>1</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="96" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C79" s="10">
         <v>1</v>
@@ -4543,10 +4622,10 @@
     </row>
     <row r="80" spans="1:4" ht="96" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C80" s="10">
         <v>2</v>
@@ -4558,21 +4637,21 @@
         <v>107</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C81" s="10">
         <v>1</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="83.25">
       <c r="A82" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C82" s="10">
         <v>1</v>
@@ -4580,10 +4659,10 @@
     </row>
     <row r="83" spans="1:4" ht="27.75">
       <c r="A83" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -4591,10 +4670,10 @@
     </row>
     <row r="84" spans="1:4" ht="27.75">
       <c r="A84" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
@@ -4605,21 +4684,21 @@
         <v>108</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C85" s="10">
         <v>1</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="80.25" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C86" s="10">
         <v>1</v>
@@ -4628,10 +4707,10 @@
     </row>
     <row r="87" spans="1:4" ht="41.25" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C87" s="10">
         <v>2</v>
@@ -4643,21 +4722,21 @@
         <v>109</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C88" s="10">
         <v>1</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="27.75">
       <c r="A89" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C89" s="10">
         <v>2</v>
@@ -4665,10 +4744,10 @@
     </row>
     <row r="90" spans="1:4" ht="99.75" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C90" s="10">
         <v>1</v>
@@ -4872,12 +4951,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" ht="33">
       <c r="A109" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>205</v>
+      <c r="B109" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="C109" s="10">
         <v>2</v>
@@ -4898,337 +4977,337 @@
       <c r="A111" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>172</v>
+      <c r="B111" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="C111" s="10">
         <v>0</v>
       </c>
       <c r="E111" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="G111" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B112" s="11" t="s">
         <v>172</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>350</v>
       </c>
       <c r="C112" s="10">
         <v>0</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="C113" s="10">
         <v>0</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="C114" s="10">
         <v>0</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="C115" s="10">
         <v>0</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="C116" s="10">
         <v>0</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="C117" s="10">
         <v>0</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="C118" s="10">
         <v>0</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="C119" s="10">
         <v>0</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="C120" s="10">
         <v>0</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="C121" s="10">
         <v>0</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="C122" s="10">
         <v>0</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C123" s="10">
         <v>0</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C124" s="10">
         <v>0</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>183</v>
+        <v>355</v>
       </c>
       <c r="C125" s="10">
         <v>0</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E125" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="E125" s="20" t="s">
-        <v>210</v>
       </c>
       <c r="G125" s="8"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="C126" s="10">
         <v>0</v>
       </c>
       <c r="D126" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E126" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="E126" s="20" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="C127" s="10">
         <v>0</v>
       </c>
       <c r="D127" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E127" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>183</v>
+        <v>355</v>
       </c>
       <c r="C128" s="10">
         <v>0</v>
       </c>
       <c r="D128" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="E128" s="20" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="C129" s="10">
         <v>0</v>
       </c>
       <c r="D129" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E129" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
       <c r="C130" s="10">
         <v>0</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="C131" s="10">
         <v>2</v>
@@ -5237,10 +5316,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C132" s="10">
         <v>2</v>
@@ -5249,10 +5328,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C133" s="10">
         <v>2</v>
@@ -5318,10 +5397,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="8" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C139" s="10">
         <v>2</v>
@@ -5332,7 +5411,7 @@
         <v>167</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C140" s="10">
         <v>2</v>
@@ -5340,10 +5419,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C141" s="10">
         <v>2</v>
@@ -5351,10 +5430,10 @@
     </row>
     <row r="142" spans="1:5" ht="33">
       <c r="A142" s="8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C142" s="10">
         <v>2</v>
@@ -5362,10 +5441,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C143" s="10">
         <v>2</v>
@@ -5373,10 +5452,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C144" s="10">
         <v>2</v>
@@ -5384,10 +5463,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C145" s="10">
         <v>2</v>
@@ -5395,10 +5474,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C146" s="10">
         <v>2</v>
@@ -5406,10 +5485,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C147" s="10">
         <v>2</v>
@@ -5417,10 +5496,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C148" s="10">
         <v>2</v>
@@ -5428,10 +5507,10 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C149" s="10">
         <v>2</v>
@@ -5442,10 +5521,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="8" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C150" s="10">
         <v>2</v>
@@ -5453,10 +5532,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C151" s="10">
         <v>2</v>
@@ -5464,236 +5543,236 @@
     </row>
     <row r="152" spans="1:7" ht="37.5">
       <c r="A152" s="8" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C152" s="10">
         <v>0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="37.5">
       <c r="A153" s="8" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C153" s="10">
         <v>0</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C154" s="10">
         <v>0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="8" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C155" s="10">
         <v>0</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="8" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B156" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C156" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C157" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C158" s="10">
         <v>0</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="C159" s="10">
         <v>0</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C160" s="10">
         <v>0</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C161" s="10">
         <v>0</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="10" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="C162" s="10">
         <v>0</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C163" s="10">
         <v>0</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="10" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C164" s="10">
         <v>0</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="10" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="C165" s="10">
         <v>0</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C166" s="10">
         <v>2</v>
@@ -5701,10 +5780,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C167" s="10">
         <v>2</v>
@@ -5712,10 +5791,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B168" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -5723,10 +5802,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="8" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B169" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -5734,10 +5813,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B170" t="s">
-        <v>357</v>
+        <v>216</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="C170" s="10">
         <v>2</v>
@@ -5745,15 +5824,21 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="B171" t="s">
+        <v>346</v>
+      </c>
+      <c r="C171" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="8" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B172" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -5761,10 +5846,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B173" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -5772,10 +5857,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B174" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -5783,10 +5868,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B175" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -5794,10 +5879,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -5805,10 +5890,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B177" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -5816,10 +5901,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B178" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C178">
         <v>2</v>
@@ -5827,10 +5912,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="8" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B179" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C179">
         <v>2</v>
@@ -5838,10 +5923,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B180" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C180">
         <v>2</v>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="400">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -52,11 +52,7 @@
     <t xml:space="preserve">TXT_Stretcher_001</t>
   </si>
   <si>
-    <t xml:space="preserve">上に乗れば、ランプに手が届きそう
-のぼってみようかな？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Stretcher_002</t>
+    <t xml:space="preserve">上に乗ればランプを調べられそうだな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_System_001</t>
@@ -65,9 +61,6 @@
     <t xml:space="preserve">TXT_System_002</t>
   </si>
   <si>
-    <t xml:space="preserve">のぼろうかな？</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_Stretcher_003</t>
   </si>
   <si>
@@ -86,107 +79,127 @@
     <t xml:space="preserve">TXT_Memo_001_content_010</t>
   </si>
   <si>
-    <t xml:space="preserve">これを読んでいるあんた。
-悪いが実験室は
-私が荒らした。
-化け物になりかけの奴を
-外に出すわけには行かない。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">これを読んでいるあんたには悪いが
+実験室は私が荒らした
+化け物になりかけの感染者を
+外に出すわけには行かないからな
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">だが安心はしていい
+無事な奴まで見殺しにするほど
+私も鬼じゃない</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_001_content_015</t>
   </si>
   <si>
-    <t xml:space="preserve">だが安心はしていい。
-無事な奴まで見殺しにするほど
-私も鬼じゃない。</t>
+    <t xml:space="preserve">常備していた『抵抗薬』は処分したがここで作ることはできる
+あんたの頭がまだ狂ってなければ
+という条件付きだがな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_001_content_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『抵抗薬』は処分したが
-新たに作ることはできる。
-まだ脳が侵されていなければ
-という条件付きだがな。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_001_content_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まずは
-『溶液Aの作成方法』
-が書かれたメモを探せ。
+    <t xml:space="preserve">まずは『溶液Aの作成方法』が
+書かれたメモを探せ
 それすらできなきゃ
-あんたはもう終わりだ。</t>
+あんたはもう終わりだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_002_content_010</t>
   </si>
   <si>
-    <t xml:space="preserve">『溶液Aの作成方法』
-文字はまだ読めるようだな。
-助かりたければ急げよ。
-では『抵抗薬』の
-合成方法を指示する。</t>
+    <t xml:space="preserve">『溶液Aの作成方法』はここに記す
+助かりたければ急医で作業しろよ
+『抵抗薬』を作るには二つの溶液を
+合成する必要がある
+これはその一つ目だ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_002_content_020</t>
   </si>
   <si>
-    <t xml:space="preserve">まずは
+    <t xml:space="preserve">まずは『試験管セット』を
+『遠心分離機』にかけろ
+詳細はこのメモと同じ名前の
+『カセットテープ』に録音した
+次はそいつを探すんだ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_002_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Aの作成方法』って書いてある実験手順のメモかな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_003_content_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『溶液Bの作成方法』はここに記す
+やることは溶液Aと同じだ
 『試験管セット』を
-『遠心分離機』にかけろ。
-詳細はこのメモと同じ名前の
-『カセットテープ』に録音した。
-次はそいつを探すんだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_002_reaction_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">『溶液Aの作成方法』？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_002_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何かの実験手順が
-書かれたメモだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_003_content_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">『溶液Bの作成方法』
-やることは溶液Aと同じだ。
-『試験管セット』を
-『卓上遠心分離機』にかけろ。</t>
+今度は『卓上遠心分離機』にかけろ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_003_content_020</t>
   </si>
   <si>
-    <t xml:space="preserve">詳細は『カセットテープ』だ。
-このメモ名前のテープを探せ。
-もし見つからないようなら
-一度頭を冷やすといい。
+    <t xml:space="preserve">詳細は『カセットテープ』だ
+このメモ名前のテープを探せ
+もしテープが見つからないようなら
+一度頭を冷やすといい
 救急箱に保冷シートが
-入っていたはずだ。</t>
+入っていたはずだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_003_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">『溶液Bの作成方法』？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_003_reaction_015</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">何かの実験手順が書かれたメモだ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">『溶液Bの作成方法』って書いてある</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_003_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『溶液Bの作成方法」！</t>
+    <t xml:space="preserve">『溶液Bの作成方法」のメモだ！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_003_reaction_025</t>
@@ -199,22 +212,21 @@
     <t xml:space="preserve">TXT_Memo_004_content_010</t>
   </si>
   <si>
-    <t xml:space="preserve">『抵抗薬の作成方法』
-溶液Aと溶液Bを
-適切な分量で混ぜれば
-『抵抗薬』の完成だ。
+    <t xml:space="preserve">『抵抗薬の作成方法』はここに記す
+溶液Aと溶液Bを適切な量で混ぜれば
+『抵抗薬』の完成だ
 例によって詳細は
-同じ名前のカセットテープだ。</t>
+同じ名前のカセットテープだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_004_content_020</t>
   </si>
   <si>
-    <t xml:space="preserve">...まったく、家族が恋しいよ。
+    <t xml:space="preserve">...まったく、家族が恋しいよ
 教授もいつも娘さんの
-写真を眺めていたな。
+写真を眺めていたな
 ...なぜ、こんなことに
-なってしまったんだろうな。</t>
+なってしまったんだろうな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_004_reaction_010</t>
@@ -226,19 +238,33 @@
     <t xml:space="preserve">TXT_Memo_004_reaction_015</t>
   </si>
   <si>
-    <t xml:space="preserve">実験手順がかかれているけど</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_004_reaction_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今読んでもよく分からないや</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">実験手順がかかれているけど
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">今読んでもよく分からないや</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_004_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『抵抗薬の作成方法」！</t>
+    <t xml:space="preserve">『抵抗薬の作成方法」のメモだ！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_004_reaction_025</t>
@@ -247,132 +273,221 @@
     <t xml:space="preserve">TXT_Memo_005_content_010</t>
   </si>
   <si>
-    <t xml:space="preserve">『脱出方法』
+    <t xml:space="preserve">『脱出方法』はここに記す
 抵抗薬は作り終えたか？
-後は逃げるだけだ。
-この部屋のドアは電子ロックで
-通電時にロックされるはずだ。</t>
+後は逃げるだけだが
+ドアは電子制御されているから
+通電時にロックされるはずだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_005_content_020</t>
   </si>
   <si>
-    <t xml:space="preserve">一度部屋の電気を落とせ。
-狭い研究室だ
-暗くとも問題ないだろう。
-私は別の実験室にも
-同じ仕込みをしに行く。
-研究者としての責任だ。
+    <t xml:space="preserve">一度部屋の電気を落とせ
+狭い研究室だ、暗くとも問題ない
+私は別の研究室にも
+同じ仕込みをしに行く
+研究者としての責任だ
 ここまでやれたんだ
-あんたは無事に逃げ切れよ。</t>
+あんたは無事に逃げ切れよ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_005_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">『脱出方法』のメモ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_005_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">でも、まだ逃げられない...！</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">『脱出方法』のメモ！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">でも、まだ逃げられない...！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_005_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『脱出方法』...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_005_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...抵抗薬を作るまでは
-逃げられない</t>
+    <t xml:space="preserve">『脱出方法』のメモ...
+抵抗薬を作ってからじゃなきゃ...！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CassetteTape_002_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">これ、カセットテープだよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CassetteTape_002_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お父さんが実験内容の録音に
-使ってたな</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">これ、カセットテープだよね
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">お父さんがよく使ってたな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag_CassetteTape_Obtained</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CassetteTape_002_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『溶液Aの作成方法』！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CassetteTape_002_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これだ！</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">『溶液Aの作成方法』のテープ！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これだ！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_RescueBox_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">救急箱だ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_RescueBox_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うちにあるやつより大きいな</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">救急箱だ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">うちにあるやつより大きいな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_RescueBox_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『 溶液Bの作成方法』！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_RescueBox_reaction_025</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">『溶液Bの作成方法』のテープ！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これだ！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_PictureFrame_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">写真立てだ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">写真立てだ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">私とお父さんが映っている</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_PictureFrame_reaction_015</t>
   </si>
   <si>
-    <t xml:space="preserve">私とお父さんが映っている</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_PictureFrame_reaction_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まだ家に帰って来てた頃の
-お父さんだ...</t>
+    <t xml:space="preserve">まだ家に帰って来てた頃のお父さん...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_PictureFrame_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">...『低杭楽の作成方法』？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_PictureFrame_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字を間違えてるけど...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_PictureFrame_reaction_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">慌てていたのかな？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">...『低杭楽の作成方法』？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">字を間違えてるけど...慌ててたのかな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_PictureFrame_reaction_030</t>
@@ -385,78 +500,153 @@
     <t xml:space="preserve">TXT_GarbageCan_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">ゴミ箱だ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_GarbageCan_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙に、カセットテープに...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_GarbageCan_reaction_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">細い管？
-みたいなやつがいっぱい...</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ゴミ箱には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">紙に、カセットテープに...
+細い管？　みたいなやつがいっぱい...</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_GarbageCan_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">このカセットテープ...！</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">あれ、捨てられてるこのテープ......
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">『抵抗薬の作成方法』って名前だ！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_GarbageCan_reaction_025</t>
   </si>
   <si>
-    <t xml:space="preserve">『抵抗薬の作成方法』って
-書いてある！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_GarbageCan_reaction_028</t>
-  </si>
-  <si>
     <t xml:space="preserve">やっぱりあのテープ偽物だ！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_GarbageCan_reaction_030</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_GarbageCan_reaction_035</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_010</t>
   </si>
   <si>
-    <t xml:space="preserve">悪いが声は加工させてもらうぞ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">悪いが声は加工させてもらう
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">一応の保険としてな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_012</t>
   </si>
   <si>
-    <t xml:space="preserve">一応の保険としてな</t>
+    <t xml:space="preserve">さて、溶液Aの作成方法についてだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_014</t>
   </si>
   <si>
-    <t xml:space="preserve">さて、試験管セットは
-極低温で保存している</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">まずは試験管セットだが
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">こいつは極低温で保存している</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_016</t>
   </si>
   <si>
-    <t xml:space="preserve">場所のヒントはこれで
-十分だろう</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">場所はこれで分かるだろうが
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">何かに困ったら段ボール探ってみろ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_018</t>
   </si>
   <si>
-    <t xml:space="preserve">手が届かなかったら
-段ボールの中でも探してみろ</t>
+    <t xml:space="preserve">次に、遠心分離機だが
+こいつを使うにはローターが必要だ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_020</t>
@@ -469,60 +659,50 @@
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_022</t>
   </si>
   <si>
-    <t xml:space="preserve">穴の開いた丸い金属部品を探せ</t>
+    <t xml:space="preserve">幾つか細い穴が開いている
+丸い金属部品を探せ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_024</t>
   </si>
   <si>
     <t xml:space="preserve">遠心分離は重さのバランスが
-悪いと失敗する</t>
+悪いとうまくいかない</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_026</t>
   </si>
   <si>
     <t xml:space="preserve">試験管セットは三本で一組だ
-あとは考えろ</t>
+どのローターが正解か自分で考えろ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_028</t>
   </si>
   <si>
-    <t xml:space="preserve">考えても分らない事があれば</t>
+    <t xml:space="preserve">40000(ｇ)で10(秒)機械にかければ
+分離は完了する</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_030</t>
   </si>
   <si>
-    <t xml:space="preserve">ホワイトボードを見に行け</t>
+    <t xml:space="preserve">上手くいけば透明な「溶液A」が
+出来上がるはずだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_032</t>
   </si>
   <si>
-    <t xml:space="preserve">40000ｇ、十秒程度で
-分離は完了だ</t>
+    <t xml:space="preserve">もし考えても分らない事があれば
+ホワイトボードを見に行け</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_034</t>
   </si>
   <si>
-    <t xml:space="preserve">上手くいった透明な「溶液A」が
-出来上がるはずだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape002_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次は「溶液Bの作成方法」の
-メモを探せ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape002_038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金属棚にある</t>
+    <t xml:space="preserve">その後は「溶液Bの作成方法」の
+メモを探せ、金属棚にある</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape003_010</t>
@@ -542,60 +722,53 @@
     <t xml:space="preserve">TXT_CasettePlayer_Tape003_014</t>
   </si>
   <si>
-    <t xml:space="preserve">『卓上遠心分離器』に
-かければいい</t>
+    <t xml:space="preserve">『卓上遠心分離器』にかけるんだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape003_016</t>
   </si>
   <si>
-    <t xml:space="preserve">この遠心分離機は設定は不要だ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">今回は細かな設定は不要だ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">重さのバランスも気にしなくていい</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape003_018</t>
   </si>
   <si>
-    <t xml:space="preserve">重さのバランスも
-気にしなくていい</t>
+    <t xml:space="preserve">機械にかけるのは5(秒)で十分だろう</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape003_020</t>
   </si>
   <si>
-    <t xml:space="preserve">五秒ほど機械にかければ
-十分だろう</t>
+    <t xml:space="preserve">問題がなければ固液分離が上手くいった
+『溶液B』が出来上がる</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape003_022</t>
   </si>
   <si>
-    <t xml:space="preserve">問題がなければ個液分離ができた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape003_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">『溶液B』が出来上がるはずだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape003_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もう一つ手順を踏めば
-抵抗薬は出来上がる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape003_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頑張れよ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape003_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモはホワイトボードに
-貼ってある</t>
+    <t xml:space="preserve">溶液AとBを混ぜれば抵抗薬は完成だ
+次のメモは試薬棚の中だ　よく探せ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_010</t>
@@ -613,7 +786,7 @@
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_014</t>
   </si>
   <si>
-    <t xml:space="preserve">薬瓶に入れろ</t>
+    <t xml:space="preserve">試薬瓶に入れろ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_016</t>
@@ -643,68 +816,123 @@
     <t xml:space="preserve">TXT_CasettePlayer_Tape005_010</t>
   </si>
   <si>
-    <t xml:space="preserve">手元には溶液Aと溶液Bの</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">手元には溶液Aと溶液Bの
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">試験管が三本ずつあるな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape005_012</t>
   </si>
   <si>
-    <t xml:space="preserve">試験管が三本ずつあるな</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">溶液Aは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">5(ml)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bは2(ml)を
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">冷蔵庫の中の試薬瓶に入れろ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape005_014</t>
   </si>
   <si>
-    <t xml:space="preserve">溶液Aはそれぞれ5ml</t>
+    <t xml:space="preserve">正確な分量はモニターの前にある
+ピペットで量りとれ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape005_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溶液Bはそれぞれ2ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape005_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">それを冷蔵庫の中の
-試薬瓶に入れろ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape005_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正確な分量はピペットで
-量りとれ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape005_024</t>
   </si>
   <si>
     <t xml:space="preserve">瓶の試薬が全て溶ければ
 抵抗薬の完成だ</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape005_026</t>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_018</t>
   </si>
   <si>
     <t xml:space="preserve">上手くいっていれば
 透明な紫色の溶液になる</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape005_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">後は逃げるだけだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape005_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逃げ方のメモも用意した</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape005_038</t>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">後は逃げるだけだ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">逃げ方のメモも用意した</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_024</t>
   </si>
   <si>
     <t xml:space="preserve">あんたが入ってきた
@@ -714,61 +942,92 @@
     <t xml:space="preserve">TXT_CasettePlayer_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">カセットプレイヤーだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_CasettePlayer_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お父さんも同じの持ってたな</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">カセットプレイヤーだ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">お父さんのと同じやつだ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">これは冷凍庫かな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鍵がかかってる...</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">冷凍庫から冷気が漏れ出してる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">蓋は...鍵がかかってるな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">試験管セットってこの中だよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まずは鍵を探さなきゃ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">極低温ってことは冷凍庫だよね
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">あ、でも鍵が掛かってる...</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_030</t>
   </si>
   <si>
-    <t xml:space="preserve">見つけた鍵で...</t>
+    <t xml:space="preserve">開いた！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_032</t>
   </si>
   <si>
-    <t xml:space="preserve">...開いた！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">試験管セットは...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うわっ！　いっぱいある...！</t>
+    <t xml:space="preserve">小分済みの試験管セットで一杯だ
+...どれでも大丈夫だよね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_040</t>
@@ -780,26 +1039,53 @@
     <t xml:space="preserve">TXT_Freezer_reaction_050</t>
   </si>
   <si>
-    <t xml:space="preserve">ちゃんと出来てるか心配だな...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うん、作ったやつは
-捨ててやり直そう</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ちゃんと出来てるか心配だな...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">...うん　もう一度やり直してみよう</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_060</t>
   </si>
   <si>
-    <t xml:space="preserve">指示通りにできたみたいだし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もう試験管セットはいらないな</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">指示通りにできたみたいだし
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">もう試験管セットはいらないな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_070</t>
@@ -811,44 +1097,80 @@
     <t xml:space="preserve">TXT_DimpleKey_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">複雑なカギだな...</t>
+    <t xml:space="preserve">ファイル、試薬瓶、薬さじに...
+それにバール...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_DimpleKey_reaction_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ぐちゃぐちゃだ...
+...あ、何かの鍵も入ってる</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_DimpleKey_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">この鍵、何かに使えないかな？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_DimpleKey_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貰っておこう</t>
+    <t xml:space="preserve">...あ、鍵がある
+テープの通りなら、必要なものだよね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">実験に使う機械かな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">『遠心分離機』って書いてある</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">実験に使う機械かな
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">『遠心分離機』って書いてある</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_010_add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『遠心分離機』...これだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『遠心分離機』...これだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローターって言う部品を
-探さなきゃ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">『遠心分離機』...これだ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ローターって言う部品も探さないと</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_030</t>
@@ -866,35 +1188,62 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_050</t>
   </si>
   <si>
-    <t xml:space="preserve">このローターじゃないかも...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取り換えよう</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">このローターじゃないかも...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">取り換えよう</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_060</t>
   </si>
   <si>
-    <t xml:space="preserve">重さのバランスが大事...</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">重さのバランスが大事...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">...これでいいかな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_065</t>
   </si>
   <si>
-    <t xml:space="preserve">...これでいいかな</t>
+    <t xml:space="preserve">次は...色々と設定しなきゃなんだ...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次は...
-色々と設定しなきゃなんだ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_069</t>
   </si>
   <si>
     <t xml:space="preserve">しっかり準備してから始めよう</t>
@@ -1066,6 +1415,9 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_090</t>
   </si>
   <si>
+    <t xml:space="preserve">指示通りにできたみたいだし</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_095</t>
   </si>
   <si>
@@ -1093,13 +1445,27 @@
     <t xml:space="preserve">TXT_Rotor_4h_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">穴が4つ空いた丸い金属の塊...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Rotor_4h_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これ、多分『ローター』だよね</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">穴が4つ空いた丸い金属の塊...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これが『ローター』かな？</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Rotor_6h_reaction_010</t>
@@ -1108,10 +1474,27 @@
     <t xml:space="preserve">TXT_Rotor_6h_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">穴が6つ空いた丸い金属の塊...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Rotor_6h_reaction_025</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">穴が6つ空いた丸い金属の塊...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これが『ローター』かな？</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Rotor_8h_reaction_010</t>
@@ -1120,10 +1503,27 @@
     <t xml:space="preserve">TXT_Rotor_8h_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">穴が8つ空いた丸い金属の塊...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Rotor_8h_reaction_025</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">穴が8つ空いた丸い金属の塊...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これが『ローター』かな？</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_010</t>
@@ -1632,7 +2032,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1650,14 +2050,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1850,22 +2246,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z254"/>
+  <dimension ref="A1:Z213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D242" activeCellId="0" sqref="D242"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="1" width="8.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +2291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1904,14 +2301,12 @@
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1936,13 +2331,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1970,16 +2365,18 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2013,9 +2410,7 @@
         <v>-1</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2038,17 +2433,19 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2072,17 +2469,17 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3"/>
@@ -2108,19 +2505,17 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2144,7 +2539,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2180,7 +2575,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2214,19 +2609,17 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2250,7 +2643,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2260,7 +2653,9 @@
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2284,7 +2679,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -2294,9 +2689,7 @@
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2324,13 +2717,13 @@
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2354,7 +2747,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2362,7 +2755,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>38</v>
@@ -2390,7 +2783,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2398,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2424,7 +2817,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -2460,12 +2853,12 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2494,18 +2887,18 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2532,15 +2925,15 @@
     </row>
     <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2564,18 +2957,18 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2600,15 +2993,15 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2634,7 +3027,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2642,7 +3035,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>53</v>
@@ -2670,7 +3063,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2678,11 +3071,9 @@
         <v>54</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2706,7 +3097,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -2716,7 +3107,7 @@
       <c r="C25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2750,9 +3141,7 @@
       <c r="C26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2781,13 +3170,15 @@
         <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2810,20 +3201,20 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2846,17 +3237,17 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2882,17 +3273,15 @@
     </row>
     <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2916,17 +3305,19 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2950,19 +3341,17 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2988,15 +3377,15 @@
     </row>
     <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3022,17 +3411,15 @@
     </row>
     <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3058,15 +3445,15 @@
     </row>
     <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3092,16 +3479,16 @@
     </row>
     <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3128,15 +3515,15 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3162,17 +3549,15 @@
     </row>
     <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3196,17 +3581,19 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3230,18 +3617,18 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3266,17 +3653,19 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3302,16 +3691,16 @@
     </row>
     <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3338,16 +3727,16 @@
     </row>
     <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3374,15 +3763,17 @@
     </row>
     <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3408,16 +3799,16 @@
     </row>
     <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3444,16 +3835,16 @@
     </row>
     <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3478,17 +3869,19 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3514,15 +3907,17 @@
     </row>
     <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -3548,16 +3943,16 @@
     </row>
     <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3584,16 +3979,16 @@
     </row>
     <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3620,15 +4015,15 @@
     </row>
     <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3654,16 +4049,16 @@
     </row>
     <row r="52" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3690,16 +4085,16 @@
     </row>
     <row r="53" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3726,15 +4121,17 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3760,16 +4157,16 @@
     </row>
     <row r="55" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3794,17 +4191,19 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3828,18 +4227,18 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3864,19 +4263,17 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3900,18 +4297,18 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3936,18 +4333,18 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3972,18 +4369,18 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4008,18 +4405,18 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4044,18 +4441,18 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -4080,18 +4477,18 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4116,19 +4513,17 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4152,18 +4547,18 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4190,16 +4585,16 @@
     </row>
     <row r="67" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4226,16 +4621,16 @@
     </row>
     <row r="68" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4262,16 +4657,16 @@
     </row>
     <row r="69" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4298,16 +4693,16 @@
     </row>
     <row r="70" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4332,17 +4727,19 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D71" s="3"/>
+      <c r="D71" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4368,17 +4765,15 @@
     </row>
     <row r="72" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4404,17 +4799,15 @@
     </row>
     <row r="73" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -4440,17 +4833,15 @@
     </row>
     <row r="74" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -4476,17 +4867,15 @@
     </row>
     <row r="75" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="D75" s="2"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -4510,18 +4899,18 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4548,17 +4937,15 @@
     </row>
     <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -4582,19 +4969,17 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -4618,19 +5003,17 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -4654,19 +5037,17 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -4690,19 +5071,17 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -4728,15 +5107,17 @@
     </row>
     <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4762,17 +5143,15 @@
     </row>
     <row r="83" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -4798,17 +5177,15 @@
     </row>
     <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -4832,19 +5209,17 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -4868,19 +5243,17 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="D86" s="2"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -4904,19 +5277,17 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4940,19 +5311,17 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -4978,10 +5347,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
@@ -5010,19 +5379,17 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -5048,16 +5415,16 @@
     </row>
     <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -5082,18 +5449,18 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -5118,19 +5485,17 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="D93" s="2"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -5156,20 +5521,24 @@
     </row>
     <row r="94" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -5190,18 +5559,18 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -5226,18 +5595,18 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -5262,18 +5631,18 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -5298,19 +5667,17 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -5336,20 +5703,24 @@
     </row>
     <row r="99" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -5375,15 +5746,21 @@
         <v>201</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="E100" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -5409,17 +5786,21 @@
         <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -5442,13 +5823,13 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C102" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5479,13 +5860,13 @@
         <v>207</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -5510,17 +5891,19 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D104" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -5546,16 +5929,16 @@
     </row>
     <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -5580,17 +5963,19 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -5616,16 +6001,16 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -5652,16 +6037,16 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -5688,16 +6073,16 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -5722,17 +6107,19 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D110" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -5756,17 +6143,19 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D111" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -5792,20 +6181,24 @@
     </row>
     <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -5826,17 +6219,19 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D113" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -5860,18 +6255,18 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -5898,15 +6293,17 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D115" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -5932,13 +6329,13 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5964,20 +6361,26 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+      <c r="E117" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -6000,20 +6403,24 @@
     </row>
     <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -6034,20 +6441,26 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+      <c r="E119" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -6068,19 +6481,17 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -6104,17 +6515,19 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D121" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -6140,16 +6553,16 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -6176,15 +6589,17 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D123" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -6208,17 +6623,19 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D124" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6242,17 +6659,19 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D125" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -6278,16 +6697,16 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -6312,17 +6731,19 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D127" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -6348,16 +6769,16 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -6384,16 +6805,16 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -6420,18 +6841,18 @@
     </row>
     <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E130" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -6454,18 +6875,20 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="E131" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6490,24 +6913,18 @@
     </row>
     <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -6528,18 +6945,18 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -6564,19 +6981,17 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -6600,18 +7015,18 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -6638,13 +7053,13 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6670,26 +7085,20 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D137" s="3"/>
-      <c r="E137" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -6712,24 +7121,18 @@
     </row>
     <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>284</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -6750,26 +7153,20 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -6790,17 +7187,17 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -6824,19 +7221,17 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -6862,17 +7257,15 @@
     </row>
     <row r="142" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -6896,19 +7289,17 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -6932,18 +7323,18 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -6968,18 +7359,18 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -7006,16 +7397,16 @@
     </row>
     <row r="146" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
@@ -7040,19 +7431,17 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -7076,18 +7465,18 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -7112,19 +7501,17 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -7148,26 +7535,20 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" s="3"/>
-      <c r="E150" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>296</v>
-      </c>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -7188,18 +7569,18 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -7224,18 +7605,18 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -7260,18 +7641,18 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -7298,15 +7679,17 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -7330,26 +7713,20 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D155" s="3"/>
-      <c r="E155" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -7370,26 +7747,22 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C156" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>306</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -7410,26 +7783,22 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C157" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>309</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C157" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -7452,13 +7821,13 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C158" s="2" t="n">
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="C158" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7486,16 +7855,16 @@
     </row>
     <row r="159" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C159" s="2" t="n">
-        <v>0</v>
+        <v>297</v>
+      </c>
+      <c r="C159" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -7522,17 +7891,15 @@
     </row>
     <row r="160" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C160" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -7556,18 +7923,18 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C161" s="2" t="n">
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="C161" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -7594,16 +7961,16 @@
     </row>
     <row r="162" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C162" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -7628,19 +7995,17 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C163" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="C163" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -7664,18 +8029,18 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C164" s="2" t="n">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -7700,19 +8065,17 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C165" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -7736,18 +8099,18 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C166" s="2" t="n">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="C166" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -7772,18 +8135,18 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C167" s="2" t="n">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -7810,18 +8173,18 @@
     </row>
     <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C168" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="2" t="s">
-        <v>313</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C168" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -7844,20 +8207,18 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C169" s="2" t="n">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="C169" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D169" s="3"/>
-      <c r="E169" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -7880,17 +8241,19 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C170" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D170" s="3"/>
+        <v>319</v>
+      </c>
+      <c r="C170" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -7914,19 +8277,17 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -7950,19 +8311,23 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C172" s="2" t="n">
-        <v>2</v>
+        <v>323</v>
+      </c>
+      <c r="C172" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
+      <c r="E172" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -7984,19 +8349,17 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C173" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C173" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -8022,13 +8385,13 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C174" s="2" t="n">
-        <v>2</v>
+        <v>327</v>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -8054,20 +8417,26 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C175" s="2" t="n">
-        <v>2</v>
+        <v>329</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+      <c r="E175" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -8090,16 +8459,16 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C176" s="2" t="n">
-        <v>2</v>
+        <v>333</v>
+      </c>
+      <c r="C176" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -8124,17 +8493,19 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C177" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D177" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="C177" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -8158,17 +8529,19 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C178" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D178" s="3"/>
+        <v>337</v>
+      </c>
+      <c r="C178" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -8194,20 +8567,24 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C179" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+        <v>339</v>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
@@ -8228,17 +8605,19 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C180" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D180" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="C180" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -8262,17 +8641,19 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C181" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D181" s="3"/>
+        <v>345</v>
+      </c>
+      <c r="C181" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -8298,16 +8679,16 @@
     </row>
     <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C182" s="2" t="n">
-        <v>2</v>
+        <v>346</v>
+      </c>
+      <c r="C182" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -8332,20 +8713,26 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C183" s="2" t="n">
-        <v>2</v>
+        <v>339</v>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
+      <c r="E183" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -8366,17 +8753,19 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C184" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D184" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="C184" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -8402,16 +8791,16 @@
     </row>
     <row r="185" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C185" s="2" t="n">
-        <v>2</v>
+        <v>345</v>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -8438,16 +8827,16 @@
     </row>
     <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C186" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C186" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -8474,20 +8863,24 @@
     </row>
     <row r="187" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C187" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
+        <v>339</v>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -8508,17 +8901,19 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C188" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D188" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -8544,16 +8939,16 @@
     </row>
     <row r="189" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C189" s="2" t="n">
-        <v>2</v>
+        <v>345</v>
+      </c>
+      <c r="C189" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -8578,17 +8973,19 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C190" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D190" s="3"/>
+        <v>346</v>
+      </c>
+      <c r="C190" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -8612,18 +9009,20 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C191" s="2" t="n">
-        <v>2</v>
+      <c r="C191" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+      <c r="E191" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -8648,18 +9047,18 @@
     </row>
     <row r="192" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C192" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="C192" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -8682,19 +9081,17 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C193" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D193" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="C193" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -8718,18 +9115,18 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C194" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="C194" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -8754,19 +9151,17 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C195" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D195" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="C195" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -8792,12 +9187,12 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C196" s="2" t="n">
+        <v>365</v>
+      </c>
+      <c r="C196" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D196" s="3"/>
@@ -8825,17 +9220,17 @@
       <c r="Z196" s="3"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B197" s="5" t="s">
+      <c r="A197" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C197" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D197" s="5" t="s">
+      <c r="B197" s="2" t="s">
         <v>367</v>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -8861,18 +9256,16 @@
       <c r="Z197" s="3"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B198" s="5" t="s">
+      <c r="A198" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C198" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D198" s="5" t="s">
+      <c r="B198" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="C198" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -8896,17 +9289,19 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B199" s="5" t="s">
+    <row r="199" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C199" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D199" s="6"/>
+      <c r="B199" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -8930,19 +9325,17 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B200" s="5" t="s">
+    <row r="200" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C200" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D200" s="5" t="s">
+      <c r="B200" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="C200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -8966,17 +9359,17 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B201" s="5" t="s">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C201" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D201" s="6"/>
+      <c r="B201" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -9001,17 +9394,17 @@
       <c r="Z201" s="3"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B202" s="5" t="s">
+      <c r="A202" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C202" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D202" s="5" t="s">
+      <c r="B202" s="2" t="s">
         <v>377</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -9036,18 +9429,18 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B203" s="5" t="s">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C203" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D203" s="5" t="s">
+      <c r="B203" s="2" t="s">
         <v>379</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -9073,16 +9466,16 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B204" s="5" t="s">
+      <c r="A204" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C204" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D204" s="6"/>
+      <c r="B204" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -9107,18 +9500,16 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B205" s="5" t="s">
+      <c r="A205" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C205" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="B205" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="C205" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -9143,16 +9534,16 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B206" s="5" t="s">
+      <c r="A206" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C206" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D206" s="6"/>
+      <c r="B206" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -9176,21 +9567,23 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="5" t="s">
+    <row r="207" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C207" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="C207" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
+      <c r="F207" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
@@ -9213,17 +9606,17 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B208" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C208" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D208" s="5" t="s">
+      <c r="B208" s="2" t="s">
         <v>389</v>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -9248,19 +9641,17 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C209" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D209" s="5" t="s">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="C209" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -9284,18 +9675,20 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B210" s="5" t="s">
+    <row r="210" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C210" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D210" s="6"/>
-      <c r="E210" s="3"/>
+      <c r="C210" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -9319,18 +9712,16 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B211" s="5" t="s">
+      <c r="A211" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C211" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D211" s="5" t="s">
+      <c r="B211" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="C211" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -9356,15 +9747,17 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C212" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D212" s="3"/>
+        <v>397</v>
+      </c>
+      <c r="C212" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -9388,23 +9781,19 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D213" s="3"/>
-      <c r="E213" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>400</v>
-      </c>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
@@ -9426,1472 +9815,6 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C214" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
-      <c r="R214" s="3"/>
-      <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
-      <c r="U214" s="3"/>
-      <c r="V214" s="3"/>
-      <c r="W214" s="3"/>
-      <c r="X214" s="3"/>
-      <c r="Y214" s="3"/>
-      <c r="Z214" s="3"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C215" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-      <c r="P215" s="3"/>
-      <c r="Q215" s="3"/>
-      <c r="R215" s="3"/>
-      <c r="S215" s="3"/>
-      <c r="T215" s="3"/>
-      <c r="U215" s="3"/>
-      <c r="V215" s="3"/>
-      <c r="W215" s="3"/>
-      <c r="X215" s="3"/>
-      <c r="Y215" s="3"/>
-      <c r="Z215" s="3"/>
-    </row>
-    <row r="216" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C216" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" s="3"/>
-      <c r="E216" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
-      <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
-      <c r="R216" s="3"/>
-      <c r="S216" s="3"/>
-      <c r="T216" s="3"/>
-      <c r="U216" s="3"/>
-      <c r="V216" s="3"/>
-      <c r="W216" s="3"/>
-      <c r="X216" s="3"/>
-      <c r="Y216" s="3"/>
-      <c r="Z216" s="3"/>
-    </row>
-    <row r="217" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C217" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
-      <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
-      <c r="R217" s="3"/>
-      <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
-      <c r="U217" s="3"/>
-      <c r="V217" s="3"/>
-      <c r="W217" s="3"/>
-      <c r="X217" s="3"/>
-      <c r="Y217" s="3"/>
-      <c r="Z217" s="3"/>
-    </row>
-    <row r="218" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C218" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-      <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
-      <c r="R218" s="3"/>
-      <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
-      <c r="U218" s="3"/>
-      <c r="V218" s="3"/>
-      <c r="W218" s="3"/>
-      <c r="X218" s="3"/>
-      <c r="Y218" s="3"/>
-      <c r="Z218" s="3"/>
-    </row>
-    <row r="219" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C219" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
-      <c r="R219" s="3"/>
-      <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
-      <c r="U219" s="3"/>
-      <c r="V219" s="3"/>
-      <c r="W219" s="3"/>
-      <c r="X219" s="3"/>
-      <c r="Y219" s="3"/>
-      <c r="Z219" s="3"/>
-    </row>
-    <row r="220" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C220" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" s="3"/>
-      <c r="E220" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
-      <c r="R220" s="3"/>
-      <c r="S220" s="3"/>
-      <c r="T220" s="3"/>
-      <c r="U220" s="3"/>
-      <c r="V220" s="3"/>
-      <c r="W220" s="3"/>
-      <c r="X220" s="3"/>
-      <c r="Y220" s="3"/>
-      <c r="Z220" s="3"/>
-    </row>
-    <row r="221" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C221" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
-      <c r="R221" s="3"/>
-      <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
-      <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
-      <c r="W221" s="3"/>
-      <c r="X221" s="3"/>
-      <c r="Y221" s="3"/>
-      <c r="Z221" s="3"/>
-    </row>
-    <row r="222" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C222" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
-      <c r="R222" s="3"/>
-      <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
-      <c r="U222" s="3"/>
-      <c r="V222" s="3"/>
-      <c r="W222" s="3"/>
-      <c r="X222" s="3"/>
-      <c r="Y222" s="3"/>
-      <c r="Z222" s="3"/>
-    </row>
-    <row r="223" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C223" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
-      <c r="P223" s="3"/>
-      <c r="Q223" s="3"/>
-      <c r="R223" s="3"/>
-      <c r="S223" s="3"/>
-      <c r="T223" s="3"/>
-      <c r="U223" s="3"/>
-      <c r="V223" s="3"/>
-      <c r="W223" s="3"/>
-      <c r="X223" s="3"/>
-      <c r="Y223" s="3"/>
-      <c r="Z223" s="3"/>
-    </row>
-    <row r="224" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C224" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" s="3"/>
-      <c r="E224" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
-      <c r="P224" s="3"/>
-      <c r="Q224" s="3"/>
-      <c r="R224" s="3"/>
-      <c r="S224" s="3"/>
-      <c r="T224" s="3"/>
-      <c r="U224" s="3"/>
-      <c r="V224" s="3"/>
-      <c r="W224" s="3"/>
-      <c r="X224" s="3"/>
-      <c r="Y224" s="3"/>
-      <c r="Z224" s="3"/>
-    </row>
-    <row r="225" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C225" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
-      <c r="P225" s="3"/>
-      <c r="Q225" s="3"/>
-      <c r="R225" s="3"/>
-      <c r="S225" s="3"/>
-      <c r="T225" s="3"/>
-      <c r="U225" s="3"/>
-      <c r="V225" s="3"/>
-      <c r="W225" s="3"/>
-      <c r="X225" s="3"/>
-      <c r="Y225" s="3"/>
-      <c r="Z225" s="3"/>
-    </row>
-    <row r="226" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C226" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
-      <c r="P226" s="3"/>
-      <c r="Q226" s="3"/>
-      <c r="R226" s="3"/>
-      <c r="S226" s="3"/>
-      <c r="T226" s="3"/>
-      <c r="U226" s="3"/>
-      <c r="V226" s="3"/>
-      <c r="W226" s="3"/>
-      <c r="X226" s="3"/>
-      <c r="Y226" s="3"/>
-      <c r="Z226" s="3"/>
-    </row>
-    <row r="227" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C227" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
-      <c r="Q227" s="3"/>
-      <c r="R227" s="3"/>
-      <c r="S227" s="3"/>
-      <c r="T227" s="3"/>
-      <c r="U227" s="3"/>
-      <c r="V227" s="3"/>
-      <c r="W227" s="3"/>
-      <c r="X227" s="3"/>
-      <c r="Y227" s="3"/>
-      <c r="Z227" s="3"/>
-    </row>
-    <row r="228" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C228" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D228" s="3"/>
-      <c r="E228" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-      <c r="Q228" s="3"/>
-      <c r="R228" s="3"/>
-      <c r="S228" s="3"/>
-      <c r="T228" s="3"/>
-      <c r="U228" s="3"/>
-      <c r="V228" s="3"/>
-      <c r="W228" s="3"/>
-      <c r="X228" s="3"/>
-      <c r="Y228" s="3"/>
-      <c r="Z228" s="3"/>
-    </row>
-    <row r="229" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C229" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
-      <c r="Q229" s="3"/>
-      <c r="R229" s="3"/>
-      <c r="S229" s="3"/>
-      <c r="T229" s="3"/>
-      <c r="U229" s="3"/>
-      <c r="V229" s="3"/>
-      <c r="W229" s="3"/>
-      <c r="X229" s="3"/>
-      <c r="Y229" s="3"/>
-      <c r="Z229" s="3"/>
-    </row>
-    <row r="230" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C230" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
-      <c r="P230" s="3"/>
-      <c r="Q230" s="3"/>
-      <c r="R230" s="3"/>
-      <c r="S230" s="3"/>
-      <c r="T230" s="3"/>
-      <c r="U230" s="3"/>
-      <c r="V230" s="3"/>
-      <c r="W230" s="3"/>
-      <c r="X230" s="3"/>
-      <c r="Y230" s="3"/>
-      <c r="Z230" s="3"/>
-    </row>
-    <row r="231" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C231" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
-      <c r="P231" s="3"/>
-      <c r="Q231" s="3"/>
-      <c r="R231" s="3"/>
-      <c r="S231" s="3"/>
-      <c r="T231" s="3"/>
-      <c r="U231" s="3"/>
-      <c r="V231" s="3"/>
-      <c r="W231" s="3"/>
-      <c r="X231" s="3"/>
-      <c r="Y231" s="3"/>
-      <c r="Z231" s="3"/>
-    </row>
-    <row r="232" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C232" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D232" s="3"/>
-      <c r="E232" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
-      <c r="P232" s="3"/>
-      <c r="Q232" s="3"/>
-      <c r="R232" s="3"/>
-      <c r="S232" s="3"/>
-      <c r="T232" s="3"/>
-      <c r="U232" s="3"/>
-      <c r="V232" s="3"/>
-      <c r="W232" s="3"/>
-      <c r="X232" s="3"/>
-      <c r="Y232" s="3"/>
-      <c r="Z232" s="3"/>
-    </row>
-    <row r="233" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C233" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" s="3"/>
-      <c r="E233" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
-      <c r="O233" s="3"/>
-      <c r="P233" s="3"/>
-      <c r="Q233" s="3"/>
-      <c r="R233" s="3"/>
-      <c r="S233" s="3"/>
-      <c r="T233" s="3"/>
-      <c r="U233" s="3"/>
-      <c r="V233" s="3"/>
-      <c r="W233" s="3"/>
-      <c r="X233" s="3"/>
-      <c r="Y233" s="3"/>
-      <c r="Z233" s="3"/>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C234" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
-      <c r="Q234" s="3"/>
-      <c r="R234" s="3"/>
-      <c r="S234" s="3"/>
-      <c r="T234" s="3"/>
-      <c r="U234" s="3"/>
-      <c r="V234" s="3"/>
-      <c r="W234" s="3"/>
-      <c r="X234" s="3"/>
-      <c r="Y234" s="3"/>
-      <c r="Z234" s="3"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C235" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-      <c r="Q235" s="3"/>
-      <c r="R235" s="3"/>
-      <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
-      <c r="U235" s="3"/>
-      <c r="V235" s="3"/>
-      <c r="W235" s="3"/>
-      <c r="X235" s="3"/>
-      <c r="Y235" s="3"/>
-      <c r="Z235" s="3"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C236" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-      <c r="O236" s="3"/>
-      <c r="P236" s="3"/>
-      <c r="Q236" s="3"/>
-      <c r="R236" s="3"/>
-      <c r="S236" s="3"/>
-      <c r="T236" s="3"/>
-      <c r="U236" s="3"/>
-      <c r="V236" s="3"/>
-      <c r="W236" s="3"/>
-      <c r="X236" s="3"/>
-      <c r="Y236" s="3"/>
-      <c r="Z236" s="3"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C237" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
-      <c r="O237" s="3"/>
-      <c r="P237" s="3"/>
-      <c r="Q237" s="3"/>
-      <c r="R237" s="3"/>
-      <c r="S237" s="3"/>
-      <c r="T237" s="3"/>
-      <c r="U237" s="3"/>
-      <c r="V237" s="3"/>
-      <c r="W237" s="3"/>
-      <c r="X237" s="3"/>
-      <c r="Y237" s="3"/>
-      <c r="Z237" s="3"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C238" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="O238" s="3"/>
-      <c r="P238" s="3"/>
-      <c r="Q238" s="3"/>
-      <c r="R238" s="3"/>
-      <c r="S238" s="3"/>
-      <c r="T238" s="3"/>
-      <c r="U238" s="3"/>
-      <c r="V238" s="3"/>
-      <c r="W238" s="3"/>
-      <c r="X238" s="3"/>
-      <c r="Y238" s="3"/>
-      <c r="Z238" s="3"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C239" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-      <c r="M239" s="3"/>
-      <c r="N239" s="3"/>
-      <c r="O239" s="3"/>
-      <c r="P239" s="3"/>
-      <c r="Q239" s="3"/>
-      <c r="R239" s="3"/>
-      <c r="S239" s="3"/>
-      <c r="T239" s="3"/>
-      <c r="U239" s="3"/>
-      <c r="V239" s="3"/>
-      <c r="W239" s="3"/>
-      <c r="X239" s="3"/>
-      <c r="Y239" s="3"/>
-      <c r="Z239" s="3"/>
-    </row>
-    <row r="240" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C240" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3"/>
-      <c r="N240" s="3"/>
-      <c r="O240" s="3"/>
-      <c r="P240" s="3"/>
-      <c r="Q240" s="3"/>
-      <c r="R240" s="3"/>
-      <c r="S240" s="3"/>
-      <c r="T240" s="3"/>
-      <c r="U240" s="3"/>
-      <c r="V240" s="3"/>
-      <c r="W240" s="3"/>
-      <c r="X240" s="3"/>
-      <c r="Y240" s="3"/>
-      <c r="Z240" s="3"/>
-    </row>
-    <row r="241" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C241" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3"/>
-      <c r="N241" s="3"/>
-      <c r="O241" s="3"/>
-      <c r="P241" s="3"/>
-      <c r="Q241" s="3"/>
-      <c r="R241" s="3"/>
-      <c r="S241" s="3"/>
-      <c r="T241" s="3"/>
-      <c r="U241" s="3"/>
-      <c r="V241" s="3"/>
-      <c r="W241" s="3"/>
-      <c r="X241" s="3"/>
-      <c r="Y241" s="3"/>
-      <c r="Z241" s="3"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C242" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3"/>
-      <c r="M242" s="3"/>
-      <c r="N242" s="3"/>
-      <c r="O242" s="3"/>
-      <c r="P242" s="3"/>
-      <c r="Q242" s="3"/>
-      <c r="R242" s="3"/>
-      <c r="S242" s="3"/>
-      <c r="T242" s="3"/>
-      <c r="U242" s="3"/>
-      <c r="V242" s="3"/>
-      <c r="W242" s="3"/>
-      <c r="X242" s="3"/>
-      <c r="Y242" s="3"/>
-      <c r="Z242" s="3"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C243" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
-      <c r="O243" s="3"/>
-      <c r="P243" s="3"/>
-      <c r="Q243" s="3"/>
-      <c r="R243" s="3"/>
-      <c r="S243" s="3"/>
-      <c r="T243" s="3"/>
-      <c r="U243" s="3"/>
-      <c r="V243" s="3"/>
-      <c r="W243" s="3"/>
-      <c r="X243" s="3"/>
-      <c r="Y243" s="3"/>
-      <c r="Z243" s="3"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C244" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
-      <c r="N244" s="3"/>
-      <c r="O244" s="3"/>
-      <c r="P244" s="3"/>
-      <c r="Q244" s="3"/>
-      <c r="R244" s="3"/>
-      <c r="S244" s="3"/>
-      <c r="T244" s="3"/>
-      <c r="U244" s="3"/>
-      <c r="V244" s="3"/>
-      <c r="W244" s="3"/>
-      <c r="X244" s="3"/>
-      <c r="Y244" s="3"/>
-      <c r="Z244" s="3"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C245" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-      <c r="M245" s="3"/>
-      <c r="N245" s="3"/>
-      <c r="O245" s="3"/>
-      <c r="P245" s="3"/>
-      <c r="Q245" s="3"/>
-      <c r="R245" s="3"/>
-      <c r="S245" s="3"/>
-      <c r="T245" s="3"/>
-      <c r="U245" s="3"/>
-      <c r="V245" s="3"/>
-      <c r="W245" s="3"/>
-      <c r="X245" s="3"/>
-      <c r="Y245" s="3"/>
-      <c r="Z245" s="3"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C246" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-      <c r="M246" s="3"/>
-      <c r="N246" s="3"/>
-      <c r="O246" s="3"/>
-      <c r="P246" s="3"/>
-      <c r="Q246" s="3"/>
-      <c r="R246" s="3"/>
-      <c r="S246" s="3"/>
-      <c r="T246" s="3"/>
-      <c r="U246" s="3"/>
-      <c r="V246" s="3"/>
-      <c r="W246" s="3"/>
-      <c r="X246" s="3"/>
-      <c r="Y246" s="3"/>
-      <c r="Z246" s="3"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C247" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
-      <c r="P247" s="3"/>
-      <c r="Q247" s="3"/>
-      <c r="R247" s="3"/>
-      <c r="S247" s="3"/>
-      <c r="T247" s="3"/>
-      <c r="U247" s="3"/>
-      <c r="V247" s="3"/>
-      <c r="W247" s="3"/>
-      <c r="X247" s="3"/>
-      <c r="Y247" s="3"/>
-      <c r="Z247" s="3"/>
-    </row>
-    <row r="248" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C248" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D248" s="3"/>
-      <c r="E248" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
-      <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
-      <c r="O248" s="3"/>
-      <c r="P248" s="3"/>
-      <c r="Q248" s="3"/>
-      <c r="R248" s="3"/>
-      <c r="S248" s="3"/>
-      <c r="T248" s="3"/>
-      <c r="U248" s="3"/>
-      <c r="V248" s="3"/>
-      <c r="W248" s="3"/>
-      <c r="X248" s="3"/>
-      <c r="Y248" s="3"/>
-      <c r="Z248" s="3"/>
-    </row>
-    <row r="249" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C249" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
-      <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
-      <c r="O249" s="3"/>
-      <c r="P249" s="3"/>
-      <c r="Q249" s="3"/>
-      <c r="R249" s="3"/>
-      <c r="S249" s="3"/>
-      <c r="T249" s="3"/>
-      <c r="U249" s="3"/>
-      <c r="V249" s="3"/>
-      <c r="W249" s="3"/>
-      <c r="X249" s="3"/>
-      <c r="Y249" s="3"/>
-      <c r="Z249" s="3"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C250" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
-      <c r="O250" s="3"/>
-      <c r="P250" s="3"/>
-      <c r="Q250" s="3"/>
-      <c r="R250" s="3"/>
-      <c r="S250" s="3"/>
-      <c r="T250" s="3"/>
-      <c r="U250" s="3"/>
-      <c r="V250" s="3"/>
-      <c r="W250" s="3"/>
-      <c r="X250" s="3"/>
-      <c r="Y250" s="3"/>
-      <c r="Z250" s="3"/>
-    </row>
-    <row r="251" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C251" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D251" s="3"/>
-      <c r="E251" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
-      <c r="O251" s="3"/>
-      <c r="P251" s="3"/>
-      <c r="Q251" s="3"/>
-      <c r="R251" s="3"/>
-      <c r="S251" s="3"/>
-      <c r="T251" s="3"/>
-      <c r="U251" s="3"/>
-      <c r="V251" s="3"/>
-      <c r="W251" s="3"/>
-      <c r="X251" s="3"/>
-      <c r="Y251" s="3"/>
-      <c r="Z251" s="3"/>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C252" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
-      <c r="K252" s="3"/>
-      <c r="L252" s="3"/>
-      <c r="M252" s="3"/>
-      <c r="N252" s="3"/>
-      <c r="O252" s="3"/>
-      <c r="P252" s="3"/>
-      <c r="Q252" s="3"/>
-      <c r="R252" s="3"/>
-      <c r="S252" s="3"/>
-      <c r="T252" s="3"/>
-      <c r="U252" s="3"/>
-      <c r="V252" s="3"/>
-      <c r="W252" s="3"/>
-      <c r="X252" s="3"/>
-      <c r="Y252" s="3"/>
-      <c r="Z252" s="3"/>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C253" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
-      <c r="O253" s="3"/>
-      <c r="P253" s="3"/>
-      <c r="Q253" s="3"/>
-      <c r="R253" s="3"/>
-      <c r="S253" s="3"/>
-      <c r="T253" s="3"/>
-      <c r="U253" s="3"/>
-      <c r="V253" s="3"/>
-      <c r="W253" s="3"/>
-      <c r="X253" s="3"/>
-      <c r="Y253" s="3"/>
-      <c r="Z253" s="3"/>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C254" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
-      <c r="P254" s="3"/>
-      <c r="Q254" s="3"/>
-      <c r="R254" s="3"/>
-      <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
-      <c r="U254" s="3"/>
-      <c r="V254" s="3"/>
-      <c r="W254" s="3"/>
-      <c r="X254" s="3"/>
-      <c r="Y254" s="3"/>
-      <c r="Z254" s="3"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="381">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -89,7 +89,7 @@
       </rPr>
       <t xml:space="preserve">これを読んでいるあんたには悪いが
 実験室は私が荒らした
-化け物になりかけの感染者を
+化け物になりかけた感染者を
 外に出すわけには行かないからな
 </t>
     </r>
@@ -102,8 +102,7 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">だが安心はしていい
-無事な奴まで見殺しにするほど
-私も鬼じゃない</t>
+無事な奴まで見殺しにはしない</t>
     </r>
   </si>
   <si>
@@ -120,27 +119,25 @@
   <si>
     <t xml:space="preserve">まずは『溶液Aの作成方法』が
 書かれたメモを探せ
-それすらできなきゃ
-あんたはもう終わりだ</t>
+それすらできなきゃ終わりだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_002_content_010</t>
   </si>
   <si>
     <t xml:space="preserve">『溶液Aの作成方法』はここに記す
-助かりたければ急医で作業しろよ
+助かりたければ急いで作業しろよ
 『抵抗薬』を作るには二つの溶液を
 合成する必要がある
-これはその一つ目だ</t>
+溶液Aはその一つ目だ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_002_content_020</t>
   </si>
   <si>
     <t xml:space="preserve">まずは『試験管セット』を
-『遠心分離機』にかけろ
-詳細はこのメモと同じ名前の
-『カセットテープ』に録音した
+『遠心分離機』にかけるんだ
+詳細は『カセットテープ』に録音した
 次はそいつを探すんだ</t>
   </si>
   <si>
@@ -163,7 +160,6 @@
   </si>
   <si>
     <t xml:space="preserve">詳細は『カセットテープ』だ
-このメモ名前のテープを探せ
 もしテープが見つからないようなら
 一度頭を冷やすといい
 救急箱に保冷シートが
@@ -325,6 +321,12 @@
 抵抗薬を作ってからじゃなきゃ...！</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_CasettePlayer_stop_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一度止めよう</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_CassetteTape_002_reaction_010</t>
   </si>
   <si>
@@ -351,9 +353,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Flag_CassetteTape_Obtained</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_CassetteTape_002_reaction_020</t>
   </si>
   <si>
@@ -380,6 +379,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">TXT_CassetteTape_002_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今はこのテープには用はないかな</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_RescueBox_reaction_010</t>
   </si>
   <si>
@@ -638,7 +643,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">何かに困ったら段ボール探ってみろ</t>
+      <t xml:space="preserve">何かに困ったら段ボールを探ってみろ</t>
     </r>
   </si>
   <si>
@@ -649,17 +654,10 @@
 こいつを使うにはローターが必要だ</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape002_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、遠心分離機を使うには
-ローターが必要だ</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_022</t>
   </si>
   <si>
-    <t xml:space="preserve">幾つか細い穴が開いている
+    <t xml:space="preserve">細い穴が幾つか開いた
 丸い金属部品を探せ</t>
   </si>
   <si>
@@ -667,14 +665,14 @@
   </si>
   <si>
     <t xml:space="preserve">遠心分離は重さのバランスが
-悪いとうまくいかない</t>
+悪いとうまくいかないくてな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_026</t>
   </si>
   <si>
     <t xml:space="preserve">試験管セットは三本で一組だ
-どのローターが正解か自分で考えろ</t>
+ローターの種類に気をつけろよ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_028</t>
@@ -1020,12 +1018,6 @@
     <t xml:space="preserve">TXT_Freezer_reaction_030</t>
   </si>
   <si>
-    <t xml:space="preserve">開いた！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_032</t>
-  </si>
-  <si>
     <t xml:space="preserve">小分済みの試験管セットで一杯だ
 ...どれでも大丈夫だよね</t>
   </si>
@@ -1094,24 +1086,23 @@
     <t xml:space="preserve">よし、もう一度！</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットをもう一度だよね</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_DimpleKey_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">ファイル、試薬瓶、薬さじに...
-それにバール...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_DimpleKey_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ぐちゃぐちゃだ...
-...あ、何かの鍵も入ってる</t>
+    <t xml:space="preserve">ファイル、試薬瓶、薬さじにバール...
+あ、鍵なんかも入ってる...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_DimpleKey_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">...あ、鍵がある
+    <t xml:space="preserve">この鍵...
 テープの通りなら、必要なものだよね</t>
   </si>
   <si>
@@ -1222,7 +1213,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">重さのバランスが大事...
+      <t xml:space="preserve">重さのバランスが大事なんだよね...
 </t>
     </r>
     <r>
@@ -1233,20 +1224,8 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">...これでいいかな</t>
+      <t xml:space="preserve">次は細かな設定だ、しっかり考えよう</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次は...色々と設定しなきゃなんだ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">しっかり準備してから始めよう</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG</t>
@@ -1262,13 +1241,13 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG_C</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000(rpm)</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorNG_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorNG_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000(rpm)</t>
   </si>
   <si>
     <t xml:space="preserve">4000(rpm)</t>
@@ -1329,6 +1308,9 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_078_failed_010</t>
   </si>
   <si>
+    <t xml:space="preserve">Flag_BlueCloudySolution_Obtained</t>
+  </si>
+  <si>
     <t xml:space="preserve">10秒</t>
   </si>
   <si>
@@ -1344,12 +1326,12 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorOK_C</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorOK_A</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_A</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_070_RotorOK_A</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_075_RotorOK_B</t>
   </si>
   <si>
@@ -1392,17 +1374,14 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_078_allcorrect</t>
   </si>
   <si>
+    <t xml:space="preserve">Flag_BlueSolution_Obtained</t>
+  </si>
+  <si>
     <t xml:space="preserve">よし、出来た！</t>
   </si>
   <si>
-    <t xml:space="preserve">Flag_BlueSolution_Obtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">できた！
-...けど大丈夫かな...？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag_BlueCloudySolution_Obtained</t>
+    <t xml:space="preserve">よし！　できた！
+...けどちょっと濁ってるかも？</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_080</t>
@@ -1535,74 +1514,53 @@
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">何かをはめる穴があるし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真ん中が回転する...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卓上遠心分離機って
-これのことかな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">試験管セットをとってこなきゃ</t>
+    <t xml:space="preserve">細い穴が開いてて回転する機械...
+きっと卓上遠心分離機ってこの機械だ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_030</t>
   </si>
   <si>
-    <t xml:space="preserve">溶液Bはもう持ってるし</t>
+    <t xml:space="preserve">これが卓上遠心分離機だよね
+試験管セットをセットして...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_035</t>
   </si>
   <si>
-    <t xml:space="preserve">今は用はないかな</t>
+    <t xml:space="preserve">蓋を閉じれば......出来た！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_040</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">溶液Bはもう持ってるし
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">今は用はないかな</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_050</t>
+  </si>
+  <si>
     <t xml:space="preserve">この手順は間違いようがないね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これが卓上遠心分離機だよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">試験管セットをセットして...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蓋を閉じれば...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もういいかな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_010</t>
@@ -2246,16 +2204,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z213"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D152" activeCellId="0" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="22.51"/>
@@ -2433,7 +2391,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2505,7 +2463,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2539,7 +2497,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2575,7 +2533,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2679,7 +2637,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -3165,8 +3123,8 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3176,9 +3134,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3203,18 +3159,16 @@
     </row>
     <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3239,10 +3193,10 @@
     </row>
     <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -3273,10 +3227,10 @@
     </row>
     <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -3307,17 +3261,15 @@
     </row>
     <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3341,12 +3293,12 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2</v>
@@ -3377,15 +3329,17 @@
     </row>
     <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3409,17 +3363,17 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3445,10 +3399,10 @@
     </row>
     <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2</v>
@@ -3479,17 +3433,15 @@
     </row>
     <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3513,12 +3465,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2</v>
@@ -3549,15 +3501,17 @@
     </row>
     <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3581,7 +3535,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3591,9 +3545,7 @@
       <c r="C39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3617,19 +3569,17 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3655,16 +3605,16 @@
     </row>
     <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3689,18 +3639,18 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3727,16 +3677,16 @@
     </row>
     <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3763,16 +3713,16 @@
     </row>
     <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3799,16 +3749,16 @@
     </row>
     <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3835,16 +3785,16 @@
     </row>
     <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3871,16 +3821,16 @@
     </row>
     <row r="47" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3907,16 +3857,16 @@
     </row>
     <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -3943,16 +3893,16 @@
     </row>
     <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3979,16 +3929,16 @@
     </row>
     <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -4015,15 +3965,17 @@
     </row>
     <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4049,17 +4001,15 @@
     </row>
     <row r="52" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C52" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4085,16 +4035,16 @@
     </row>
     <row r="53" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -4119,18 +4069,18 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -4155,18 +4105,18 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -4191,18 +4141,18 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -4227,18 +4177,18 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4263,17 +4213,19 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4297,19 +4249,17 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4335,16 +4285,16 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -4369,18 +4319,18 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4405,18 +4355,18 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4441,18 +4391,18 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -4477,18 +4427,18 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4515,7 +4465,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>136</v>
@@ -4523,7 +4473,9 @@
       <c r="C65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4547,19 +4499,17 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C66" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4583,18 +4533,18 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4621,16 +4571,16 @@
     </row>
     <row r="68" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4657,16 +4607,16 @@
     </row>
     <row r="69" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4693,16 +4643,16 @@
     </row>
     <row r="70" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4729,16 +4679,16 @@
     </row>
     <row r="71" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4765,15 +4715,17 @@
     </row>
     <row r="72" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4799,10 +4751,10 @@
     </row>
     <row r="73" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
@@ -4833,10 +4785,10 @@
     </row>
     <row r="74" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2</v>
@@ -4867,10 +4819,10 @@
     </row>
     <row r="75" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2</v>
@@ -4899,19 +4851,17 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C76" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -4935,12 +4885,12 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2</v>
@@ -4971,10 +4921,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2</v>
@@ -5005,10 +4955,10 @@
     </row>
     <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2</v>
@@ -5039,10 +4989,10 @@
     </row>
     <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2</v>
@@ -5073,10 +5023,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
@@ -5105,19 +5055,17 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5143,15 +5091,15 @@
     </row>
     <row r="83" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -5177,10 +5125,10 @@
     </row>
     <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
@@ -5211,10 +5159,10 @@
     </row>
     <row r="85" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
@@ -5245,10 +5193,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
@@ -5279,10 +5227,10 @@
     </row>
     <row r="87" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
@@ -5313,10 +5261,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
@@ -5347,10 +5295,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
@@ -5381,10 +5329,10 @@
     </row>
     <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
@@ -5415,17 +5363,15 @@
     </row>
     <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5449,22 +5395,26 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="C92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="G92" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -5487,15 +5437,17 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B93" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="B93" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="C93" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -5519,26 +5471,22 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -5561,16 +5509,16 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -5597,7 +5545,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>200</v>
@@ -5605,9 +5553,7 @@
       <c r="C96" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5631,22 +5577,26 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3"/>
+      <c r="E97" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="G97" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -5667,20 +5617,26 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="E98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -5703,23 +5659,23 @@
     </row>
     <row r="99" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -5741,26 +5697,20 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -5783,24 +5733,22 @@
     </row>
     <row r="101" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="E101" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -5821,18 +5769,22 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="D102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -5857,18 +5809,20 @@
     </row>
     <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E103" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -5893,18 +5847,20 @@
     </row>
     <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -5929,18 +5885,20 @@
     </row>
     <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E105" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -5965,18 +5923,20 @@
     </row>
     <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E106" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -6001,18 +5961,20 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E107" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -6037,18 +5999,20 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E108" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -6073,18 +6037,20 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E109" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -6109,20 +6075,24 @@
     </row>
     <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3"/>
+      <c r="E110" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
+      <c r="F110" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -6143,18 +6113,18 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -6179,26 +6149,22 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -6221,16 +6187,16 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -6257,7 +6223,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>200</v>
@@ -6265,9 +6231,7 @@
       <c r="C114" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6291,22 +6255,26 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="3"/>
+      <c r="E115" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -6327,20 +6295,26 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
+      <c r="E116" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -6363,23 +6337,23 @@
     </row>
     <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -6401,26 +6375,20 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -6443,24 +6411,22 @@
     </row>
     <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="D119" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -6481,18 +6447,22 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="D120" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6517,18 +6487,20 @@
     </row>
     <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E121" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6553,18 +6525,20 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E122" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -6589,18 +6563,20 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E123" s="3"/>
+      <c r="D123" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -6625,18 +6601,20 @@
     </row>
     <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E124" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -6661,18 +6639,20 @@
     </row>
     <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E125" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -6697,18 +6677,20 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E126" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -6733,18 +6715,20 @@
     </row>
     <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E127" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -6769,21 +6753,19 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E128" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="4"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
+      <c r="H128" s="5"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -6805,18 +6787,16 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E129" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="2"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -6847,12 +6827,10 @@
         <v>240</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D130" s="3"/>
-      <c r="E130" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -6875,20 +6853,20 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6911,12 +6889,12 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>2</v>
@@ -6947,16 +6925,16 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C133" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -6983,10 +6961,10 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>2</v>
@@ -7017,17 +6995,15 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -7051,17 +7027,17 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C136" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D136" s="3"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -7087,10 +7063,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
@@ -7121,10 +7097,10 @@
     </row>
     <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -7155,10 +7131,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
@@ -7189,10 +7165,10 @@
     </row>
     <row r="140" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>2</v>
@@ -7223,10 +7199,10 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
@@ -7255,18 +7231,18 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="3"/>
+      <c r="E142" s="2"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -7289,17 +7265,19 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C143" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -7323,19 +7301,17 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C144" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -7359,19 +7335,17 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -7395,19 +7369,17 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -7433,15 +7405,17 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C147" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -7467,16 +7441,16 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C148" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -7503,12 +7477,12 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C149" s="2" t="n">
+      <c r="C149" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D149" s="3"/>
@@ -7535,17 +7509,19 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C150" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -7569,19 +7545,17 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C151" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="C151" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -7607,16 +7581,16 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C152" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -7641,18 +7615,18 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C153" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -7679,17 +7653,15 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C154" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="C154" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -7715,15 +7687,17 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C155" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -7749,17 +7723,15 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C156" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -7785,16 +7757,16 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C157" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -7821,15 +7793,17 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="C158" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C158" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -7855,16 +7829,16 @@
     </row>
     <row r="159" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="C159" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C159" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -7889,12 +7863,12 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="C160" s="3" t="n">
         <v>2</v>
@@ -7925,16 +7899,16 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C161" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C161" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -7959,19 +7933,17 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C162" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="C162" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -7995,19 +7967,23 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C163" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -8031,17 +8007,15 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>307</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -8067,13 +8041,13 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C165" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -8099,22 +8073,26 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="C166" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C166" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
+      <c r="G166" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -8135,18 +8113,18 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -8173,16 +8151,16 @@
     </row>
     <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -8207,17 +8185,19 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D169" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -8241,22 +8221,26 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -8277,17 +8261,19 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C171" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D171" s="3"/>
+        <v>324</v>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -8316,18 +8302,16 @@
         <v>322</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D172" s="3"/>
-      <c r="E172" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F172" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -8349,17 +8333,19 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="3"/>
+      <c r="D173" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -8383,20 +8369,26 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C174" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
+      <c r="E174" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
@@ -8422,21 +8414,17 @@
         <v>328</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C175" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D175" s="3"/>
-      <c r="E175" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="D175" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -8459,16 +8447,16 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -8495,16 +8483,16 @@
     </row>
     <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C177" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -8531,20 +8519,24 @@
     </row>
     <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -8567,24 +8559,20 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D179" s="3"/>
-      <c r="E179" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="D179" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
@@ -8607,16 +8595,16 @@
     </row>
     <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -8643,16 +8631,16 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -8679,18 +8667,18 @@
     </row>
     <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C182" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -8715,24 +8703,20 @@
     </row>
     <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C183" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>349</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -8753,19 +8737,17 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -8789,18 +8771,18 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -8825,19 +8807,17 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -8861,26 +8841,20 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D187" s="3"/>
-      <c r="E187" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -8901,18 +8875,18 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -8937,19 +8911,17 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -8973,18 +8945,18 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C190" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -9009,7 +8981,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>353</v>
       </c>
@@ -9017,12 +8989,10 @@
         <v>354</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" s="3"/>
-      <c r="E191" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -9045,20 +9015,18 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>356</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D192" s="3"/>
-      <c r="E192" s="2" t="s">
-        <v>357</v>
-      </c>
+      <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -9083,15 +9051,17 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C193" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -9117,16 +9087,16 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C194" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -9153,10 +9123,10 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="C195" s="3" t="n">
         <v>2</v>
@@ -9187,10 +9157,10 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="C196" s="3" t="n">
         <v>2</v>
@@ -9221,17 +9191,15 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C197" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -9255,19 +9223,23 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="F198" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C198" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -9289,18 +9261,18 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C199" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -9325,15 +9297,15 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="C200" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -9359,18 +9331,20 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C201" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -9395,17 +9369,15 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="C202" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>378</v>
-      </c>
+      <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -9431,16 +9403,16 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C203" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -9467,10 +9439,10 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="C204" s="3" t="n">
         <v>2</v>
@@ -9499,322 +9471,17 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C205" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
-      <c r="O205" s="3"/>
-      <c r="P205" s="3"/>
-      <c r="Q205" s="3"/>
-      <c r="R205" s="3"/>
-      <c r="S205" s="3"/>
-      <c r="T205" s="3"/>
-      <c r="U205" s="3"/>
-      <c r="V205" s="3"/>
-      <c r="W205" s="3"/>
-      <c r="X205" s="3"/>
-      <c r="Y205" s="3"/>
-      <c r="Z205" s="3"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C206" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
-      <c r="O206" s="3"/>
-      <c r="P206" s="3"/>
-      <c r="Q206" s="3"/>
-      <c r="R206" s="3"/>
-      <c r="S206" s="3"/>
-      <c r="T206" s="3"/>
-      <c r="U206" s="3"/>
-      <c r="V206" s="3"/>
-      <c r="W206" s="3"/>
-      <c r="X206" s="3"/>
-      <c r="Y206" s="3"/>
-      <c r="Z206" s="3"/>
-    </row>
-    <row r="207" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C207" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3"/>
-      <c r="P207" s="3"/>
-      <c r="Q207" s="3"/>
-      <c r="R207" s="3"/>
-      <c r="S207" s="3"/>
-      <c r="T207" s="3"/>
-      <c r="U207" s="3"/>
-      <c r="V207" s="3"/>
-      <c r="W207" s="3"/>
-      <c r="X207" s="3"/>
-      <c r="Y207" s="3"/>
-      <c r="Z207" s="3"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C208" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
-      <c r="O208" s="3"/>
-      <c r="P208" s="3"/>
-      <c r="Q208" s="3"/>
-      <c r="R208" s="3"/>
-      <c r="S208" s="3"/>
-      <c r="T208" s="3"/>
-      <c r="U208" s="3"/>
-      <c r="V208" s="3"/>
-      <c r="W208" s="3"/>
-      <c r="X208" s="3"/>
-      <c r="Y208" s="3"/>
-      <c r="Z208" s="3"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C209" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
-      <c r="P209" s="3"/>
-      <c r="Q209" s="3"/>
-      <c r="R209" s="3"/>
-      <c r="S209" s="3"/>
-      <c r="T209" s="3"/>
-      <c r="U209" s="3"/>
-      <c r="V209" s="3"/>
-      <c r="W209" s="3"/>
-      <c r="X209" s="3"/>
-      <c r="Y209" s="3"/>
-      <c r="Z209" s="3"/>
-    </row>
-    <row r="210" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C210" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D210" s="3"/>
-      <c r="E210" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
-      <c r="P210" s="3"/>
-      <c r="Q210" s="3"/>
-      <c r="R210" s="3"/>
-      <c r="S210" s="3"/>
-      <c r="T210" s="3"/>
-      <c r="U210" s="3"/>
-      <c r="V210" s="3"/>
-      <c r="W210" s="3"/>
-      <c r="X210" s="3"/>
-      <c r="Y210" s="3"/>
-      <c r="Z210" s="3"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C211" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
-      <c r="Q211" s="3"/>
-      <c r="R211" s="3"/>
-      <c r="S211" s="3"/>
-      <c r="T211" s="3"/>
-      <c r="U211" s="3"/>
-      <c r="V211" s="3"/>
-      <c r="W211" s="3"/>
-      <c r="X211" s="3"/>
-      <c r="Y211" s="3"/>
-      <c r="Z211" s="3"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C212" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-      <c r="P212" s="3"/>
-      <c r="Q212" s="3"/>
-      <c r="R212" s="3"/>
-      <c r="S212" s="3"/>
-      <c r="T212" s="3"/>
-      <c r="U212" s="3"/>
-      <c r="V212" s="3"/>
-      <c r="W212" s="3"/>
-      <c r="X212" s="3"/>
-      <c r="Y212" s="3"/>
-      <c r="Z212" s="3"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C213" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
-      <c r="R213" s="3"/>
-      <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
-      <c r="U213" s="3"/>
-      <c r="V213" s="3"/>
-      <c r="W213" s="3"/>
-      <c r="X213" s="3"/>
-      <c r="Y213" s="3"/>
-      <c r="Z213" s="3"/>
-    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="377">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1394,25 +1394,53 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_090</t>
   </si>
   <si>
-    <t xml:space="preserve">指示通りにできたみたいだし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今は使う必要は無いかな</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">指示通りにできたみたいだし
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">今は使う必要は無いかな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_100</t>
   </si>
   <si>
-    <t xml:space="preserve">うまくできたの...かな？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ちょっと不安...</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">うまくできたの...かな？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ちょっと不安...</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Rotor_4h_reaction_010</t>
@@ -2206,8 +2234,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D152" activeCellId="0" sqref="D152"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D134" activeCellId="0" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6853,7 +6881,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>241</v>
       </c>
@@ -6863,9 +6891,7 @@
       <c r="C131" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="D131" s="2"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -6889,7 +6915,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>243</v>
       </c>
@@ -6899,7 +6925,7 @@
       <c r="C132" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D132" s="3"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -6933,9 +6959,7 @@
       <c r="C133" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -6959,7 +6983,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>247</v>
       </c>
@@ -6969,7 +6993,7 @@
       <c r="C134" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -6998,7 +7022,7 @@
         <v>249</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
@@ -7029,10 +7053,10 @@
     </row>
     <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>2</v>
@@ -7063,10 +7087,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
@@ -7097,10 +7121,10 @@
     </row>
     <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -7131,10 +7155,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
@@ -7163,7 +7187,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>257</v>
       </c>
@@ -7174,7 +7198,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="2"/>
-      <c r="E140" s="3"/>
+      <c r="E140" s="2"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -7197,17 +7221,19 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D141" s="3"/>
+      <c r="D141" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -7235,14 +7261,14 @@
       <c r="A142" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -7269,15 +7295,13 @@
       <c r="A143" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>264</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -7301,7 +7325,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>265</v>
       </c>
@@ -7335,17 +7359,19 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C145" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D145" s="2"/>
+      <c r="C145" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -7369,17 +7395,19 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C146" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D146" s="2"/>
+      <c r="C146" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -7413,9 +7441,7 @@
       <c r="C147" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -7439,7 +7465,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>273</v>
       </c>
@@ -7475,7 +7501,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>275</v>
       </c>
@@ -7509,7 +7535,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>277</v>
       </c>
@@ -7555,7 +7581,9 @@
       <c r="C151" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D151" s="3"/>
+      <c r="D151" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -7589,9 +7617,7 @@
       <c r="C152" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -7615,7 +7641,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>283</v>
       </c>
@@ -7731,7 +7757,9 @@
       <c r="C156" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D156" s="3"/>
+      <c r="D156" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -7755,7 +7783,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>291</v>
       </c>
@@ -7801,9 +7829,7 @@
       <c r="C158" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -7827,7 +7853,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
         <v>295</v>
       </c>
@@ -7870,7 +7896,7 @@
       <c r="B160" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="C160" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D160" s="3"/>
@@ -7897,7 +7923,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>299</v>
       </c>
@@ -7905,13 +7931,15 @@
         <v>300</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D161" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+      <c r="F161" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -7938,10 +7966,10 @@
         <v>301</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C162" s="2" t="n">
-        <v>2</v>
+        <v>303</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7967,9 +7995,9 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>304</v>
@@ -7978,12 +8006,8 @@
         <v>0</v>
       </c>
       <c r="D163" s="3"/>
-      <c r="E163" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -8005,20 +8029,26 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C164" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+      <c r="E164" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8039,17 +8069,19 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C165" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="3"/>
+      <c r="D165" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -8075,24 +8107,20 @@
     </row>
     <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C166" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -8115,7 +8143,7 @@
     </row>
     <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>314</v>
@@ -8151,7 +8179,7 @@
     </row>
     <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>316</v>
@@ -8159,12 +8187,16 @@
       <c r="C168" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="3"/>
+      <c r="E168" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
+      <c r="F168" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -8187,16 +8219,16 @@
     </row>
     <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -8223,24 +8255,20 @@
     </row>
     <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>323</v>
-      </c>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -8263,16 +8291,16 @@
     </row>
     <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -8299,20 +8327,24 @@
     </row>
     <row r="172" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="3"/>
+      <c r="E172" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
+      <c r="G172" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -8335,16 +8367,16 @@
     </row>
     <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -8371,24 +8403,20 @@
     </row>
     <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C174" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D174" s="3"/>
-      <c r="E174" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="D174" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
@@ -8411,16 +8439,16 @@
     </row>
     <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C175" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -8447,20 +8475,24 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -8483,16 +8515,16 @@
     </row>
     <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C177" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -8519,24 +8551,20 @@
     </row>
     <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D178" s="3"/>
-      <c r="E178" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="D178" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -8559,16 +8587,16 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -8595,18 +8623,18 @@
     </row>
     <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -8631,18 +8659,18 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -8665,20 +8693,18 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D182" s="3"/>
-      <c r="E182" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -8701,20 +8727,20 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" s="3"/>
-      <c r="E183" s="2" t="s">
-        <v>338</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -8781,9 +8807,7 @@
       <c r="C185" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>343</v>
-      </c>
+      <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -8817,7 +8841,9 @@
       <c r="C186" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D186" s="3"/>
+      <c r="D186" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -8875,7 +8901,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
         <v>347</v>
       </c>
@@ -8883,7 +8909,7 @@
         <v>348</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>349</v>
@@ -8911,7 +8937,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>349</v>
       </c>
@@ -8919,7 +8945,7 @@
         <v>350</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -8945,7 +8971,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
         <v>351</v>
       </c>
@@ -8953,11 +8979,9 @@
         <v>352</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>353</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -8981,7 +9005,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>353</v>
       </c>
@@ -8989,9 +9013,11 @@
         <v>354</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D191" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -9025,7 +9051,9 @@
       <c r="C192" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D192" s="3"/>
+      <c r="D192" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -9059,9 +9087,7 @@
       <c r="C193" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -9095,9 +9121,7 @@
       <c r="C194" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>361</v>
-      </c>
+      <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -9126,7 +9150,7 @@
         <v>361</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C195" s="3" t="n">
         <v>2</v>
@@ -9155,19 +9179,23 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C196" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
+      <c r="F196" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
@@ -9191,15 +9219,17 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D197" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -9223,23 +9253,19 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C198" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D198" s="3"/>
-      <c r="E198" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -9261,20 +9287,20 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C199" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -9299,13 +9325,13 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>372</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -9331,20 +9357,20 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C201" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="2" t="s">
-        <v>374</v>
-      </c>
+      <c r="D201" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -9401,76 +9427,8 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C203" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
-      <c r="O203" s="3"/>
-      <c r="P203" s="3"/>
-      <c r="Q203" s="3"/>
-      <c r="R203" s="3"/>
-      <c r="S203" s="3"/>
-      <c r="T203" s="3"/>
-      <c r="U203" s="3"/>
-      <c r="V203" s="3"/>
-      <c r="W203" s="3"/>
-      <c r="X203" s="3"/>
-      <c r="Y203" s="3"/>
-      <c r="Z203" s="3"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C204" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
-      <c r="O204" s="3"/>
-      <c r="P204" s="3"/>
-      <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="3"/>
-      <c r="T204" s="3"/>
-      <c r="U204" s="3"/>
-      <c r="V204" s="3"/>
-      <c r="W204" s="3"/>
-      <c r="X204" s="3"/>
-      <c r="Y204" s="3"/>
-      <c r="Z204" s="3"/>
-    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="348">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1550,13 +1550,7 @@
   </si>
   <si>
     <t xml:space="preserve">これが卓上遠心分離機だよね
-試験管セットをセットして...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蓋を閉じれば......出来た！</t>
+試験管をセットするだけで...出来た！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_040</t>
@@ -1594,101 +1588,125 @@
     <t xml:space="preserve">TXT_Pipette_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">これピペットだよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校で使ったことあるけど...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">先っぽがない...？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">これピペットだよね、学校で使ったけど
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">先っぽがない...？</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">これがピペットだろうけど
-先っぽがない...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">たぶんこのままじゃ
-使えないよね...</t>
+    <t xml:space="preserve">このピペット、先っぽがない...
+このままじゃ使えないよね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_030</t>
   </si>
   <si>
-    <t xml:space="preserve">このピペットを使うには</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チップって言うのが
-必要なんだよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まずはそれから探そう</t>
+    <t xml:space="preserve">このピペットを使うには
+チップって言うの部品を探さなきゃ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_040</t>
   </si>
   <si>
-    <t xml:space="preserve">よしチップは見つけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">後は試薬瓶だ</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">よしチップは見つけた
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">後は試薬瓶だ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_050</t>
   </si>
   <si>
-    <t xml:space="preserve">試薬瓶は見つけたけど</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このピペット先っぽがない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">たぶんこれじゃあ
-使えないよね...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どうしたらいいんだろう</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">試薬瓶は見つけたけど
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">このピペット先っぽがないよね...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使い方が知りたいな...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_060</t>
   </si>
   <si>
-    <t xml:space="preserve">チップも試薬瓶も揃ってるし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手順が確認出来たら始めよう</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">チップも試薬瓶も揃ってるし
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">手順が確認出来たら始めよう</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_070</t>
@@ -1700,15 +1718,9 @@
     <t xml:space="preserve">TXT_Pipette_reaction_070_Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_No</t>
-  </si>
-  <si>
     <t xml:space="preserve">始める</t>
   </si>
   <si>
-    <t xml:space="preserve">手順を確認してくる</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1</t>
   </si>
   <si>
@@ -1808,31 +1820,60 @@
     <t xml:space="preserve">TXT_Pipette_reaction_090</t>
   </si>
   <si>
-    <t xml:space="preserve">できた溶液、少し濁ってる...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大丈夫だよね...？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">できた溶液、少し濁ってる...？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">大丈夫だよね...</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_TipHolder_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">透明な細い管が刺さった箱だ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_TipHolder_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なんだろうこれ？</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">透明な細い管が刺さった箱だ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">なんだろうこれ？</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_TipHolder_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">これ、ピペットに使うチップだ！</t>
+    <t xml:space="preserve">ピペットに使うチップって
+これかもしれない！　持っていこう！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_PipetteManual_content_10</t>
@@ -1866,19 +1907,30 @@
     <t xml:space="preserve">TXT_ReagentBottle_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">冷蔵庫の中の試薬瓶って</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">冷蔵庫の中の試薬瓶って
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これのことだよね　持っていこう</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_ReagentBottle_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これのことだよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_ReagentBottle_reaction_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一つ持っていこう</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_ReagentBottle_reaction_030</t>
@@ -2018,7 +2070,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2041,6 +2093,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2234,8 +2290,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D134" activeCellId="0" sqref="D134"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7231,9 +7287,7 @@
       <c r="C141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="D141" s="2"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -7261,7 +7315,7 @@
       <c r="A142" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C142" s="2" t="n">
@@ -7291,11 +7345,11 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C143" s="2" t="n">
@@ -7325,14 +7379,14 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C144" s="2" t="n">
+      <c r="C144" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D144" s="2"/>
@@ -7359,19 +7413,17 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>268</v>
       </c>
       <c r="C145" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -7395,7 +7447,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>269</v>
       </c>
@@ -7405,9 +7457,7 @@
       <c r="C146" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -7431,7 +7481,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>271</v>
       </c>
@@ -7441,7 +7491,7 @@
       <c r="C147" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D147" s="3"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -7465,7 +7515,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>273</v>
       </c>
@@ -7501,7 +7551,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>275</v>
       </c>
@@ -7535,7 +7585,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>277</v>
       </c>
@@ -7545,9 +7595,7 @@
       <c r="C150" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -7579,13 +7627,13 @@
         <v>280</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="F151" s="2"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -7615,9 +7663,11 @@
         <v>282</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D152" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -7641,7 +7691,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>283</v>
       </c>
@@ -7649,14 +7699,18 @@
         <v>284</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D153" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
+      <c r="F153" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -7677,17 +7731,19 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D154" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -7711,18 +7767,18 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -7747,18 +7803,18 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -7785,20 +7841,24 @@
     </row>
     <row r="157" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -7819,17 +7879,19 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D158" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -7853,18 +7915,18 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -7889,17 +7951,19 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C160" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D160" s="3"/>
+        <v>301</v>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -7925,22 +7989,24 @@
     </row>
     <row r="161" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C161" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G161" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -7961,17 +8027,19 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C162" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D162" s="3"/>
+      <c r="D162" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -7995,17 +8063,19 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C163" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D163" s="3"/>
+      <c r="D163" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -8031,24 +8101,20 @@
     </row>
     <row r="164" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C164" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="3"/>
-      <c r="E164" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="D164" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8071,20 +8137,24 @@
     </row>
     <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C165" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8107,16 +8177,16 @@
     </row>
     <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C166" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -8143,16 +8213,16 @@
     </row>
     <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C167" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -8179,24 +8249,20 @@
     </row>
     <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="D168" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -8219,18 +8285,18 @@
     </row>
     <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -8255,18 +8321,18 @@
     </row>
     <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -8289,19 +8355,17 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>321</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -8325,26 +8389,20 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" s="3"/>
-      <c r="E172" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>326</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -8367,17 +8425,15 @@
     </row>
     <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>321</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -8401,19 +8457,17 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>321</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -8437,18 +8491,18 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C175" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -8473,26 +8527,20 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -8513,19 +8561,17 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>330</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -8549,18 +8595,18 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="C178" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -8585,19 +8631,17 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>321</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -8621,20 +8665,18 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D180" s="3"/>
-      <c r="E180" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -8659,19 +8701,21 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F181" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -8698,12 +8742,14 @@
         <v>335</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D182" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -8729,17 +8775,15 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -8763,9 +8807,9 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>340</v>
@@ -8774,7 +8818,9 @@
         <v>2</v>
       </c>
       <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+      <c r="E184" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -8799,10 +8845,10 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C185" s="3" t="n">
         <v>2</v>
@@ -8833,16 +8879,16 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C186" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -8869,10 +8915,10 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C187" s="3" t="n">
         <v>2</v>
@@ -8901,532 +8947,21 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C188" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
-      <c r="P188" s="3"/>
-      <c r="Q188" s="3"/>
-      <c r="R188" s="3"/>
-      <c r="S188" s="3"/>
-      <c r="T188" s="3"/>
-      <c r="U188" s="3"/>
-      <c r="V188" s="3"/>
-      <c r="W188" s="3"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-    </row>
-    <row r="189" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C189" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
-      <c r="O189" s="3"/>
-      <c r="P189" s="3"/>
-      <c r="Q189" s="3"/>
-      <c r="R189" s="3"/>
-      <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
-      <c r="U189" s="3"/>
-      <c r="V189" s="3"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C190" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3"/>
-      <c r="Q190" s="3"/>
-      <c r="R190" s="3"/>
-      <c r="S190" s="3"/>
-      <c r="T190" s="3"/>
-      <c r="U190" s="3"/>
-      <c r="V190" s="3"/>
-      <c r="W190" s="3"/>
-      <c r="X190" s="3"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C191" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
-      <c r="Q191" s="3"/>
-      <c r="R191" s="3"/>
-      <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
-      <c r="U191" s="3"/>
-      <c r="V191" s="3"/>
-      <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C192" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3"/>
-      <c r="Q192" s="3"/>
-      <c r="R192" s="3"/>
-      <c r="S192" s="3"/>
-      <c r="T192" s="3"/>
-      <c r="U192" s="3"/>
-      <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C193" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
-      <c r="Q193" s="3"/>
-      <c r="R193" s="3"/>
-      <c r="S193" s="3"/>
-      <c r="T193" s="3"/>
-      <c r="U193" s="3"/>
-      <c r="V193" s="3"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C194" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
-      <c r="O194" s="3"/>
-      <c r="P194" s="3"/>
-      <c r="Q194" s="3"/>
-      <c r="R194" s="3"/>
-      <c r="S194" s="3"/>
-      <c r="T194" s="3"/>
-      <c r="U194" s="3"/>
-      <c r="V194" s="3"/>
-      <c r="W194" s="3"/>
-      <c r="X194" s="3"/>
-      <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C195" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
-      <c r="O195" s="3"/>
-      <c r="P195" s="3"/>
-      <c r="Q195" s="3"/>
-      <c r="R195" s="3"/>
-      <c r="S195" s="3"/>
-      <c r="T195" s="3"/>
-      <c r="U195" s="3"/>
-      <c r="V195" s="3"/>
-      <c r="W195" s="3"/>
-      <c r="X195" s="3"/>
-      <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
-    </row>
-    <row r="196" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C196" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
-      <c r="O196" s="3"/>
-      <c r="P196" s="3"/>
-      <c r="Q196" s="3"/>
-      <c r="R196" s="3"/>
-      <c r="S196" s="3"/>
-      <c r="T196" s="3"/>
-      <c r="U196" s="3"/>
-      <c r="V196" s="3"/>
-      <c r="W196" s="3"/>
-      <c r="X196" s="3"/>
-      <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C197" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="3"/>
-      <c r="Q197" s="3"/>
-      <c r="R197" s="3"/>
-      <c r="S197" s="3"/>
-      <c r="T197" s="3"/>
-      <c r="U197" s="3"/>
-      <c r="V197" s="3"/>
-      <c r="W197" s="3"/>
-      <c r="X197" s="3"/>
-      <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C198" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
-      <c r="P198" s="3"/>
-      <c r="Q198" s="3"/>
-      <c r="R198" s="3"/>
-      <c r="S198" s="3"/>
-      <c r="T198" s="3"/>
-      <c r="U198" s="3"/>
-      <c r="V198" s="3"/>
-      <c r="W198" s="3"/>
-      <c r="X198" s="3"/>
-      <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
-    </row>
-    <row r="199" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C199" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
-      <c r="P199" s="3"/>
-      <c r="Q199" s="3"/>
-      <c r="R199" s="3"/>
-      <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
-      <c r="U199" s="3"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C200" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
-      <c r="U200" s="3"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
-      <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C201" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
-      <c r="Q201" s="3"/>
-      <c r="R201" s="3"/>
-      <c r="S201" s="3"/>
-      <c r="T201" s="3"/>
-      <c r="U201" s="3"/>
-      <c r="V201" s="3"/>
-      <c r="W201" s="3"/>
-      <c r="X201" s="3"/>
-      <c r="Y201" s="3"/>
-      <c r="Z201" s="3"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C202" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
-      <c r="O202" s="3"/>
-      <c r="P202" s="3"/>
-      <c r="Q202" s="3"/>
-      <c r="R202" s="3"/>
-      <c r="S202" s="3"/>
-      <c r="T202" s="3"/>
-      <c r="U202" s="3"/>
-      <c r="V202" s="3"/>
-      <c r="W202" s="3"/>
-      <c r="X202" s="3"/>
-      <c r="Y202" s="3"/>
-      <c r="Z202" s="3"/>
-    </row>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="364">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -109,7 +109,8 @@
     <t xml:space="preserve">TXT_Memo_001_content_015</t>
   </si>
   <si>
-    <t xml:space="preserve">常備していた『抵抗薬』は処分したがここで作ることはできる
+    <t xml:space="preserve">常備していた『抵抗薬』は処分したが
+ここで作ることはできる
 あんたの頭がまだ狂ってなければ
 という条件付きだがな</t>
   </si>
@@ -144,7 +145,8 @@
     <t xml:space="preserve">TXT_Memo_002_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">『溶液Aの作成方法』って書いてある実験手順のメモかな</t>
+    <t xml:space="preserve">『溶液Aの作成方法』って書いてある
+実験手順のメモかな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_003_content_010</t>
@@ -563,6 +565,13 @@
     <t xml:space="preserve">TXT_GarbageCan_reaction_030</t>
   </si>
   <si>
+    <t xml:space="preserve">作った溶液、やっぱり間違えてるかも...
+うん、捨ててやり直そう...！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_GarbageCan_reaction_040</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_010</t>
   </si>
   <si>
@@ -665,7 +674,7 @@
   </si>
   <si>
     <t xml:space="preserve">遠心分離は重さのバランスが
-悪いとうまくいかないくてな</t>
+悪いとうまくいかなくてな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_026</t>
@@ -1039,7 +1048,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ちゃんと出来てるか心配だな...
+      <t xml:space="preserve">作った溶液、やっぱり不安だな...
 </t>
     </r>
     <r>
@@ -1050,8 +1059,14 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">...うん　もう一度やり直してみよう</t>
+      <t xml:space="preserve">うん、もう一度やり直してみよう</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_050_add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、もう一度だ！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_060</t>
@@ -1135,7 +1150,7 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_010_add</t>
   </si>
   <si>
-    <t xml:space="preserve">『遠心分離機』...これだ</t>
+    <t xml:space="preserve">『遠心分離機』はこれだね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_020</t>
@@ -1149,7 +1164,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">『遠心分離機』...これだ
+      <t xml:space="preserve">『遠心分離機』はこれだね
 </t>
     </r>
     <r>
@@ -1380,8 +1395,7 @@
     <t xml:space="preserve">よし、出来た！</t>
   </si>
   <si>
-    <t xml:space="preserve">よし！　できた！
-...けどちょっと濁ってるかも？</t>
+    <t xml:space="preserve">できたけど...ちょっと濁ってるかも</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_080</t>
@@ -1428,8 +1442,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">うまくできたの...かな？
-</t>
+      <t xml:space="preserve">うまくできたの...？　</t>
     </r>
     <r>
       <rPr>
@@ -1441,6 +1454,19 @@
       </rPr>
       <t xml:space="preserve">ちょっと不安...</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローターの種類と設定条件...
+自信が持てたら操作を開始しよう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新しい試験管セットをとってこなきゃ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Rotor_4h_reaction_010</t>
@@ -1475,6 +1501,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Rotor_4h_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このローターはもういらないな</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Rotor_6h_reaction_010</t>
   </si>
   <si>
@@ -1504,6 +1536,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Rotor_6h_reaction_030</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Rotor_8h_reaction_010</t>
   </si>
   <si>
@@ -1533,6 +1568,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Rotor_8h_reaction_030</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_010</t>
   </si>
   <si>
@@ -1874,6 +1912,38 @@
   <si>
     <t xml:space="preserve">ピペットに使うチップって
 これかもしれない！　持っていこう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_TipHolder_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チップはもういらないや</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PipetteManual_reaction_10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">『ピペットを使う際の注意』か
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">今は読む必要はないかな</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_PipetteManual_content_10</t>
@@ -2070,7 +2140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2093,10 +2163,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2290,8 +2356,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2511,7 +2577,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="62.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -3658,7 +3724,7 @@
         <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2</v>
@@ -3689,17 +3755,15 @@
     </row>
     <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3723,7 +3787,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
@@ -3759,11 +3823,11 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="2" t="n">
@@ -3799,7 +3863,7 @@
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="2" t="n">
@@ -3979,7 +4043,7 @@
       <c r="A49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C49" s="2" t="n">
@@ -4093,7 +4157,9 @@
       <c r="C52" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4121,15 +4187,13 @@
       <c r="A53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -4189,7 +4253,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>114</v>
       </c>
@@ -4225,7 +4289,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>116</v>
       </c>
@@ -4261,11 +4325,11 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="2" t="n">
@@ -4297,7 +4361,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>120</v>
       </c>
@@ -4333,7 +4397,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>122</v>
       </c>
@@ -4343,7 +4407,9 @@
       <c r="C59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4367,19 +4433,17 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4439,7 +4503,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>128</v>
       </c>
@@ -4513,16 +4577,16 @@
     </row>
     <row r="64" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4547,9 +4611,9 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>136</v>
@@ -4558,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -4585,15 +4649,17 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4617,9 +4683,9 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>139</v>
@@ -4627,9 +4693,7 @@
       <c r="C67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -4653,7 +4717,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -4693,7 +4757,7 @@
       <c r="A69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C69" s="2" t="n">
@@ -4729,7 +4793,7 @@
       <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C70" s="2" t="n">
@@ -4837,13 +4901,15 @@
       <c r="A73" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -4871,7 +4937,7 @@
       <c r="A74" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C74" s="2" t="n">
@@ -4969,7 +5035,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>158</v>
       </c>
@@ -5003,7 +5069,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>160</v>
       </c>
@@ -5013,7 +5079,7 @@
       <c r="C78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -5037,7 +5103,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>162</v>
       </c>
@@ -5047,7 +5113,7 @@
       <c r="C79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5105,7 +5171,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>166</v>
       </c>
@@ -5115,7 +5181,7 @@
       <c r="C81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="3"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -5139,7 +5205,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
@@ -5149,7 +5215,7 @@
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5173,7 +5239,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>170</v>
       </c>
@@ -5183,7 +5249,7 @@
       <c r="C83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -5207,7 +5273,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>172</v>
       </c>
@@ -5217,7 +5283,7 @@
       <c r="C84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5251,7 +5317,7 @@
       <c r="C85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -5275,7 +5341,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>176</v>
       </c>
@@ -5353,7 +5419,7 @@
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="3"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5377,7 +5443,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>182</v>
       </c>
@@ -5387,7 +5453,7 @@
       <c r="C89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D89" s="3"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -5411,7 +5477,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>184</v>
       </c>
@@ -5421,7 +5487,7 @@
       <c r="C90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -5445,7 +5511,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>186</v>
       </c>
@@ -5455,7 +5521,7 @@
       <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5487,18 +5553,12 @@
         <v>189</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -5519,19 +5579,17 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D93" s="2"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -5555,22 +5613,26 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3"/>
+      <c r="E94" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -5593,7 +5655,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>197</v>
@@ -5629,15 +5691,17 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5661,9 +5725,9 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>201</v>
@@ -5671,16 +5735,12 @@
       <c r="C97" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -5701,26 +5761,20 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D98" s="3"/>
-      <c r="E98" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -5746,20 +5800,20 @@
         <v>198</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -5781,20 +5835,26 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="E100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -5820,19 +5880,21 @@
         <v>202</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3"/>
+      <c r="E101" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="G101" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -5853,22 +5915,18 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -5893,7 +5951,7 @@
     </row>
     <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>216</v>
@@ -5902,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -5931,19 +5989,19 @@
     </row>
     <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -5969,19 +6027,19 @@
     </row>
     <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -6007,7 +6065,7 @@
     </row>
     <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>216</v>
@@ -6016,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -6045,19 +6103,19 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6083,19 +6141,19 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -6121,7 +6179,7 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>216</v>
@@ -6130,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -6159,24 +6217,22 @@
     </row>
     <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="2" t="s">
+      <c r="D110" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -6197,20 +6253,22 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E111" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -6233,22 +6291,26 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3"/>
+      <c r="E112" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
+      <c r="F112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -6271,7 +6333,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>197</v>
@@ -6280,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -6307,15 +6369,17 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D114" s="3"/>
+      <c r="D114" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6339,9 +6403,9 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>201</v>
@@ -6349,16 +6413,12 @@
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -6379,26 +6439,20 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D116" s="3"/>
-      <c r="E116" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -6421,23 +6475,23 @@
     </row>
     <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -6459,20 +6513,26 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+      <c r="E118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -6495,22 +6555,24 @@
     </row>
     <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -6531,22 +6593,18 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6571,7 +6629,7 @@
     </row>
     <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>216</v>
@@ -6580,10 +6638,10 @@
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -6609,19 +6667,19 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -6647,19 +6705,19 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>235</v>
+      <c r="D123" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -6685,7 +6743,7 @@
     </row>
     <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>216</v>
@@ -6694,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6723,19 +6781,19 @@
     </row>
     <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>213</v>
+      <c r="D125" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -6761,19 +6819,19 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -6799,7 +6857,7 @@
     </row>
     <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>216</v>
@@ -6808,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -6837,19 +6895,23 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="5"/>
+      <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -6871,16 +6933,20 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -6908,16 +6974,16 @@
         <v>239</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="E130" s="4"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
+      <c r="H130" s="5"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -6937,9 +7003,9 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>242</v>
@@ -6947,8 +7013,8 @@
       <c r="C131" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="2"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6971,7 +7037,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>243</v>
       </c>
@@ -6981,7 +7047,7 @@
       <c r="C132" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -7005,7 +7071,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>245</v>
       </c>
@@ -7015,7 +7081,7 @@
       <c r="C133" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="2"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -7039,7 +7105,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>247</v>
       </c>
@@ -7073,17 +7139,17 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>246</v>
+      <c r="B135" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -7107,12 +7173,12 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B136" s="2" t="s">
         <v>251</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>2</v>
@@ -7143,10 +7209,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
@@ -7177,10 +7243,10 @@
     </row>
     <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -7209,17 +7275,17 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -7243,18 +7309,18 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -7277,12 +7343,12 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B141" s="4" t="s">
         <v>260</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
@@ -7311,12 +7377,12 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
@@ -7345,17 +7411,17 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>264</v>
+      <c r="B143" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -7379,14 +7445,14 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C144" s="3" t="n">
+      <c r="C144" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D144" s="2"/>
@@ -7413,14 +7479,14 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C145" s="3" t="n">
+        <v>266</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C145" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D145" s="2"/>
@@ -7447,17 +7513,17 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C146" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D146" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -7483,16 +7549,16 @@
     </row>
     <row r="147" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C147" s="3" t="n">
+        <v>270</v>
+      </c>
+      <c r="C147" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D147" s="2"/>
-      <c r="E147" s="3"/>
+      <c r="E147" s="2"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -7517,17 +7583,15 @@
     </row>
     <row r="148" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C148" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>275</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -7551,17 +7615,17 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C149" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D149" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" s="2"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -7585,14 +7649,14 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C150" s="3" t="n">
+        <v>275</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C150" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D150" s="2"/>
@@ -7619,21 +7683,19 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F151" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -7655,19 +7717,17 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>283</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D152" s="2"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -7691,26 +7751,20 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>287</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -7731,19 +7785,17 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>289</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D154" s="2"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -7767,18 +7819,18 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="C155" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -7803,19 +7855,17 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>293</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -7839,26 +7889,20 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -7881,19 +7925,19 @@
     </row>
     <row r="158" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C158" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F158" s="2"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -7915,18 +7959,18 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C159" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>299</v>
+      <c r="D159" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -7953,20 +7997,24 @@
     </row>
     <row r="160" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C160" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="3"/>
+      <c r="E160" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -7989,24 +8037,20 @@
     </row>
     <row r="161" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C161" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="D161" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -8029,16 +8073,16 @@
     </row>
     <row r="162" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C162" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -8065,16 +8109,16 @@
     </row>
     <row r="163" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C163" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -8101,20 +8145,24 @@
     </row>
     <row r="164" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C164" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8137,24 +8185,20 @@
     </row>
     <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C165" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="D165" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8177,16 +8221,16 @@
     </row>
     <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C166" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -8213,16 +8257,16 @@
     </row>
     <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C167" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -8249,20 +8293,24 @@
     </row>
     <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -8285,18 +8333,18 @@
     </row>
     <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="2" t="s">
-        <v>310</v>
-      </c>
+      <c r="D169" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -8321,18 +8369,18 @@
     </row>
     <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="D170" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -8355,17 +8403,19 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C171" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D171" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -8389,20 +8439,26 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -8428,12 +8484,14 @@
         <v>317</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D173" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -8457,17 +8515,19 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D174" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -8491,18 +8551,18 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -8527,18 +8587,20 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="E176" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -8561,18 +8623,20 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
+      <c r="E177" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -8595,19 +8659,17 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -8631,17 +8693,17 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D179" s="3"/>
+      <c r="D179" s="2"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -8665,12 +8727,12 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>2</v>
@@ -8701,21 +8763,17 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181" s="3"/>
-      <c r="E181" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -8737,19 +8795,17 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>338</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -8773,15 +8829,15 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+    <row r="183" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C183" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -8807,20 +8863,20 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="C184" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D184" s="3"/>
-      <c r="E184" s="2" t="s">
-        <v>341</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -8843,15 +8899,15 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -8879,17 +8935,15 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C186" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -8913,17 +8967,19 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C187" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D187" s="3"/>
+      <c r="D187" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -8947,15 +9003,322 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+      <c r="U188" s="3"/>
+      <c r="V188" s="3"/>
+      <c r="W188" s="3"/>
+      <c r="X188" s="3"/>
+      <c r="Y188" s="3"/>
+      <c r="Z188" s="3"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C189" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+      <c r="U189" s="3"/>
+      <c r="V189" s="3"/>
+      <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
+      <c r="Y189" s="3"/>
+      <c r="Z189" s="3"/>
+    </row>
+    <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C190" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="3"/>
+      <c r="V190" s="3"/>
+      <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
+      <c r="Y190" s="3"/>
+      <c r="Z190" s="3"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C191" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="3"/>
+      <c r="V191" s="3"/>
+      <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
+      <c r="Y191" s="3"/>
+      <c r="Z191" s="3"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C192" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+      <c r="U192" s="3"/>
+      <c r="V192" s="3"/>
+      <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
+      <c r="Y192" s="3"/>
+      <c r="Z192" s="3"/>
+    </row>
+    <row r="193" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C193" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+      <c r="U193" s="3"/>
+      <c r="V193" s="3"/>
+      <c r="W193" s="3"/>
+      <c r="X193" s="3"/>
+      <c r="Y193" s="3"/>
+      <c r="Z193" s="3"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C194" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3"/>
+      <c r="S194" s="3"/>
+      <c r="T194" s="3"/>
+      <c r="U194" s="3"/>
+      <c r="V194" s="3"/>
+      <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
+      <c r="Y194" s="3"/>
+      <c r="Z194" s="3"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C195" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
+      <c r="Y195" s="3"/>
+      <c r="Z195" s="3"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C196" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
+      <c r="Y196" s="3"/>
+      <c r="Z196" s="3"/>
+    </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="372">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1063,12 +1063,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_050_add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、もう一度だ！</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_Freezer_reaction_060</t>
   </si>
   <si>
@@ -1091,7 +1085,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">もう試験管セットはいらないな</t>
+      <t xml:space="preserve">今は試験管セットはいらないな</t>
     </r>
   </si>
   <si>
@@ -1105,6 +1099,19 @@
   </si>
   <si>
     <t xml:space="preserve">試験管セットをもう一度だよね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、もう一度だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットは遠心分離機に
+入ってるからいらないや</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_DimpleKey_reaction_010</t>
@@ -1469,6 +1476,12 @@
     <t xml:space="preserve">新しい試験管セットをとってこなきゃ</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一度ローターも取り外して再開だ！</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Rotor_4h_reaction_010</t>
   </si>
   <si>
@@ -1507,6 +1520,12 @@
     <t xml:space="preserve">このローターはもういらないな</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Rotor_4h_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Aは作れたし、今は不要かな</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Rotor_6h_reaction_010</t>
   </si>
   <si>
@@ -1539,6 +1558,9 @@
     <t xml:space="preserve">TXT_Rotor_6h_reaction_030</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Rotor_6h_reaction_040</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Rotor_8h_reaction_010</t>
   </si>
   <si>
@@ -1569,6 +1591,9 @@
   </si>
   <si>
     <t xml:space="preserve">TXT_Rotor_8h_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_8h_reaction_040</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_010</t>
@@ -2356,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5205,7 +5230,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
@@ -5215,7 +5240,7 @@
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5273,7 +5298,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>172</v>
       </c>
@@ -5283,7 +5308,7 @@
       <c r="C84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D84" s="3"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5307,7 +5332,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>174</v>
       </c>
@@ -5317,7 +5342,7 @@
       <c r="C85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D85" s="5"/>
+      <c r="D85" s="2"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -5351,7 +5376,7 @@
       <c r="C86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -5409,7 +5434,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>180</v>
       </c>
@@ -5443,7 +5468,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>182</v>
       </c>
@@ -5477,7 +5502,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>184</v>
       </c>
@@ -5487,7 +5512,7 @@
       <c r="C90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -5545,7 +5570,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>188</v>
       </c>
@@ -5555,7 +5580,7 @@
       <c r="C92" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5621,18 +5646,12 @@
         <v>193</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -5653,22 +5672,26 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3"/>
+      <c r="E95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -5691,7 +5714,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>199</v>
@@ -5727,7 +5750,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>201</v>
@@ -5763,15 +5786,17 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="3"/>
+      <c r="D98" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -5795,26 +5820,20 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -5840,20 +5859,20 @@
         <v>200</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -5880,20 +5899,20 @@
         <v>202</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -5915,20 +5934,26 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="E102" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -5949,22 +5974,18 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -5989,19 +6010,19 @@
     </row>
     <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -6027,19 +6048,19 @@
     </row>
     <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -6065,19 +6086,19 @@
     </row>
     <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -6103,19 +6124,19 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6141,19 +6162,19 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -6179,19 +6200,19 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -6217,19 +6238,19 @@
     </row>
     <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -6255,19 +6276,19 @@
     </row>
     <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -6293,24 +6314,22 @@
     </row>
     <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="D112" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -6331,22 +6350,26 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3"/>
+      <c r="E113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+      <c r="G113" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -6369,7 +6392,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>199</v>
@@ -6378,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -6405,7 +6428,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>201</v>
@@ -6414,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -6441,15 +6464,17 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -6473,26 +6498,20 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -6515,23 +6534,23 @@
     </row>
     <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -6555,23 +6574,23 @@
     </row>
     <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -6593,20 +6612,26 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="E120" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -6627,22 +6652,18 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6667,19 +6688,19 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -6705,19 +6726,19 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -6743,19 +6764,19 @@
     </row>
     <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6781,19 +6802,19 @@
     </row>
     <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>239</v>
+      <c r="D125" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -6819,19 +6840,19 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>217</v>
+      <c r="D126" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -6857,19 +6878,19 @@
     </row>
     <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -6895,19 +6916,19 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -6933,19 +6954,19 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -6974,16 +6995,20 @@
         <v>239</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="5"/>
+      <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -7005,19 +7030,19 @@
     </row>
     <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
+      <c r="H131" s="5"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -7039,7 +7064,7 @@
     </row>
     <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>244</v>
@@ -7048,7 +7073,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -7071,7 +7096,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>245</v>
       </c>
@@ -7081,7 +7106,7 @@
       <c r="C133" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -7105,7 +7130,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>247</v>
       </c>
@@ -7139,11 +7164,11 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C135" s="2" t="n">
@@ -7207,17 +7232,17 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D137" s="3"/>
+      <c r="D137" s="2"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -7241,11 +7266,11 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C138" s="2" t="n">
@@ -7275,7 +7300,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>257</v>
       </c>
@@ -7285,7 +7310,7 @@
       <c r="C139" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -7309,17 +7334,17 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D140" s="3"/>
+      <c r="D140" s="2"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -7345,10 +7370,10 @@
     </row>
     <row r="141" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
@@ -7379,10 +7404,10 @@
     </row>
     <row r="142" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
@@ -7413,10 +7438,10 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
@@ -7447,10 +7472,10 @@
     </row>
     <row r="144" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>2</v>
@@ -7479,12 +7504,12 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
@@ -7513,17 +7538,17 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -7547,18 +7572,18 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -7581,11 +7606,11 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C148" s="2" t="n">
@@ -7615,12 +7640,12 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
@@ -7649,12 +7674,12 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
@@ -7683,17 +7708,17 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C151" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -7719,16 +7744,16 @@
     </row>
     <row r="152" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C152" s="3" t="n">
+        <v>278</v>
+      </c>
+      <c r="C152" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="3"/>
+      <c r="E152" s="2"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -7753,12 +7778,12 @@
     </row>
     <row r="153" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C153" s="3" t="n">
+        <v>279</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D153" s="2"/>
@@ -7787,12 +7812,12 @@
     </row>
     <row r="154" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C154" s="3" t="n">
+        <v>282</v>
+      </c>
+      <c r="C154" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D154" s="2"/>
@@ -7819,19 +7844,17 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C155" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>287</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" s="2"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -7855,17 +7878,17 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C156" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D156" s="3"/>
+      <c r="D156" s="2"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -7891,10 +7914,10 @@
     </row>
     <row r="157" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C157" s="3" t="n">
         <v>2</v>
@@ -7923,21 +7946,19 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F158" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -7959,19 +7980,17 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>295</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D159" s="2"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -7995,26 +8014,22 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C160" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -8035,19 +8050,17 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>301</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -8071,19 +8084,17 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="C162" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D162" s="2"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -8112,16 +8123,16 @@
         <v>299</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C163" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F163" s="2"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -8143,26 +8154,22 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C164" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="3"/>
-      <c r="E164" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="D164" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8185,20 +8192,24 @@
     </row>
     <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C165" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8221,16 +8232,16 @@
     </row>
     <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C166" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -8257,10 +8268,10 @@
     </row>
     <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C167" s="3" t="n">
         <v>0</v>
@@ -8293,24 +8304,20 @@
     </row>
     <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="D168" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -8333,20 +8340,24 @@
     </row>
     <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -8372,13 +8383,13 @@
         <v>315</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -8408,13 +8419,13 @@
         <v>316</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -8441,24 +8452,20 @@
     </row>
     <row r="172" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D172" s="3"/>
-      <c r="E172" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G172" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -8481,20 +8488,24 @@
     </row>
     <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
@@ -8517,16 +8528,16 @@
     </row>
     <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C174" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -8553,16 +8564,16 @@
     </row>
     <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C175" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -8589,7 +8600,7 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>321</v>
@@ -8597,10 +8608,10 @@
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="D176" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -8625,20 +8636,24 @@
     </row>
     <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C177" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -8659,17 +8674,19 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D178" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -8693,17 +8710,19 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D179" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -8729,15 +8748,17 @@
     </row>
     <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D180" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -8763,16 +8784,18 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
+      <c r="E181" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -8797,16 +8820,18 @@
     </row>
     <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+      <c r="E182" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -8829,12 +8854,12 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>336</v>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="C183" s="3" t="n">
         <v>2</v>
@@ -8863,19 +8888,17 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>339</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D184" s="2"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -8899,15 +8922,15 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -8933,12 +8956,12 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C186" s="3" t="n">
         <v>2</v>
@@ -8967,19 +8990,17 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C187" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -9003,12 +9024,12 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>347</v>
+    <row r="188" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C188" s="3" t="n">
         <v>2</v>
@@ -9037,17 +9058,19 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D189" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -9071,23 +9094,19 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" s="3"/>
-      <c r="E190" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -9111,17 +9130,15 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -9145,17 +9162,19 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C192" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -9179,20 +9198,18 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C193" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D193" s="3"/>
-      <c r="E193" s="2" t="s">
-        <v>357</v>
-      </c>
+      <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -9217,10 +9234,10 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C194" s="3" t="n">
         <v>2</v>
@@ -9249,21 +9266,23 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C195" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C195" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -9287,15 +9306,17 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C196" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -9319,11 +9340,180 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
+      <c r="Y197" s="3"/>
+      <c r="Z197" s="3"/>
+    </row>
+    <row r="198" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
+      <c r="V198" s="3"/>
+      <c r="W198" s="3"/>
+      <c r="X198" s="3"/>
+      <c r="Y198" s="3"/>
+      <c r="Z198" s="3"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="3"/>
+      <c r="X199" s="3"/>
+      <c r="Y199" s="3"/>
+      <c r="Z199" s="3"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="3"/>
+      <c r="X200" s="3"/>
+      <c r="Y200" s="3"/>
+      <c r="Z200" s="3"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
+      <c r="Y201" s="3"/>
+      <c r="Z201" s="3"/>
+    </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="359">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -450,7 +450,34 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">写真立てだ
+      <t xml:space="preserve">写真立て...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">私とお父さんが映っている
+まだ家に帰って来てた頃のお父さん...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PictureFrame_reaction_020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">テープは見つけたけど...
+『低杭楽の作成方法』？
 </t>
     </r>
     <r>
@@ -461,39 +488,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">私とお父さんが映っている</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_PictureFrame_reaction_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まだ家に帰って来てた頃のお父さん...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_PictureFrame_reaction_020</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">...『低杭楽の作成方法』？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">字を間違えてるけど...慌ててたのかな</t>
+      <t xml:space="preserve">字を間違えてる？　大丈夫かな...</t>
     </r>
   </si>
   <si>
@@ -552,14 +547,9 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">『抵抗薬の作成方法』って名前だ！</t>
+      <t xml:space="preserve">『抵抗薬の作成方法』って名前だ！
+やっぱりあのテープ偽物だ！</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_GarbageCan_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やっぱりあのテープ偽物だ！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_GarbageCan_reaction_030</t>
@@ -781,40 +771,40 @@
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_010</t>
   </si>
   <si>
-    <t xml:space="preserve">溶液Aと溶液Bを</t>
+    <t xml:space="preserve">よくここまで辿り着いた</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_012</t>
   </si>
   <si>
-    <t xml:space="preserve">全て作業机の上の</t>
+    <t xml:space="preserve">実は抵抗薬は完成品がある</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_014</t>
   </si>
   <si>
-    <t xml:space="preserve">試薬瓶に入れろ</t>
+    <t xml:space="preserve">作業台の上のガラス瓶がそれだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_016</t>
   </si>
   <si>
-    <t xml:space="preserve">これで抵抗薬は完成だ</t>
+    <t xml:space="preserve">それをもって早く外へ出ろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape004_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドアは電子ロック式だ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_020</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_CasettePlayer_Tape004_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドアは電子ロック式だ</t>
+    <t xml:space="preserve">電気を落とせば部屋から出られる</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape004_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">部屋の電気を落として逃げろ</t>
   </si>
   <si>
     <t xml:space="preserve">俺は、先に行っている</t>
@@ -1974,13 +1964,35 @@
     <t xml:space="preserve">TXT_PipetteManual_content_10</t>
   </si>
   <si>
-    <t xml:space="preserve">『ピペットを使う際の注意』
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">『ピペットを使う際の注意』
 溶液に直接ピペットを
-触れさせないこと
+触れさせるのは厳禁です
 ピペットに取り付ける
 チップのサイズと吸い上げる
 溶液量を確認してから
-使用してください</t>
+使用してください
+ホルダーは
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">黄0.2(ｍL) 青1(mL) 緑10(ｍL)
+で使い分けてください</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_PipetteManual_content_20</t>
@@ -1988,7 +2000,7 @@
   <si>
     <t xml:space="preserve">チップが切れそうになったら
 金属棚からチップホルダーを
-補充してください
+補充して来来て下さい
 チップが切れた状態で
 放置しておかないこと！</t>
   </si>
@@ -2040,46 +2052,40 @@
     <t xml:space="preserve">TXT_FakeReagentBottle_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">作業机の試薬瓶、これかな</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_FakeReagentBottle_reaction_020_Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_FakeReagentBottle_reaction_020_No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テープの指示に従う</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_FakeReagentBottle_reaction_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テープを聞き直す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">抵抗薬ができた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag_FakeSolution_Obtained</t>
+    <t xml:space="preserve">作業机の試薬瓶、これかな
+最初から作ってあったなんて...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_FakeReagentBottle_reaction_030</t>
   </si>
   <si>
-    <t xml:space="preserve">これで抵抗薬の完成、かな...</t>
+    <t xml:space="preserve">抵抗薬は一つあれば十分だね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_FakeReagentBottle_reaction_040</t>
   </si>
   <si>
-    <t xml:space="preserve">この瓶も偽物かもしれない...！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_FakeReagentBottle_reaction_045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無視しておこう</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">この瓶も偽物かもしれない...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">無視しておこう！</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2381,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3502,7 +3508,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -3512,9 +3518,7 @@
       <c r="C33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3538,11 +3542,11 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="2" t="n">
@@ -3582,7 +3586,7 @@
       <c r="C35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3616,7 +3620,7 @@
       <c r="C36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3640,7 +3644,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3684,9 +3688,7 @@
       <c r="C38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3710,12 +3712,12 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2</v>
@@ -3746,15 +3748,17 @@
     </row>
     <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3778,17 +3782,19 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -3816,7 +3822,7 @@
       <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="2" t="n">
@@ -3848,7 +3854,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
@@ -3888,7 +3894,7 @@
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="2" t="n">
@@ -4032,7 +4038,7 @@
       <c r="A48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="2" t="n">
@@ -4068,7 +4074,7 @@
       <c r="A49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C49" s="2" t="n">
@@ -4146,9 +4152,7 @@
       <c r="C51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4176,7 +4180,7 @@
       <c r="A52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C52" s="2" t="n">
@@ -4212,13 +4216,15 @@
       <c r="A53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -4242,7 +4248,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>112</v>
       </c>
@@ -4318,7 +4324,7 @@
       <c r="A56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="2" t="n">
@@ -4350,11 +4356,11 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="2" t="n">
@@ -4386,7 +4392,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>120</v>
       </c>
@@ -4396,9 +4402,7 @@
       <c r="C58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4422,11 +4426,11 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="2" t="n">
@@ -4458,17 +4462,19 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4492,7 +4498,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>126</v>
       </c>
@@ -4528,7 +4534,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>128</v>
       </c>
@@ -4600,7 +4606,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
@@ -4636,19 +4642,17 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4672,18 +4676,18 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4708,9 +4712,9 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>139</v>
@@ -4718,7 +4722,9 @@
       <c r="C67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D67" s="3"/>
+      <c r="D67" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -4742,11 +4748,11 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C68" s="2" t="n">
@@ -4818,7 +4824,7 @@
       <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C70" s="2" t="n">
@@ -4890,15 +4896,13 @@
       <c r="A72" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4932,9 +4936,7 @@
       <c r="C73" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -4962,7 +4964,7 @@
       <c r="A74" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C74" s="2" t="n">
@@ -5026,7 +5028,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>156</v>
       </c>
@@ -5060,7 +5062,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>158</v>
       </c>
@@ -5070,7 +5072,7 @@
       <c r="C77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -5094,7 +5096,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>160</v>
       </c>
@@ -5128,7 +5130,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>162</v>
       </c>
@@ -5138,7 +5140,7 @@
       <c r="C79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5162,7 +5164,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>164</v>
       </c>
@@ -5172,7 +5174,7 @@
       <c r="C80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -5196,7 +5198,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>166</v>
       </c>
@@ -5206,7 +5208,7 @@
       <c r="C81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -5230,7 +5232,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
@@ -5240,7 +5242,7 @@
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5264,7 +5266,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>170</v>
       </c>
@@ -5274,7 +5276,7 @@
       <c r="C83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="2"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -5308,7 +5310,7 @@
       <c r="C84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5332,7 +5334,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>174</v>
       </c>
@@ -5376,7 +5378,7 @@
       <c r="C86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -5400,7 +5402,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>178</v>
       </c>
@@ -5478,7 +5480,7 @@
       <c r="C89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -5502,7 +5504,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>184</v>
       </c>
@@ -5512,7 +5514,7 @@
       <c r="C90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -5536,7 +5538,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>186</v>
       </c>
@@ -5546,7 +5548,7 @@
       <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5570,7 +5572,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>188</v>
       </c>
@@ -5580,7 +5582,7 @@
       <c r="C92" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5612,12 +5614,18 @@
         <v>191</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -5638,17 +5646,19 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5672,26 +5682,22 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -5714,7 +5720,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>199</v>
@@ -5750,17 +5756,15 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -5784,9 +5788,9 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>203</v>
@@ -5794,12 +5798,16 @@
       <c r="C98" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3"/>
+      <c r="E98" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="F98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -5820,20 +5828,26 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="E99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -5859,20 +5873,20 @@
         <v>200</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -5894,26 +5908,20 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -5939,21 +5947,19 @@
         <v>204</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="E102" s="5" t="s">
         <v>216</v>
       </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -5974,18 +5980,22 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="D103" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -6010,7 +6020,7 @@
     </row>
     <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>218</v>
@@ -6019,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -6048,19 +6058,19 @@
     </row>
     <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -6086,19 +6096,19 @@
     </row>
     <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -6124,7 +6134,7 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>218</v>
@@ -6133,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6162,19 +6172,19 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -6200,19 +6210,19 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -6238,7 +6248,7 @@
     </row>
     <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>218</v>
@@ -6247,10 +6257,10 @@
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -6276,22 +6286,24 @@
     </row>
     <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E111" s="5" t="s">
+      <c r="D111" s="3"/>
+      <c r="E111" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
+      <c r="F111" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -6312,22 +6324,20 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -6350,26 +6360,22 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>199</v>
@@ -6401,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -6428,17 +6434,15 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -6462,9 +6466,9 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>203</v>
@@ -6472,12 +6476,16 @@
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="3"/>
+      <c r="E116" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -6498,20 +6506,26 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+      <c r="E117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -6534,23 +6548,23 @@
     </row>
     <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -6572,26 +6586,20 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D119" s="3"/>
-      <c r="E119" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -6614,24 +6622,22 @@
     </row>
     <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="D120" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -6652,18 +6658,22 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="D121" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6688,7 +6698,7 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>218</v>
@@ -6697,10 +6707,10 @@
         <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -6726,19 +6736,19 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -6764,19 +6774,19 @@
     </row>
     <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>219</v>
+      <c r="D124" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6802,7 +6812,7 @@
     </row>
     <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>218</v>
@@ -6811,10 +6821,10 @@
         <v>0</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -6840,19 +6850,19 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>241</v>
+      <c r="D126" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -6878,19 +6888,19 @@
     </row>
     <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -6916,7 +6926,7 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>218</v>
@@ -6925,10 +6935,10 @@
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -6954,23 +6964,19 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+      <c r="H129" s="5"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -6992,20 +6998,16 @@
     </row>
     <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="2"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -7033,16 +7035,16 @@
         <v>241</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="4"/>
+      <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="5"/>
+      <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -7062,9 +7064,9 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>244</v>
@@ -7072,8 +7074,8 @@
       <c r="C132" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -7096,7 +7098,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>245</v>
       </c>
@@ -7106,7 +7108,7 @@
       <c r="C133" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="2"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -7134,7 +7136,7 @@
       <c r="A134" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C134" s="2" t="n">
@@ -7164,11 +7166,11 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C135" s="2" t="n">
@@ -7232,17 +7234,17 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -7266,11 +7268,11 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C138" s="2" t="n">
@@ -7300,7 +7302,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>257</v>
       </c>
@@ -7310,7 +7312,7 @@
       <c r="C139" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -7368,17 +7370,17 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -7404,10 +7406,10 @@
     </row>
     <row r="142" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
@@ -7436,9 +7438,9 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>258</v>
@@ -7446,7 +7448,7 @@
       <c r="C143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -7472,10 +7474,10 @@
     </row>
     <row r="144" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>2</v>
@@ -7504,17 +7506,17 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -7540,10 +7542,10 @@
     </row>
     <row r="146" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
@@ -7572,9 +7574,9 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>258</v>
@@ -7582,7 +7584,7 @@
       <c r="C147" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D147" s="3"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -7608,10 +7610,10 @@
     </row>
     <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
@@ -7640,17 +7642,17 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D149" s="2"/>
+      <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -7674,18 +7676,18 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D150" s="2"/>
-      <c r="E150" s="3"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -7708,17 +7710,17 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D151" s="3"/>
+      <c r="D151" s="2"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -7753,7 +7755,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -7776,7 +7778,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>279</v>
       </c>
@@ -7817,7 +7819,7 @@
       <c r="B154" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C154" s="2" t="n">
+      <c r="C154" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D154" s="2"/>
@@ -7844,14 +7846,14 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C155" s="2" t="n">
+      <c r="C155" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D155" s="2"/>
@@ -7956,7 +7958,9 @@
       <c r="C158" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -7980,7 +7984,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
         <v>291</v>
       </c>
@@ -7990,7 +7994,7 @@
       <c r="C159" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D159" s="2"/>
+      <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -8024,9 +8028,7 @@
       <c r="C160" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="D160" s="2"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -8050,7 +8052,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>295</v>
       </c>
@@ -8058,11 +8060,13 @@
         <v>296</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+      <c r="E161" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F161" s="2"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -8084,7 +8088,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>297</v>
       </c>
@@ -8092,9 +8096,11 @@
         <v>298</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D162" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -8132,8 +8138,12 @@
       <c r="E163" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F163" s="2"/>
-      <c r="G163" s="3"/>
+      <c r="F163" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -8154,18 +8164,18 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C164" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>303</v>
+      <c r="D164" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -8192,24 +8202,20 @@
     </row>
     <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C165" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8232,7 +8238,7 @@
     </row>
     <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>308</v>
@@ -8268,7 +8274,7 @@
     </row>
     <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>310</v>
@@ -8276,12 +8282,16 @@
       <c r="C167" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="3"/>
+      <c r="E167" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
+      <c r="F167" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -8304,16 +8314,16 @@
     </row>
     <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -8340,24 +8350,20 @@
     </row>
     <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -8380,16 +8386,16 @@
     </row>
     <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -8416,20 +8422,24 @@
     </row>
     <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="3"/>
+      <c r="E171" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+      <c r="G171" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -8452,16 +8462,16 @@
     </row>
     <row r="172" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -8488,24 +8498,20 @@
     </row>
     <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>324</v>
-      </c>
+      <c r="D173" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
@@ -8528,16 +8534,16 @@
     </row>
     <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C174" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -8564,20 +8570,24 @@
     </row>
     <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C175" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -8600,16 +8610,16 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -8636,24 +8646,20 @@
     </row>
     <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C177" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D177" s="3"/>
-      <c r="E177" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="D177" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -8676,16 +8682,16 @@
     </row>
     <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -8712,18 +8718,18 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -8748,18 +8754,18 @@
     </row>
     <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -8782,20 +8788,18 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181" s="3"/>
-      <c r="E181" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -8818,20 +8822,18 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -8854,7 +8856,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
         <v>333</v>
       </c>
@@ -8888,7 +8890,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
         <v>335</v>
       </c>
@@ -8898,7 +8900,7 @@
       <c r="C184" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D184" s="2"/>
+      <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -8957,10 +8959,10 @@
       <c r="Z185" s="3"/>
     </row>
     <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C186" s="3" t="n">
@@ -8990,7 +8992,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="159.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
         <v>341</v>
       </c>
@@ -8998,9 +9000,11 @@
         <v>342</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D187" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -9024,15 +9028,15 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="s">
+    <row r="188" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -9058,7 +9062,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>345</v>
       </c>
@@ -9066,11 +9070,9 @@
         <v>346</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>347</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -9094,7 +9096,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
         <v>347</v>
       </c>
@@ -9102,9 +9104,11 @@
         <v>348</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D190" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -9130,10 +9134,10 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C191" s="3" t="n">
         <v>2</v>
@@ -9162,19 +9166,17 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C192" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -9198,19 +9200,19 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C193" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
@@ -9234,10 +9236,10 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C194" s="3" t="n">
         <v>2</v>
@@ -9266,7 +9268,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
         <v>357</v>
       </c>
@@ -9274,15 +9276,11 @@
         <v>358</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -9304,216 +9302,12 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C196" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
-      <c r="O196" s="3"/>
-      <c r="P196" s="3"/>
-      <c r="Q196" s="3"/>
-      <c r="R196" s="3"/>
-      <c r="S196" s="3"/>
-      <c r="T196" s="3"/>
-      <c r="U196" s="3"/>
-      <c r="V196" s="3"/>
-      <c r="W196" s="3"/>
-      <c r="X196" s="3"/>
-      <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C197" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="3"/>
-      <c r="Q197" s="3"/>
-      <c r="R197" s="3"/>
-      <c r="S197" s="3"/>
-      <c r="T197" s="3"/>
-      <c r="U197" s="3"/>
-      <c r="V197" s="3"/>
-      <c r="W197" s="3"/>
-      <c r="X197" s="3"/>
-      <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
-    </row>
-    <row r="198" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C198" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
-      <c r="P198" s="3"/>
-      <c r="Q198" s="3"/>
-      <c r="R198" s="3"/>
-      <c r="S198" s="3"/>
-      <c r="T198" s="3"/>
-      <c r="U198" s="3"/>
-      <c r="V198" s="3"/>
-      <c r="W198" s="3"/>
-      <c r="X198" s="3"/>
-      <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C199" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
-      <c r="P199" s="3"/>
-      <c r="Q199" s="3"/>
-      <c r="R199" s="3"/>
-      <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
-      <c r="U199" s="3"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C200" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
-      <c r="U200" s="3"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
-      <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C201" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
-      <c r="Q201" s="3"/>
-      <c r="R201" s="3"/>
-      <c r="S201" s="3"/>
-      <c r="T201" s="3"/>
-      <c r="U201" s="3"/>
-      <c r="V201" s="3"/>
-      <c r="W201" s="3"/>
-      <c r="X201" s="3"/>
-      <c r="Y201" s="3"/>
-      <c r="Z201" s="3"/>
-    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="381">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -230,12 +230,6 @@
     <t xml:space="preserve">TXT_Memo_004_reaction_010</t>
   </si>
   <si>
-    <t xml:space="preserve">『抵抗薬の作成方法』...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_004_reaction_015</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -244,7 +238,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">実験手順がかかれているけど
+      <t xml:space="preserve">『抵抗薬の作成方法』のメモだ
 </t>
     </r>
     <r>
@@ -255,17 +249,35 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">今読んでもよく分からないや</t>
+      <t xml:space="preserve">実験手順がかかれているけど
+今読んでもよく分からないや</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_004_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『抵抗薬の作成方法」のメモだ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Memo_004_reaction_025</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">『抵抗薬の作成方法」のメモだ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これは後で読もう</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_005_content_010</t>
@@ -1675,7 +1687,7 @@
   </si>
   <si>
     <t xml:space="preserve">このピペットを使うには
-チップって言うの部品を探さなきゃ</t>
+チップって言う部品を探さなきゃ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_040</t>
@@ -1726,14 +1738,9 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">このピペット先っぽがないよね...</t>
+      <t xml:space="preserve">このピペット先っぽがないよね...
+使い方が知りたいな...</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使い方が知りたいな...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_060</t>
@@ -1762,67 +1769,155 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作業を開始しようかな？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">始める</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溶液Aの液量は...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1_C</t>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手順は大丈夫かな？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、始めるぞ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大丈夫</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TXT_Pipette_reaction_070_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">correct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">不安だな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Aの液量はそれぞれ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1_C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TXT_Pipette_reaction_070_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">correct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_1_A</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1(ml)</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1A_2</t>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1A_2</t>
   </si>
   <si>
     <t xml:space="preserve">3(ml)</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1B_2</t>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1B_2</t>
   </si>
   <si>
     <t xml:space="preserve">5(ml)</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1C_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">溶液Bも薄い順に...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1A_2_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1A_2_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1A_2_C</t>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1C_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Bは...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1A_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1A_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1A_2_C</t>
   </si>
   <si>
     <t xml:space="preserve">2(ml)</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_3_failed</t>
+    <t xml:space="preserve">Flag_PurpleClowdySolution_Obtained</t>
   </si>
   <si>
     <t xml:space="preserve">4(ml)</t>
@@ -1831,37 +1926,79 @@
     <t xml:space="preserve">6(ml)</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1B_2_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1B_2_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1B_2_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1C_2_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1C_2_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_1C_2_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_070_BlueSolAm_3_allcorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">抵抗薬ができた！</t>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1B_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1B_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1B_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1C_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1C_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_correct_1C_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_allcorrect</t>
   </si>
   <si>
     <t xml:space="preserve">Flag_PurpleSolution_Obtained</t>
   </si>
   <si>
-    <t xml:space="preserve">濁った溶液ができた...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag_PurpleClowdySolution_Obtained</t>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1A_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1B_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1C_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1A_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1A_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1A_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1B_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1B_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1B_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1C_2_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1C_2_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_failed_1C_2_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やった！　抵抗薬ができた！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">濁った液箍出来ちゃった...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_080</t>
@@ -1964,6 +2101,18 @@
     <t xml:space="preserve">TXT_PipetteManual_content_10</t>
   </si>
   <si>
+    <t xml:space="preserve">『ピペットを使う際の注意』
+溶液に直接ピペットを
+触れさせるのは厳禁です
+ピペットに取り付ける
+チップのサイズと吸い上げる
+溶液量を確認してから
+使用してください</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_PipetteManual_content_20</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1972,14 +2121,9 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">『ピペットを使う際の注意』
-溶液に直接ピペットを
-触れさせるのは厳禁です
-ピペットに取り付ける
-チップのサイズと吸い上げる
-溶液量を確認してから
-使用してください
-ホルダーは
+      <t xml:space="preserve">チップが切れそうになったら
+金属棚からチップホルダーを
+補充してください
 </t>
     </r>
     <r>
@@ -1990,19 +2134,23 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">黄0.2(ｍL) 青1(mL) 緑10(ｍL)
-で使い分けてください</t>
+      <t xml:space="preserve">ホルダーは
+黄：0.2ｍL用 青：1mL用 緑：10ｍL用
+で使い分けています
+</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_PipetteManual_content_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チップが切れそうになったら
-金属棚からチップホルダーを
-補充して来来て下さい
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 チップが切れた状態で
 放置しておかないこと！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TXT_ReagentBottle_reaction_010</t>
@@ -2037,13 +2185,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TXT_ReagentBottle_reaction_025</t>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_020_add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬作りを始めよう！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_ReagentBottle_reaction_030</t>
   </si>
   <si>
     <t xml:space="preserve">試薬瓶がもう持ってる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬は上手く作れているはず</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_FakeReagentBottle_reaction_010</t>
@@ -2385,10 +2542,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B220" activeCellId="0" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3026,7 +3183,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3036,9 +3193,7 @@
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3062,7 +3217,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3096,7 +3251,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -3104,7 +3259,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>50</v>
@@ -3132,15 +3287,15 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3166,19 +3321,17 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3202,17 +3355,17 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3236,12 +3389,12 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
@@ -3272,10 +3425,10 @@
     </row>
     <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -3304,12 +3457,12 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>59</v>
+    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
@@ -3340,10 +3493,10 @@
     </row>
     <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -3374,10 +3527,10 @@
     </row>
     <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -3408,10 +3561,10 @@
     </row>
     <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -3440,12 +3593,12 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2</v>
@@ -3474,12 +3627,12 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2</v>
@@ -3508,17 +3661,17 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3542,12 +3695,12 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2</v>
@@ -3576,17 +3729,17 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3612,10 +3765,10 @@
     </row>
     <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2</v>
@@ -3644,12 +3797,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2</v>
@@ -3688,7 +3841,9 @@
       <c r="C38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3712,17 +3867,19 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3748,16 +3905,16 @@
     </row>
     <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="C40" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3782,18 +3939,18 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3820,16 +3977,16 @@
     </row>
     <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3856,16 +4013,16 @@
     </row>
     <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3892,16 +4049,16 @@
     </row>
     <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3928,16 +4085,16 @@
     </row>
     <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3964,16 +4121,16 @@
     </row>
     <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="B46" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4000,16 +4157,16 @@
     </row>
     <row r="47" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="B47" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -4036,16 +4193,16 @@
     </row>
     <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -4072,17 +4229,15 @@
     </row>
     <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -4108,16 +4263,16 @@
     </row>
     <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C50" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -4144,15 +4299,17 @@
     </row>
     <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4176,18 +4333,18 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -4214,16 +4371,16 @@
     </row>
     <row r="53" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -4250,16 +4407,16 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="B54" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C54" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -4284,18 +4441,18 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="B55" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="C55" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -4320,19 +4477,17 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4356,18 +4511,18 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="B57" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C57" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4392,17 +4547,19 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4426,18 +4583,18 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -4462,18 +4619,18 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -4500,16 +4657,16 @@
     </row>
     <row r="61" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4534,18 +4691,18 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4570,19 +4727,17 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4606,18 +4761,18 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4642,17 +4797,19 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4676,18 +4833,18 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="B66" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4714,16 +4871,16 @@
     </row>
     <row r="67" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4750,16 +4907,16 @@
     </row>
     <row r="68" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="C68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4786,16 +4943,16 @@
     </row>
     <row r="69" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4822,17 +4979,15 @@
     </row>
     <row r="70" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="B70" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="C70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -4858,17 +5013,15 @@
     </row>
     <row r="71" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4894,10 +5047,10 @@
     </row>
     <row r="72" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="4" t="s">
         <v>149</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2</v>
@@ -4928,10 +5081,10 @@
     </row>
     <row r="73" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
@@ -4960,12 +5113,12 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2</v>
@@ -4994,17 +5147,17 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -5028,12 +5181,12 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2</v>
@@ -5062,17 +5215,17 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D77" s="3"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -5096,17 +5249,17 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -5130,17 +5283,17 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5164,17 +5317,17 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D80" s="3"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -5198,17 +5351,17 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="3"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -5234,15 +5387,15 @@
     </row>
     <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5266,12 +5419,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
@@ -5302,15 +5455,15 @@
     </row>
     <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D84" s="5"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5334,12 +5487,12 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
@@ -5370,10 +5523,10 @@
     </row>
     <row r="86" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
@@ -5404,15 +5557,15 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -5436,17 +5589,17 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5470,17 +5623,17 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D89" s="3"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -5504,17 +5657,17 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -5540,18 +5693,24 @@
     </row>
     <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -5572,17 +5731,19 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5606,26 +5767,22 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="D93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -5648,16 +5805,16 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -5684,17 +5841,15 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -5718,22 +5873,26 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -5754,20 +5913,26 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="E97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -5790,23 +5955,23 @@
     </row>
     <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -5828,26 +5993,20 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -5870,24 +6029,22 @@
     </row>
     <row r="100" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E100" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -5908,18 +6065,22 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="D101" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -5944,19 +6105,19 @@
     </row>
     <row r="102" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -5982,19 +6143,19 @@
     </row>
     <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -6020,19 +6181,19 @@
     </row>
     <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -6058,19 +6219,19 @@
     </row>
     <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -6096,19 +6257,19 @@
     </row>
     <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -6134,19 +6295,19 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6172,19 +6333,19 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -6210,22 +6371,24 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -6246,22 +6409,20 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>216</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -6284,26 +6445,22 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -6326,16 +6483,16 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -6362,17 +6519,15 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -6396,22 +6551,26 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="3"/>
+      <c r="E114" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
+      <c r="G114" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -6432,20 +6591,26 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
+      <c r="E115" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -6468,23 +6633,23 @@
     </row>
     <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -6506,26 +6671,20 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -6548,24 +6707,22 @@
     </row>
     <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="D118" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -6586,18 +6743,22 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="D119" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -6622,19 +6783,19 @@
     </row>
     <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -6660,19 +6821,19 @@
     </row>
     <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -6698,19 +6859,19 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>215</v>
+      <c r="D122" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -6736,19 +6897,19 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -6774,19 +6935,19 @@
     </row>
     <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>237</v>
+      <c r="D124" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6812,19 +6973,19 @@
     </row>
     <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -6850,19 +7011,19 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -6891,20 +7052,16 @@
         <v>234</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>216</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="4"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
+      <c r="H127" s="5"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -6926,20 +7083,16 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>216</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="2"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -6964,7 +7117,7 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>239</v>
@@ -6973,10 +7126,10 @@
         <v>2</v>
       </c>
       <c r="D129" s="3"/>
-      <c r="E129" s="4"/>
+      <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="5"/>
+      <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -6996,18 +7149,18 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D130" s="3"/>
-      <c r="E130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -7030,17 +7183,17 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D131" s="3"/>
+      <c r="D131" s="2"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -7066,10 +7219,10 @@
     </row>
     <row r="132" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B132" s="2" t="s">
         <v>244</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>2</v>
@@ -7098,12 +7251,12 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B133" s="2" t="s">
         <v>246</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>2</v>
@@ -7134,10 +7287,10 @@
     </row>
     <row r="134" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>2</v>
@@ -7166,17 +7319,17 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B135" s="4" t="s">
         <v>250</v>
       </c>
+      <c r="B135" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -7200,12 +7353,12 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B136" s="4" t="s">
         <v>252</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>2</v>
@@ -7234,17 +7387,17 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D137" s="3"/>
+      <c r="D137" s="2"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -7270,10 +7423,10 @@
     </row>
     <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -7302,17 +7455,17 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -7370,17 +7523,17 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D141" s="3"/>
+      <c r="D141" s="2"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -7409,7 +7562,7 @@
         <v>262</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
@@ -7438,17 +7591,17 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -7474,10 +7627,10 @@
     </row>
     <row r="144" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>2</v>
@@ -7506,17 +7659,17 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D145" s="3"/>
+      <c r="D145" s="2"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -7545,7 +7698,7 @@
         <v>267</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
@@ -7574,17 +7727,17 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C147" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D147" s="2"/>
+      <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -7608,18 +7761,18 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D148" s="2"/>
-      <c r="E148" s="3"/>
+      <c r="E148" s="2"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -7642,17 +7795,17 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B149" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="B149" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D149" s="3"/>
+      <c r="D149" s="2"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -7678,16 +7831,16 @@
     </row>
     <row r="150" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
+      <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -7710,12 +7863,12 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
@@ -7746,12 +7899,12 @@
     </row>
     <row r="152" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C152" s="2" t="n">
+        <v>279</v>
+      </c>
+      <c r="C152" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D152" s="2"/>
@@ -7778,14 +7931,14 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B153" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C153" s="2" t="n">
+      <c r="B153" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C153" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D153" s="2"/>
@@ -7814,10 +7967,10 @@
     </row>
     <row r="154" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C154" s="3" t="n">
         <v>2</v>
@@ -7848,10 +8001,10 @@
     </row>
     <row r="155" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C155" s="3" t="n">
         <v>2</v>
@@ -7880,12 +8033,12 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C156" s="3" t="n">
         <v>2</v>
@@ -7916,10 +8069,10 @@
     </row>
     <row r="157" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C157" s="3" t="n">
         <v>2</v>
@@ -7949,20 +8102,22 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
-        <v>289</v>
+      <c r="A158" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -7984,20 +8139,24 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>291</v>
+    <row r="159" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G159" s="4"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -8018,19 +8177,21 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>293</v>
+    <row r="160" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -8052,20 +8213,20 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>295</v>
+    <row r="161" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C161" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="2" t="s">
-        <v>297</v>
-      </c>
+      <c r="D161" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -8088,9 +8249,9 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>297</v>
+    <row r="162" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>298</v>
@@ -8098,11 +8259,11 @@
       <c r="C162" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
+      <c r="D162" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -8124,9 +8285,9 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>299</v>
+    <row r="163" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>300</v>
@@ -8134,16 +8295,12 @@
       <c r="C163" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="2" t="s">
+      <c r="D163" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -8164,21 +8321,19 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
+    <row r="164" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -8202,20 +8357,24 @@
     </row>
     <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C165" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="3"/>
+      <c r="E165" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8238,18 +8397,18 @@
     </row>
     <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C166" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E166" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="E166" s="2"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -8274,24 +8433,20 @@
     </row>
     <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C167" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F167" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -8314,18 +8469,18 @@
     </row>
     <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E168" s="3"/>
+        <v>314</v>
+      </c>
+      <c r="E168" s="2"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -8350,20 +8505,24 @@
     </row>
     <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -8386,18 +8545,20 @@
     </row>
     <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E170" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -8422,24 +8583,22 @@
     </row>
     <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D171" s="3"/>
+      <c r="D171" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E171" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G171" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -8465,15 +8624,17 @@
         <v>318</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E172" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -8498,20 +8659,24 @@
     </row>
     <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
@@ -8534,18 +8699,20 @@
     </row>
     <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C174" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E174" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -8570,24 +8737,22 @@
     </row>
     <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C175" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D175" s="3"/>
+      <c r="D175" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E175" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -8610,18 +8775,20 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E176" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -8646,20 +8813,24 @@
     </row>
     <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C177" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -8682,18 +8853,20 @@
     </row>
     <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E178" s="3"/>
+      <c r="D178" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -8718,17 +8891,19 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D179" s="3"/>
+      <c r="D179" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E179" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -8754,17 +8929,19 @@
     </row>
     <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D180" s="3"/>
+      <c r="D180" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E180" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -8788,20 +8965,26 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
+      <c r="E181" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -8827,13 +9010,15 @@
         <v>331</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E182" s="2"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -8856,18 +9041,20 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E183" s="2"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -8890,18 +9077,20 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C184" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C184" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -8924,20 +9113,26 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C185" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
+      <c r="G185" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -8958,18 +9153,22 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>340</v>
+    <row r="186" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -8992,20 +9191,22 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="159.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E187" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -9028,18 +9229,22 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -9062,20 +9267,26 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
+      <c r="E189" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -9096,20 +9307,22 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E190" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -9132,18 +9345,22 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -9166,18 +9383,22 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -9202,18 +9423,24 @@
     </row>
     <row r="193" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C193" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D193" s="3"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="3"/>
+      <c r="E193" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -9234,18 +9461,22 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -9268,18 +9499,22 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -9302,26 +9537,692 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
+      <c r="Y196" s="3"/>
+      <c r="Z196" s="3"/>
+    </row>
+    <row r="197" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
+      <c r="Y197" s="3"/>
+      <c r="Z197" s="3"/>
+    </row>
+    <row r="198" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="0"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
+      <c r="V198" s="3"/>
+      <c r="W198" s="3"/>
+      <c r="X198" s="3"/>
+      <c r="Y198" s="3"/>
+      <c r="Z198" s="3"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="3"/>
+      <c r="X199" s="3"/>
+      <c r="Y199" s="3"/>
+      <c r="Z199" s="3"/>
+    </row>
+    <row r="200" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="3"/>
+      <c r="X200" s="3"/>
+      <c r="Y200" s="3"/>
+      <c r="Z200" s="3"/>
+    </row>
+    <row r="201" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
+      <c r="Y201" s="3"/>
+      <c r="Z201" s="3"/>
+    </row>
+    <row r="202" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+      <c r="W202" s="3"/>
+      <c r="X202" s="3"/>
+      <c r="Y202" s="3"/>
+      <c r="Z202" s="3"/>
+    </row>
+    <row r="203" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
+      <c r="U203" s="3"/>
+      <c r="V203" s="3"/>
+      <c r="W203" s="3"/>
+      <c r="X203" s="3"/>
+      <c r="Y203" s="3"/>
+      <c r="Z203" s="3"/>
+    </row>
+    <row r="204" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="3"/>
+      <c r="X204" s="3"/>
+      <c r="Y204" s="3"/>
+      <c r="Z204" s="3"/>
+    </row>
+    <row r="205" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+      <c r="W205" s="3"/>
+      <c r="X205" s="3"/>
+      <c r="Y205" s="3"/>
+      <c r="Z205" s="3"/>
+    </row>
+    <row r="206" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3"/>
+      <c r="X206" s="3"/>
+      <c r="Y206" s="3"/>
+      <c r="Z206" s="3"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C207" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3"/>
+      <c r="X207" s="3"/>
+      <c r="Y207" s="3"/>
+      <c r="Z207" s="3"/>
+    </row>
+    <row r="208" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+      <c r="R208" s="3"/>
+      <c r="S208" s="3"/>
+      <c r="T208" s="3"/>
+      <c r="U208" s="3"/>
+      <c r="V208" s="3"/>
+      <c r="W208" s="3"/>
+      <c r="X208" s="3"/>
+      <c r="Y208" s="3"/>
+      <c r="Z208" s="3"/>
+    </row>
+    <row r="209" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C209" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+      <c r="W209" s="3"/>
+      <c r="X209" s="3"/>
+      <c r="Y209" s="3"/>
+      <c r="Z209" s="3"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="R210" s="3"/>
+      <c r="S210" s="3"/>
+      <c r="T210" s="3"/>
+      <c r="U210" s="3"/>
+      <c r="V210" s="3"/>
+      <c r="W210" s="3"/>
+      <c r="X210" s="3"/>
+      <c r="Y210" s="3"/>
+      <c r="Z210" s="3"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C211" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="3"/>
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+      <c r="W211" s="3"/>
+      <c r="X211" s="3"/>
+      <c r="Y211" s="3"/>
+      <c r="Z211" s="3"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C212" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+      <c r="P212" s="3"/>
+      <c r="Q212" s="3"/>
+      <c r="R212" s="3"/>
+      <c r="S212" s="3"/>
+      <c r="T212" s="3"/>
+      <c r="U212" s="3"/>
+      <c r="V212" s="3"/>
+      <c r="W212" s="3"/>
+      <c r="X212" s="3"/>
+      <c r="Y212" s="3"/>
+      <c r="Z212" s="3"/>
+    </row>
+    <row r="213" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C213" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3"/>
+      <c r="S213" s="3"/>
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3"/>
+      <c r="X213" s="3"/>
+      <c r="Y213" s="3"/>
+      <c r="Z213" s="3"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C214" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="3"/>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+      <c r="W214" s="3"/>
+      <c r="X214" s="3"/>
+      <c r="Y214" s="3"/>
+      <c r="Z214" s="3"/>
+    </row>
+    <row r="215" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C215" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
+      <c r="T215" s="3"/>
+      <c r="U215" s="3"/>
+      <c r="V215" s="3"/>
+      <c r="W215" s="3"/>
+      <c r="X215" s="3"/>
+      <c r="Y215" s="3"/>
+      <c r="Z215" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="395">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -567,11 +567,18 @@
     <t xml:space="preserve">TXT_GarbageCan_reaction_030</t>
   </si>
   <si>
-    <t xml:space="preserve">作った溶液、やっぱり間違えてるかも...
+    <t xml:space="preserve">この溶液A、やっぱり間違えてるかも...
 うん、捨ててやり直そう...！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_GarbageCan_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_GarbageCan_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この抵抗薬、やっぱり間違えてるかも...
+うん、捨ててやり直そう...！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_010</t>
@@ -1050,7 +1057,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">作った溶液、やっぱり不安だな...
+      <t xml:space="preserve">作った溶液A、やっぱり不安だな...
 </t>
     </r>
     <r>
@@ -1068,6 +1075,41 @@
     <t xml:space="preserve">TXT_Freezer_reaction_060</t>
   </si>
   <si>
+    <t xml:space="preserve">今は試験管セットはいらないな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うん、もう一度頑張ろう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットをもう一度だよね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作った溶液、少し濁ってるけど
+大丈夫かな...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットは遠心分離機に
+入ってるからいらないや</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_120</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1076,7 +1118,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">指示通りにできたみたいだし
+      <t xml:space="preserve">作った抵抗薬、やっぱり不安だな...
 </t>
     </r>
     <r>
@@ -1087,33 +1129,8 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">今は試験管セットはいらないな</t>
+      <t xml:space="preserve">うん、もう一度やり直してみよう</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、もう一度！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">試験管セットをもう一度だよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よし、もう一度だ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Freezer_reaction_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">試験管セットは遠心分離機に
-入ってるからいらないや</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_DimpleKey_reaction_010</t>
@@ -1417,27 +1434,7 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_090</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">指示通りにできたみたいだし
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">今は使う必要は無いかな</t>
-    </r>
+    <t xml:space="preserve">今は使う必要は無いかな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_100</t>
@@ -1648,6 +1645,12 @@
   </si>
   <si>
     <t xml:space="preserve">この手順は間違いようがないね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">溶液Aの作り直しに集中しよう</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_010</t>
@@ -1917,7 +1920,7 @@
     <t xml:space="preserve">2(ml)</t>
   </si>
   <si>
-    <t xml:space="preserve">Flag_PurpleClowdySolution_Obtained</t>
+    <t xml:space="preserve">Flag_PurpleCloudySolution_Obtained</t>
   </si>
   <si>
     <t xml:space="preserve">4(ml)</t>
@@ -1998,13 +2001,13 @@
     <t xml:space="preserve">やった！　抵抗薬ができた！</t>
   </si>
   <si>
-    <t xml:space="preserve">濁った液箍出来ちゃった...</t>
+    <t xml:space="preserve">濁った溶液ができちゃった...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_080</t>
   </si>
   <si>
-    <t xml:space="preserve">指示通りできてるはずだよね...</t>
+    <t xml:space="preserve">指示通りできてるはずだよね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_090</t>
@@ -2031,6 +2034,12 @@
       </rPr>
       <t xml:space="preserve">大丈夫だよね...</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必要な溶液を揃えないと</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_TipHolder_reaction_010</t>
@@ -2201,6 +2210,21 @@
   </si>
   <si>
     <t xml:space="preserve">抵抗薬は上手く作れているはず</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この抵抗薬、やっぱり間違えてるかも... うん、捨ててやり直そう...！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今度こそ、抵抗薬を完成させるぞ！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_FakeReagentBottle_reaction_010</t>
@@ -2542,10 +2566,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z215"/>
+  <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B220" activeCellId="0" sqref="B220"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D83" activeCellId="0" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3835,15 +3859,13 @@
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3867,7 +3889,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3903,11 +3925,11 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="2" t="n">
@@ -3943,7 +3965,7 @@
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="2" t="n">
@@ -4123,7 +4145,7 @@
       <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="2" t="n">
@@ -4237,7 +4259,9 @@
       <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -4265,15 +4289,13 @@
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -4333,7 +4355,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>109</v>
       </c>
@@ -4369,7 +4391,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>111</v>
       </c>
@@ -4405,11 +4427,11 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="2" t="n">
@@ -4441,7 +4463,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>115</v>
       </c>
@@ -4477,7 +4499,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>117</v>
       </c>
@@ -4487,7 +4509,9 @@
       <c r="C56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4511,19 +4535,17 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -4583,7 +4605,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>123</v>
       </c>
@@ -4691,7 +4713,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
@@ -4737,7 +4759,9 @@
       <c r="C63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="3"/>
+      <c r="D63" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4761,7 +4785,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>133</v>
       </c>
@@ -4771,9 +4795,7 @@
       <c r="C64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -4797,7 +4819,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>135</v>
       </c>
@@ -4837,7 +4859,7 @@
       <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C66" s="2" t="n">
@@ -4873,7 +4895,7 @@
       <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C67" s="2" t="n">
@@ -4981,13 +5003,15 @@
       <c r="A70" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -5015,7 +5039,7 @@
       <c r="A71" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C71" s="2" t="n">
@@ -5113,7 +5137,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>153</v>
       </c>
@@ -5147,7 +5171,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -5157,7 +5181,7 @@
       <c r="C75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="3"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -5181,7 +5205,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>157</v>
       </c>
@@ -5191,7 +5215,7 @@
       <c r="C76" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -5249,17 +5273,17 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -5287,7 +5311,7 @@
       <c r="A79" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C79" s="2" t="n">
@@ -5317,7 +5341,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>165</v>
       </c>
@@ -5327,7 +5351,7 @@
       <c r="C80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -5351,12 +5375,12 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
@@ -5385,17 +5409,17 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5419,12 +5443,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
@@ -5453,12 +5477,12 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
@@ -5487,12 +5511,12 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
@@ -5523,15 +5547,15 @@
     </row>
     <row r="86" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -5555,17 +5579,17 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="3"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -5589,17 +5613,17 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="3"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5623,12 +5647,12 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
@@ -5659,10 +5683,10 @@
     </row>
     <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
@@ -5691,26 +5715,20 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -5733,17 +5751,15 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5767,19 +5783,17 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D93" s="2"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -5803,19 +5817,17 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5839,20 +5851,26 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="E95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -5873,26 +5891,22 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="D96" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -5913,26 +5927,22 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="D97" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -5953,26 +5963,22 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="D98" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -5995,10 +6001,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0</v>
@@ -6029,22 +6035,24 @@
     </row>
     <row r="100" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -6067,22 +6075,24 @@
     </row>
     <row r="101" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -6105,22 +6115,24 @@
     </row>
     <row r="102" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="F102" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="G102" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -6141,22 +6153,18 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -6181,19 +6189,19 @@
     </row>
     <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -6219,19 +6227,19 @@
     </row>
     <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -6257,19 +6265,19 @@
     </row>
     <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -6295,19 +6303,19 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6333,19 +6341,19 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -6371,24 +6379,22 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="E109" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -6409,20 +6415,22 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E110" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -6445,20 +6453,22 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E111" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -6481,20 +6491,22 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E112" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -6517,20 +6529,26 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+      <c r="E113" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -6551,26 +6569,22 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -6591,26 +6605,22 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="D115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -6631,26 +6641,22 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="D116" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -6673,10 +6679,10 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
@@ -6707,22 +6713,24 @@
     </row>
     <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -6745,22 +6753,24 @@
     </row>
     <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -6783,22 +6793,24 @@
     </row>
     <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -6819,22 +6831,18 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -6859,19 +6867,19 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>234</v>
+      <c r="D122" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -6897,19 +6905,19 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -6935,19 +6943,19 @@
     </row>
     <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6973,19 +6981,19 @@
     </row>
     <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -7011,19 +7019,19 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>212</v>
+      <c r="D126" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -7052,16 +7060,20 @@
         <v>234</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="5"/>
+      <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -7083,16 +7095,20 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -7117,16 +7133,20 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -7149,18 +7169,22 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -7183,21 +7207,21 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
+      <c r="H131" s="5"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -7217,18 +7241,18 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>245</v>
+        <v>217</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -7251,17 +7275,17 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -7285,12 +7309,12 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>2</v>
@@ -7319,17 +7343,17 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -7353,12 +7377,12 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>2</v>
@@ -7387,12 +7411,12 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
@@ -7421,12 +7445,12 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -7457,10 +7481,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
@@ -7491,10 +7515,10 @@
     </row>
     <row r="140" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>2</v>
@@ -7525,10 +7549,10 @@
     </row>
     <row r="141" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
@@ -7559,10 +7583,10 @@
     </row>
     <row r="142" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
@@ -7596,7 +7620,7 @@
         <v>263</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
@@ -7659,12 +7683,12 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
@@ -7698,7 +7722,7 @@
         <v>267</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
@@ -7732,7 +7756,7 @@
         <v>268</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>2</v>
@@ -7761,18 +7785,18 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -7795,12 +7819,12 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
@@ -7829,12 +7853,12 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
@@ -7863,17 +7887,17 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -7899,16 +7923,16 @@
     </row>
     <row r="152" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C152" s="3" t="n">
+        <v>276</v>
+      </c>
+      <c r="C152" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="3"/>
+      <c r="E152" s="2"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -7933,12 +7957,12 @@
     </row>
     <row r="153" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C153" s="3" t="n">
+        <v>277</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D153" s="2"/>
@@ -7967,12 +7991,12 @@
     </row>
     <row r="154" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" s="3" t="n">
+        <v>280</v>
+      </c>
+      <c r="C154" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D154" s="2"/>
@@ -7999,14 +8023,14 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C155" s="3" t="n">
+        <v>281</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D155" s="2"/>
@@ -8033,14 +8057,14 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C156" s="3" t="n">
+        <v>283</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C156" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D156" s="2"/>
@@ -8069,10 +8093,10 @@
     </row>
     <row r="157" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C157" s="3" t="n">
         <v>2</v>
@@ -8102,22 +8126,18 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="s">
-        <v>290</v>
+      <c r="A158" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>293</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -8140,23 +8160,19 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="s">
-        <v>294</v>
+      <c r="A159" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G159" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -8177,21 +8193,19 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="s">
+    <row r="160" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C160" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -8213,21 +8227,19 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="s">
+    <row r="161" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -8249,21 +8261,19 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="s">
+    <row r="162" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C162" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -8285,21 +8295,23 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C163" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -8321,20 +8333,24 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C164" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="3"/>
+      <c r="F164" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G164" s="4"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8355,26 +8371,22 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
+    <row r="165" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C165" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G165" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -8395,21 +8407,21 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>308</v>
+    <row r="166" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C166" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>310</v>
+      <c r="D166" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="E166" s="2"/>
-      <c r="F166" s="3"/>
+      <c r="F166" s="2"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -8431,21 +8443,21 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>306</v>
+    <row r="167" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C167" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="F167" s="3"/>
+      <c r="F167" s="2"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -8467,21 +8479,21 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
+    <row r="168" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>314</v>
+      <c r="D168" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="E168" s="2"/>
-      <c r="F168" s="3"/>
+      <c r="F168" s="2"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -8503,26 +8515,20 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
+    <row r="169" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C169" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>318</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -8545,22 +8551,24 @@
     </row>
     <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="D170" s="3"/>
       <c r="E170" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -8583,20 +8591,18 @@
     </row>
     <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>320</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="E171" s="2"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -8621,20 +8627,18 @@
     </row>
     <row r="172" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>320</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="E172" s="2"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -8659,24 +8663,20 @@
     </row>
     <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="D173" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
@@ -8699,22 +8699,24 @@
     </row>
     <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C174" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="D174" s="3"/>
       <c r="E174" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
+        <v>323</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
@@ -8737,19 +8739,19 @@
     </row>
     <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C175" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -8775,19 +8777,19 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -8813,24 +8815,22 @@
     </row>
     <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C177" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D177" s="3"/>
+      <c r="D177" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="E177" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F177" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
@@ -8853,22 +8853,24 @@
     </row>
     <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E178" s="5" t="s">
+      <c r="D178" s="3"/>
+      <c r="E178" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="F178" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -8891,19 +8893,19 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -8929,19 +8931,19 @@
     </row>
     <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -8967,24 +8969,22 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D181" s="3"/>
+      <c r="D181" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="E181" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>333</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -9005,22 +9005,26 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C182" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="3"/>
+      <c r="E182" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E182" s="2"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
+      <c r="G182" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
@@ -9041,20 +9045,22 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C183" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E183" s="2"/>
+      <c r="D183" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -9077,20 +9083,22 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C184" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E184" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -9113,26 +9121,24 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C185" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D185" s="3"/>
+      <c r="D185" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="E185" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>339</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -9153,24 +9159,26 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C186" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="D186" s="3"/>
       <c r="E186" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -9196,17 +9204,15 @@
         <v>338</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C187" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>320</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="E187" s="2"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -9234,17 +9240,15 @@
         <v>339</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C188" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>320</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="E188" s="2"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -9267,26 +9271,22 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C189" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D189" s="3"/>
-      <c r="E189" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="D189" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -9307,24 +9307,26 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C190" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="D190" s="3"/>
       <c r="E190" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -9345,21 +9347,21 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C191" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -9383,21 +9385,21 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C192" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -9421,26 +9423,24 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C193" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D193" s="3"/>
+      <c r="D193" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="E193" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -9463,22 +9463,24 @@
     </row>
     <row r="194" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C194" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="D194" s="3"/>
       <c r="E194" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+        <v>347</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -9501,19 +9503,19 @@
     </row>
     <row r="195" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C195" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -9539,19 +9541,19 @@
     </row>
     <row r="196" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C196" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -9577,16 +9579,20 @@
     </row>
     <row r="197" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C197" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -9611,18 +9617,24 @@
     </row>
     <row r="198" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D198" s="3"/>
-      <c r="E198" s="0"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+      <c r="E198" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
@@ -9643,18 +9655,22 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -9677,18 +9693,22 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -9716,13 +9736,17 @@
         <v>352</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -9747,16 +9771,16 @@
     </row>
     <row r="202" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C202" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
+      <c r="E202" s="2"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -9781,16 +9805,15 @@
     </row>
     <row r="203" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C203" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -9813,12 +9836,12 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>359</v>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="C204" s="3" t="n">
         <v>2</v>
@@ -9847,19 +9870,17 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>362</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D205" s="2"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -9883,17 +9904,17 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D206" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D206" s="2"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -9917,12 +9938,12 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C207" s="3" t="n">
         <v>2</v>
@@ -9951,17 +9972,17 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="s">
-        <v>366</v>
+    <row r="208" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C208" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D208" s="2"/>
+      <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -9985,17 +10006,17 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="s">
-        <v>368</v>
+    <row r="209" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C209" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D209" s="2"/>
+      <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -10019,12 +10040,12 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>371</v>
+    <row r="210" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C210" s="3" t="n">
         <v>2</v>
@@ -10053,17 +10074,19 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D211" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -10087,15 +10110,15 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -10121,19 +10144,19 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C213" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D213" s="3"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
@@ -10155,17 +10178,17 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
-        <v>377</v>
+    <row r="214" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C214" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D214" s="3"/>
+      <c r="D214" s="2"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -10190,11 +10213,11 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
-        <v>379</v>
+      <c r="A215" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C215" s="3" t="n">
         <v>2</v>
@@ -10223,6 +10246,315 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C216" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="3"/>
+      <c r="T216" s="3"/>
+      <c r="U216" s="3"/>
+      <c r="V216" s="3"/>
+      <c r="W216" s="3"/>
+      <c r="X216" s="3"/>
+      <c r="Y216" s="3"/>
+      <c r="Z216" s="3"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C217" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="3"/>
+      <c r="T217" s="3"/>
+      <c r="U217" s="3"/>
+      <c r="V217" s="3"/>
+      <c r="W217" s="3"/>
+      <c r="X217" s="3"/>
+      <c r="Y217" s="3"/>
+      <c r="Z217" s="3"/>
+    </row>
+    <row r="218" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C218" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
+      <c r="W218" s="3"/>
+      <c r="X218" s="3"/>
+      <c r="Y218" s="3"/>
+      <c r="Z218" s="3"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C219" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
+      <c r="W219" s="3"/>
+      <c r="X219" s="3"/>
+      <c r="Y219" s="3"/>
+      <c r="Z219" s="3"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C220" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D220" s="0"/>
+      <c r="E220" s="0"/>
+      <c r="F220" s="0"/>
+      <c r="G220" s="0"/>
+      <c r="H220" s="0"/>
+      <c r="I220" s="0"/>
+      <c r="J220" s="0"/>
+      <c r="K220" s="0"/>
+      <c r="L220" s="0"/>
+      <c r="M220" s="0"/>
+      <c r="N220" s="0"/>
+      <c r="O220" s="0"/>
+      <c r="P220" s="0"/>
+      <c r="Q220" s="0"/>
+      <c r="R220" s="0"/>
+      <c r="S220" s="0"/>
+      <c r="T220" s="0"/>
+      <c r="U220" s="0"/>
+      <c r="V220" s="0"/>
+      <c r="W220" s="0"/>
+      <c r="X220" s="0"/>
+      <c r="Y220" s="0"/>
+      <c r="Z220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C221" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+      <c r="U221" s="3"/>
+      <c r="V221" s="3"/>
+      <c r="W221" s="3"/>
+      <c r="X221" s="3"/>
+      <c r="Y221" s="3"/>
+      <c r="Z221" s="3"/>
+    </row>
+    <row r="222" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C222" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="3"/>
+      <c r="T222" s="3"/>
+      <c r="U222" s="3"/>
+      <c r="V222" s="3"/>
+      <c r="W222" s="3"/>
+      <c r="X222" s="3"/>
+      <c r="Y222" s="3"/>
+      <c r="Z222" s="3"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C223" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3"/>
+      <c r="S223" s="3"/>
+      <c r="T223" s="3"/>
+      <c r="U223" s="3"/>
+      <c r="V223" s="3"/>
+      <c r="W223" s="3"/>
+      <c r="X223" s="3"/>
+      <c r="Y223" s="3"/>
+      <c r="Z223" s="3"/>
+    </row>
+    <row r="224" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C224" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3"/>
+      <c r="S224" s="3"/>
+      <c r="T224" s="3"/>
+      <c r="U224" s="3"/>
+      <c r="V224" s="3"/>
+      <c r="W224" s="3"/>
+      <c r="X224" s="3"/>
+      <c r="Y224" s="3"/>
+      <c r="Z224" s="3"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="406">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -126,6 +126,13 @@
     <t xml:space="preserve">TXT_Memo_002_content_010</t>
   </si>
   <si>
+    <t xml:space="preserve">
+『溶液Aの作成方法』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_002_content_015</t>
+  </si>
+  <si>
     <t xml:space="preserve">『溶液Aの作成方法』はここに記す
 助かりたければ急いで作業しろよ
 『抵抗薬』を作るには二つの溶液を
@@ -152,6 +159,13 @@
     <t xml:space="preserve">TXT_Memo_003_content_010</t>
   </si>
   <si>
+    <t xml:space="preserve">
+『溶液Bの作成方法』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_003_content_015</t>
+  </si>
+  <si>
     <t xml:space="preserve">『溶液Bの作成方法』はここに記す
 やることは溶液Aと同じだ
 『試験管セット』を
@@ -171,33 +185,14 @@
     <t xml:space="preserve">TXT_Memo_003_reaction_010</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">何かの実験手順が書かれたメモだ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">『溶液Bの作成方法』って書いてある</t>
-    </r>
+    <t xml:space="preserve">『溶液Bの作成方法』って書いてある
+実験手順のメモかな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_003_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">『溶液Bの作成方法」のメモだ！</t>
+    <t xml:space="preserve">『溶液Bの作成方法』って書いてある</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_003_reaction_025</t>
@@ -208,6 +203,13 @@
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_004_content_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+『抵抗薬の作成方法』</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Memo_004_content_015</t>
   </si>
   <si>
     <t xml:space="preserve">『抵抗薬の作成方法』はここに記す
@@ -335,12 +337,6 @@
 抵抗薬を作ってからじゃなきゃ...！</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_CasettePlayer_stop_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一度止めよう</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_CassetteTape_002_reaction_010</t>
   </si>
   <si>
@@ -571,14 +567,17 @@
 うん、捨ててやり直そう...！</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_GarbageCan_reaction_040</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXT_GarbageCan_reaction_050</t>
   </si>
   <si>
     <t xml:space="preserve">この抵抗薬、やっぱり間違えてるかも...
 うん、捨ててやり直そう...！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CasettePlayer_stop_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一度止めよう</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape002_010</t>
@@ -966,7 +965,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">カセットプレイヤーだ
+      <t xml:space="preserve">このカセットプレイヤー
 </t>
     </r>
     <r>
@@ -1096,15 +1095,15 @@
     <t xml:space="preserve">TXT_Freezer_reaction_100</t>
   </si>
   <si>
-    <t xml:space="preserve">作った溶液、少し濁ってるけど
+    <t xml:space="preserve">作った溶液A、少し濁ってるけど
 大丈夫かな...</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_110</t>
   </si>
   <si>
-    <t xml:space="preserve">試験管セットは遠心分離機に
-入ってるからいらないや</t>
+    <t xml:space="preserve">試験管セットは
+遠心分離機にいれたよね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_120</t>
@@ -1147,6 +1146,13 @@
 テープの通りなら、必要なものだよね</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_DimpleKey_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイル、試薬瓶、薬さじにバール...
+ぐちゃぐちゃだ</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_010</t>
   </si>
   <si>
@@ -1522,7 +1528,13 @@
     <t xml:space="preserve">TXT_Rotor_4h_reaction_040</t>
   </si>
   <si>
-    <t xml:space="preserve">溶液Aは作れたし、今は不要かな</t>
+    <t xml:space="preserve">溶液Aは作れたし、もう不要かな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_4h_reaction_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬は作れたし、もう不要かな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Rotor_6h_reaction_010</t>
@@ -1560,6 +1572,12 @@
     <t xml:space="preserve">TXT_Rotor_6h_reaction_040</t>
   </si>
   <si>
+    <t xml:space="preserve">溶液Aは作れたし、今は不要かな</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Rotor_6h_reaction_050</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Rotor_8h_reaction_010</t>
   </si>
   <si>
@@ -1595,6 +1613,9 @@
     <t xml:space="preserve">TXT_Rotor_8h_reaction_040</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Rotor_8h_reaction_050</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_SmallCentrifuge_reaction_010</t>
   </si>
   <si>
@@ -1656,67 +1677,22 @@
     <t xml:space="preserve">TXT_Pipette_reaction_010</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">これピペットだよね、学校で使ったけど
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">先っぽがない...？</t>
-    </r>
+    <t xml:space="preserve">ピペットだ
+理科の授業で使った事があるな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_020</t>
   </si>
   <si>
-    <t xml:space="preserve">このピペット、先っぽがない...
-このままじゃ使えないよね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Pipette_reaction_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このピペットを使うには
-チップって言う部品を探さなきゃ</t>
+    <t xml:space="preserve">試薬瓶があれば抵抗薬を作れる！
+探してこなきゃ！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_040</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">よしチップは見つけた
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">後は試薬瓶だ</t>
-    </r>
+    <t xml:space="preserve">必要なものは揃ったね
+手順が確認出来たら始めよう</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_050</t>
@@ -1918,6 +1894,9 @@
   </si>
   <si>
     <t xml:space="preserve">2(ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_070_allfailed</t>
   </si>
   <si>
     <t xml:space="preserve">Flag_PurpleCloudySolution_Obtained</t>
@@ -2276,7 +2255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2305,6 +2284,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2352,7 +2338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2375,6 +2361,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2566,10 +2556,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z235"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D83" activeCellId="0" sqref="D83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F210" activeCellId="0" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2859,7 +2849,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2895,7 +2885,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2905,7 +2895,9 @@
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2929,17 +2921,17 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2963,19 +2955,17 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2999,7 +2989,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -3009,7 +2999,9 @@
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3033,17 +3025,19 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3067,7 +3061,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -3075,11 +3069,9 @@
         <v>37</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3107,13 +3099,13 @@
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3137,7 +3129,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -3145,7 +3137,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>42</v>
@@ -3173,7 +3165,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -3181,7 +3173,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3207,7 +3199,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3215,9 +3207,11 @@
         <v>45</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3241,7 +3235,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3249,9 +3243,11 @@
         <v>47</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3275,7 +3271,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -3285,9 +3281,7 @@
       <c r="C21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3311,7 +3305,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -3319,9 +3313,9 @@
         <v>51</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3345,7 +3339,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -3379,7 +3373,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -3387,9 +3381,11 @@
         <v>55</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3413,17 +3409,17 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="25" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3617,7 +3613,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -3651,7 +3647,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -3685,7 +3681,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -3695,7 +3691,7 @@
       <c r="C33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3719,7 +3715,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -3753,7 +3749,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
@@ -3763,7 +3759,7 @@
       <c r="C35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3821,12 +3817,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2</v>
@@ -3857,10 +3853,10 @@
     </row>
     <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="4" t="s">
         <v>82</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2</v>
@@ -3891,17 +3887,15 @@
     </row>
     <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="B39" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3926,18 +3920,16 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>85</v>
+      <c r="A40" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3963,16 +3955,16 @@
     </row>
     <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C41" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3997,18 +3989,18 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4035,16 +4027,16 @@
     </row>
     <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="B43" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="C43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4071,16 +4063,16 @@
     </row>
     <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4107,16 +4099,16 @@
     </row>
     <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4143,16 +4135,16 @@
     </row>
     <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4179,16 +4171,16 @@
     </row>
     <row r="47" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -4215,16 +4207,16 @@
     </row>
     <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C48" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -4251,16 +4243,16 @@
     </row>
     <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -4287,15 +4279,17 @@
     </row>
     <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -4321,16 +4315,16 @@
     </row>
     <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="B51" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C51" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -4357,17 +4351,15 @@
     </row>
     <row r="52" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="B52" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="C52" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4391,18 +4383,18 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -4429,16 +4421,16 @@
     </row>
     <row r="54" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -4465,16 +4457,16 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C55" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -4499,18 +4491,18 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C56" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -4535,17 +4527,19 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -4569,18 +4563,18 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="B58" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="C58" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -4605,19 +4599,17 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="B59" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="C59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4641,18 +4633,18 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -4677,18 +4669,18 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4715,16 +4707,16 @@
     </row>
     <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4749,18 +4741,18 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -4785,17 +4777,19 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="3"/>
+      <c r="D64" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -4819,18 +4813,18 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -4855,19 +4849,17 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4891,18 +4883,18 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C67" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4929,16 +4921,16 @@
     </row>
     <row r="68" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4965,16 +4957,16 @@
     </row>
     <row r="69" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="B69" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="C69" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -5001,16 +4993,16 @@
     </row>
     <row r="70" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -5037,15 +5029,17 @@
     </row>
     <row r="71" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="B71" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="C71" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -5071,15 +5065,17 @@
     </row>
     <row r="72" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -5105,10 +5101,10 @@
     </row>
     <row r="73" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" s="2" t="s">
         <v>152</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
@@ -5139,10 +5135,10 @@
     </row>
     <row r="74" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2</v>
@@ -5171,12 +5167,12 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2</v>
@@ -5205,17 +5201,17 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D76" s="3"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -5239,12 +5235,12 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2</v>
@@ -5273,17 +5269,17 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B78" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="B78" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="C78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -5307,17 +5303,17 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="C79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5341,17 +5337,17 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="B80" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="C80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D80" s="3"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -5375,17 +5371,17 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -5409,17 +5405,17 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5443,12 +5439,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
@@ -5479,10 +5475,10 @@
     </row>
     <row r="84" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
@@ -5513,10 +5509,10 @@
     </row>
     <row r="85" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
@@ -5545,17 +5541,17 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -5579,12 +5575,12 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
@@ -5615,15 +5611,15 @@
     </row>
     <row r="88" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5647,12 +5643,12 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
@@ -5683,10 +5679,10 @@
     </row>
     <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
@@ -5715,17 +5711,17 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5751,15 +5747,15 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -5785,10 +5781,10 @@
     </row>
     <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>2</v>
@@ -5817,17 +5813,17 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5851,26 +5847,20 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -5891,19 +5881,17 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5927,19 +5915,17 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -5963,22 +5949,26 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3"/>
+      <c r="E98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="G98" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -6009,7 +5999,9 @@
       <c r="C99" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D99" s="3"/>
+      <c r="D99" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -6033,26 +6025,22 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -6073,26 +6061,22 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -6113,26 +6097,20 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -6153,20 +6131,26 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
+      <c r="E103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -6189,22 +6173,24 @@
     </row>
     <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3"/>
+      <c r="E104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="G104" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -6227,22 +6213,24 @@
     </row>
     <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -6263,22 +6251,18 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -6303,19 +6287,19 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6341,19 +6325,19 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -6379,19 +6363,19 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -6417,19 +6401,19 @@
     </row>
     <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -6455,19 +6439,19 @@
     </row>
     <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -6493,19 +6477,19 @@
     </row>
     <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -6531,24 +6515,22 @@
     </row>
     <row r="113" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="E113" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -6569,20 +6551,22 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -6605,20 +6589,22 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E115" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -6641,22 +6627,26 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -6679,7 +6669,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>204</v>
@@ -6687,7 +6677,9 @@
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D117" s="3"/>
+      <c r="D117" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -6711,26 +6703,22 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="D118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -6751,26 +6739,22 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -6791,26 +6775,20 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -6831,20 +6809,26 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
+      <c r="E121" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -6867,22 +6851,24 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -6905,22 +6891,24 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -6941,22 +6929,18 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -6981,19 +6965,19 @@
     </row>
     <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -7019,19 +7003,19 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>239</v>
+      <c r="D126" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -7057,19 +7041,19 @@
     </row>
     <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -7095,19 +7079,19 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -7133,19 +7117,19 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>217</v>
+      <c r="D129" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -7171,19 +7155,19 @@
     </row>
     <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -7209,19 +7193,23 @@
     </row>
     <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="5"/>
+      <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -7243,16 +7231,20 @@
     </row>
     <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -7277,16 +7269,20 @@
     </row>
     <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -7309,21 +7305,21 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="4" t="s">
         <v>246</v>
       </c>
+      <c r="B134" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="C134" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
+      <c r="H134" s="5"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -7343,18 +7339,18 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -7377,17 +7373,17 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B136" s="4" t="s">
         <v>250</v>
       </c>
+      <c r="B136" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="C136" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D136" s="2"/>
+      <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -7411,12 +7407,12 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
@@ -7445,12 +7441,12 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B138" s="4" t="s">
         <v>254</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -7479,17 +7475,17 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B139" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="B139" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -7513,12 +7509,12 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B140" s="2" t="s">
         <v>258</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>2</v>
@@ -7547,12 +7543,12 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B141" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
@@ -7581,17 +7577,17 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -7615,17 +7611,17 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -7651,10 +7647,10 @@
     </row>
     <row r="144" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>2</v>
@@ -7685,10 +7681,10 @@
     </row>
     <row r="145" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
@@ -7719,10 +7715,10 @@
     </row>
     <row r="146" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
@@ -7753,10 +7749,10 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>2</v>
@@ -7787,10 +7783,10 @@
     </row>
     <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
@@ -7819,12 +7815,12 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
@@ -7855,10 +7851,10 @@
     </row>
     <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
@@ -7887,17 +7883,17 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D151" s="3"/>
+      <c r="D151" s="2"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -7921,18 +7917,18 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -7955,12 +7951,12 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>2</v>
@@ -7989,12 +7985,12 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>2</v>
@@ -8023,12 +8019,12 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>2</v>
@@ -8057,12 +8053,12 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B156" s="4" t="s">
         <v>284</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>2</v>
@@ -8091,17 +8087,17 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C157" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D157" s="2"/>
+      <c r="C157" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -8132,11 +8128,11 @@
       <c r="B158" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C158" s="3" t="n">
+      <c r="C158" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D158" s="2"/>
-      <c r="E158" s="3"/>
+      <c r="E158" s="2"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -8163,10 +8159,10 @@
       <c r="A159" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C159" s="3" t="n">
+      <c r="C159" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D159" s="2"/>
@@ -8200,7 +8196,7 @@
       <c r="B160" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="C160" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D160" s="2"/>
@@ -8227,14 +8223,14 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C161" s="3" t="n">
+      <c r="C161" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D161" s="2"/>
@@ -8261,14 +8257,14 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="C162" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D162" s="2"/>
@@ -8299,19 +8295,15 @@
       <c r="A163" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="6" t="s">
         <v>298</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -8335,22 +8327,18 @@
     </row>
     <row r="164" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G164" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -8371,21 +8359,19 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -8407,21 +8393,19 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="s">
-        <v>300</v>
+    <row r="166" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -8443,21 +8427,19 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="s">
-        <v>303</v>
+    <row r="167" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -8479,21 +8461,23 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -8515,20 +8499,24 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D169" s="5"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="3"/>
+      <c r="E169" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G169" s="4"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -8549,26 +8537,22 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>306</v>
+    <row r="170" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="D170" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -8589,21 +8573,21 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>315</v>
+    <row r="171" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>317</v>
+      <c r="D171" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="E171" s="2"/>
-      <c r="F171" s="3"/>
+      <c r="F171" s="2"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -8625,12 +8609,12 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
+    <row r="172" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
@@ -8639,7 +8623,7 @@
         <v>319</v>
       </c>
       <c r="E172" s="2"/>
-      <c r="F172" s="3"/>
+      <c r="F172" s="2"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -8661,21 +8645,21 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
+    <row r="173" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
         <v>314</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>321</v>
+      <c r="D173" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="E173" s="2"/>
-      <c r="F173" s="3"/>
+      <c r="F173" s="2"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -8697,26 +8681,20 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>317</v>
+    <row r="174" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" s="3"/>
-      <c r="E174" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
@@ -8739,22 +8717,24 @@
     </row>
     <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C175" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="D175" s="3"/>
       <c r="E175" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
+        <v>322</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -8777,20 +8757,18 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E176" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="E176" s="2"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -8815,20 +8793,18 @@
     </row>
     <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C177" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>327</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E177" s="2"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -8853,24 +8829,20 @@
     </row>
     <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D178" s="3"/>
-      <c r="E178" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G178" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -8893,22 +8865,24 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="D179" s="3"/>
       <c r="E179" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
@@ -8931,19 +8905,19 @@
     </row>
     <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -8969,19 +8943,19 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -9007,24 +8981,22 @@
     </row>
     <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C182" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D182" s="3"/>
+      <c r="D182" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="E182" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>335</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
@@ -9047,22 +9019,24 @@
     </row>
     <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C183" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -9085,19 +9059,19 @@
     </row>
     <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C184" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -9123,19 +9097,19 @@
     </row>
     <row r="185" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C185" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -9161,24 +9135,22 @@
     </row>
     <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="C186" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D186" s="3"/>
+      <c r="D186" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="E186" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>340</v>
-      </c>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -9199,22 +9171,26 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C187" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E187" s="2"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -9235,20 +9211,22 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C188" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E188" s="2"/>
+      <c r="D188" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -9271,20 +9249,22 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C189" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E189" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -9307,26 +9287,24 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C190" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D190" s="3"/>
+      <c r="D190" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="E190" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>346</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -9347,24 +9325,26 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C191" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="D191" s="3"/>
       <c r="E191" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+        <v>349</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -9387,20 +9367,18 @@
     </row>
     <row r="192" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C192" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>327</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="E192" s="2"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -9425,20 +9403,18 @@
     </row>
     <row r="193" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C193" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>327</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E193" s="2"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -9461,26 +9437,22 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C194" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>349</v>
-      </c>
+      <c r="D194" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -9501,24 +9473,26 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C195" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="D195" s="3"/>
       <c r="E195" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
+        <v>355</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
@@ -9539,21 +9513,21 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C196" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -9577,21 +9551,21 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C197" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -9615,26 +9589,24 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C198" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D198" s="3"/>
+      <c r="D198" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="E198" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>352</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
@@ -9657,22 +9629,24 @@
     </row>
     <row r="199" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C199" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="D199" s="3"/>
       <c r="E199" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
@@ -9695,19 +9669,19 @@
     </row>
     <row r="200" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C200" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -9733,19 +9707,19 @@
     </row>
     <row r="201" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C201" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -9771,16 +9745,20 @@
     </row>
     <row r="202" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D202" s="3"/>
-      <c r="E202" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -9805,17 +9783,24 @@
     </row>
     <row r="203" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
+      <c r="E203" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
@@ -9836,18 +9821,22 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -9870,18 +9859,22 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -9904,18 +9897,22 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -9940,16 +9937,16 @@
     </row>
     <row r="207" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C207" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
+      <c r="E207" s="2"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -9974,16 +9971,15 @@
     </row>
     <row r="208" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C208" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -10006,12 +10002,12 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C209" s="3" t="n">
         <v>2</v>
@@ -10040,17 +10036,17 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B210" s="4" t="s">
+    <row r="210" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="B210" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="C210" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D210" s="3"/>
+      <c r="D210" s="2"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -10074,19 +10070,17 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>371</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D211" s="2"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -10110,15 +10104,15 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -10144,12 +10138,12 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C213" s="3" t="n">
         <v>2</v>
@@ -10178,17 +10172,17 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="4" t="s">
-        <v>375</v>
+    <row r="214" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C214" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D214" s="2"/>
+      <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -10212,17 +10206,17 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B215" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="B215" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="C215" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D215" s="2"/>
+      <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
@@ -10246,17 +10240,19 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D216" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -10280,15 +10276,15 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -10314,12 +10310,12 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C218" s="3" t="n">
         <v>2</v>
@@ -10348,17 +10344,17 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>360</v>
+    <row r="219" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="C219" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D219" s="3"/>
+      <c r="D219" s="2"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -10382,46 +10378,46 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>387</v>
+    <row r="220" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C220" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D220" s="0"/>
-      <c r="E220" s="0"/>
-      <c r="F220" s="0"/>
-      <c r="G220" s="0"/>
-      <c r="H220" s="0"/>
-      <c r="I220" s="0"/>
-      <c r="J220" s="0"/>
-      <c r="K220" s="0"/>
-      <c r="L220" s="0"/>
-      <c r="M220" s="0"/>
-      <c r="N220" s="0"/>
-      <c r="O220" s="0"/>
-      <c r="P220" s="0"/>
-      <c r="Q220" s="0"/>
-      <c r="R220" s="0"/>
-      <c r="S220" s="0"/>
-      <c r="T220" s="0"/>
-      <c r="U220" s="0"/>
-      <c r="V220" s="0"/>
-      <c r="W220" s="0"/>
-      <c r="X220" s="0"/>
-      <c r="Y220" s="0"/>
-      <c r="Z220" s="0"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
+      <c r="U220" s="3"/>
+      <c r="V220" s="3"/>
+      <c r="W220" s="3"/>
+      <c r="X220" s="3"/>
+      <c r="Y220" s="3"/>
+      <c r="Z220" s="3"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C221" s="3" t="n">
         <v>2</v>
@@ -10450,19 +10446,19 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C222" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D222" s="3"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -10484,12 +10480,12 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C223" s="3" t="n">
         <v>2</v>
@@ -10518,17 +10514,17 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C224" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D224" s="2"/>
+      <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -10552,9 +10548,157 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="5"/>
-    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C225" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C226" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
+      <c r="U226" s="3"/>
+      <c r="V226" s="3"/>
+      <c r="W226" s="3"/>
+      <c r="X226" s="3"/>
+      <c r="Y226" s="3"/>
+      <c r="Z226" s="3"/>
+    </row>
+    <row r="227" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C227" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
+      <c r="U227" s="3"/>
+      <c r="V227" s="3"/>
+      <c r="W227" s="3"/>
+      <c r="X227" s="3"/>
+      <c r="Y227" s="3"/>
+      <c r="Z227" s="3"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C228" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+      <c r="X228" s="3"/>
+      <c r="Y228" s="3"/>
+      <c r="Z228" s="3"/>
+    </row>
+    <row r="229" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C229" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
+      <c r="U229" s="3"/>
+      <c r="V229" s="3"/>
+      <c r="W229" s="3"/>
+      <c r="X229" s="3"/>
+      <c r="Y229" s="3"/>
+      <c r="Z229" s="3"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="5"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="412">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -900,6 +900,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">TXT_CasettePlayer_Tape005_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">各溶液は十分な量があるはずだ</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape005_014</t>
   </si>
   <si>
@@ -2139,6 +2145,25 @@
 チップが切れた状態で
 放置しておかないこと！</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CentrifugeManual_content_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『遠心分離機の設定』
+遠心分離機を使うには
+遠心力と分離時間を設定する
+必要があります
+遠心力の単位は『g』
+時間の単位は『秒』で設定します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_CentrifugeManual_content_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分離したい溶液の本数と
+溶液の性質に合わせて
+遠心力と時間を設定してください</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_ReagentBottle_reaction_010</t>
@@ -2558,8 +2583,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F210" activeCellId="0" sqref="F210"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4959,7 +4984,7 @@
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C69" s="2" t="n">
@@ -4995,7 +5020,7 @@
       <c r="A70" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C70" s="2" t="n">
@@ -5103,13 +5128,15 @@
       <c r="A73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -5137,7 +5164,7 @@
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C74" s="2" t="n">
@@ -5235,7 +5262,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>160</v>
       </c>
@@ -5269,7 +5296,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
@@ -5279,7 +5306,7 @@
       <c r="C78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -5303,7 +5330,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -5313,7 +5340,7 @@
       <c r="C79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5337,11 +5364,11 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C80" s="2" t="n">
@@ -5371,7 +5398,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
@@ -5381,7 +5408,7 @@
       <c r="C81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="3"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -5409,7 +5436,7 @@
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C82" s="2" t="n">
@@ -5439,17 +5466,17 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -5473,12 +5500,12 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
@@ -5577,10 +5604,10 @@
     </row>
     <row r="87" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
@@ -5609,7 +5636,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>179</v>
       </c>
@@ -5619,7 +5646,7 @@
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="5"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -5653,7 +5680,7 @@
       <c r="C89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -5745,7 +5772,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>187</v>
       </c>
@@ -5779,7 +5806,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>189</v>
       </c>
@@ -5813,7 +5840,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>191</v>
       </c>
@@ -5823,7 +5850,7 @@
       <c r="C94" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D94" s="3"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -5881,7 +5908,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>195</v>
       </c>
@@ -5891,7 +5918,7 @@
       <c r="C96" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5957,18 +5984,12 @@
         <v>200</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -5989,22 +6010,26 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3"/>
+      <c r="E99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -6027,7 +6052,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>206</v>
@@ -6063,7 +6088,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>208</v>
@@ -6099,15 +6124,17 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D102" s="3"/>
+      <c r="D102" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -6131,26 +6158,20 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -6176,20 +6197,20 @@
         <v>207</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -6216,20 +6237,20 @@
         <v>209</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -6251,20 +6272,26 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+      <c r="E106" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -6285,22 +6312,18 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>225</v>
-      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -6325,19 +6348,19 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -6363,19 +6386,19 @@
     </row>
     <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -6401,19 +6424,19 @@
     </row>
     <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -6439,19 +6462,19 @@
     </row>
     <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -6477,19 +6500,19 @@
     </row>
     <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -6515,19 +6538,19 @@
     </row>
     <row r="113" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -6553,19 +6576,19 @@
     </row>
     <row r="114" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6591,19 +6614,19 @@
     </row>
     <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -6629,24 +6652,22 @@
     </row>
     <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="D116" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -6667,22 +6688,26 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3"/>
+      <c r="E117" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+      <c r="G117" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -6705,7 +6730,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>206</v>
@@ -6714,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -6741,7 +6766,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>208</v>
@@ -6750,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -6777,15 +6802,17 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D120" s="3"/>
+      <c r="D120" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -6809,26 +6836,20 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="3"/>
-      <c r="E121" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -6851,23 +6872,23 @@
     </row>
     <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -6891,23 +6912,23 @@
     </row>
     <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -6929,20 +6950,26 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+      <c r="E124" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -6963,22 +6990,18 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>225</v>
-      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -7003,19 +7026,19 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -7041,19 +7064,19 @@
     </row>
     <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -7079,19 +7102,19 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -7117,19 +7140,19 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>246</v>
+      <c r="D129" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -7155,19 +7178,19 @@
     </row>
     <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>224</v>
+      <c r="D130" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -7193,19 +7216,19 @@
     </row>
     <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -7231,19 +7254,19 @@
     </row>
     <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -7269,19 +7292,19 @@
     </row>
     <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -7310,16 +7333,20 @@
         <v>246</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="5"/>
+      <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
@@ -7341,19 +7368,19 @@
     </row>
     <row r="135" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D135" s="3"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="4"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
+      <c r="H135" s="5"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -7375,7 +7402,7 @@
     </row>
     <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>251</v>
@@ -7384,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="E136" s="2"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -7407,17 +7434,17 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -7445,7 +7472,7 @@
       <c r="A138" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C138" s="2" t="n">
@@ -7475,11 +7502,11 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C139" s="2" t="n">
@@ -7577,17 +7604,17 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D142" s="3"/>
+      <c r="D142" s="2"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -7611,7 +7638,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>264</v>
       </c>
@@ -7621,7 +7648,7 @@
       <c r="C143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -7747,17 +7774,17 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D147" s="3"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -7781,17 +7808,17 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D148" s="2"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -7820,7 +7847,7 @@
         <v>275</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
@@ -7851,10 +7878,10 @@
     </row>
     <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
@@ -7888,7 +7915,7 @@
         <v>278</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
@@ -7917,17 +7944,17 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D152" s="3"/>
+      <c r="D152" s="2"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -7951,17 +7978,17 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D153" s="2"/>
+      <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -7985,12 +8012,12 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>2</v>
@@ -8019,12 +8046,12 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>2</v>
@@ -8055,10 +8082,10 @@
     </row>
     <row r="156" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>2</v>
@@ -8087,17 +8114,17 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D157" s="3"/>
+      <c r="D157" s="2"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -8121,7 +8148,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>287</v>
       </c>
@@ -8131,8 +8158,8 @@
       <c r="C158" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -8159,14 +8186,14 @@
       <c r="A159" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="2" t="s">
         <v>290</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="3"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -8193,7 +8220,7 @@
       <c r="A160" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C160" s="2" t="n">
@@ -8223,11 +8250,11 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C161" s="2" t="n">
@@ -8291,14 +8318,14 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="s">
+    <row r="163" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C163" s="3" t="n">
+      <c r="C163" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D163" s="2"/>
@@ -8329,7 +8356,7 @@
       <c r="A164" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="6" t="s">
         <v>300</v>
       </c>
       <c r="C164" s="3" t="n">
@@ -8393,11 +8420,11 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
+    <row r="166" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C166" s="3" t="n">
@@ -8427,7 +8454,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
         <v>305</v>
       </c>
@@ -8462,22 +8489,18 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>310</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -8501,22 +8524,22 @@
     </row>
     <row r="169" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G169" s="4"/>
+        <v>312</v>
+      </c>
+      <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
@@ -8537,22 +8560,24 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="5"/>
+      <c r="E170" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F170" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="3"/>
+      <c r="G170" s="4"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -8575,7 +8600,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>317</v>
@@ -8583,7 +8608,7 @@
       <c r="C171" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="2" t="s">
         <v>318</v>
       </c>
       <c r="E171" s="2"/>
@@ -8611,16 +8636,16 @@
     </row>
     <row r="172" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>319</v>
+      <c r="D172" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -8647,7 +8672,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>317</v>
@@ -8655,8 +8680,8 @@
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>318</v>
+      <c r="D173" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -8683,15 +8708,17 @@
     </row>
     <row r="174" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C174" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D174" s="5"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="3"/>
@@ -8715,26 +8742,20 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>316</v>
+    <row r="175" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" s="3"/>
-      <c r="E175" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>324</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
@@ -8757,20 +8778,24 @@
     </row>
     <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E176" s="2"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -8793,7 +8818,7 @@
     </row>
     <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>328</v>
@@ -8829,7 +8854,7 @@
     </row>
     <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>330</v>
@@ -8865,7 +8890,7 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>332</v>
@@ -8873,16 +8898,12 @@
       <c r="C179" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D179" s="3"/>
-      <c r="E179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
@@ -8905,22 +8926,24 @@
     </row>
     <row r="180" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="3"/>
+      <c r="E180" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -8943,19 +8966,19 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -8981,19 +9004,19 @@
     </row>
     <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C182" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -9019,24 +9042,22 @@
     </row>
     <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C183" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D183" s="3"/>
+      <c r="D183" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E183" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>343</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -9059,22 +9080,24 @@
     </row>
     <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C184" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="D184" s="3"/>
       <c r="E184" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
@@ -9097,19 +9120,19 @@
     </row>
     <row r="185" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C185" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -9135,19 +9158,19 @@
     </row>
     <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C186" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -9173,24 +9196,22 @@
     </row>
     <row r="187" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C187" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D187" s="3"/>
+      <c r="D187" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E187" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>346</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -9213,22 +9234,24 @@
     </row>
     <row r="188" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C188" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="3"/>
+      <c r="E188" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="G188" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
@@ -9251,19 +9274,19 @@
     </row>
     <row r="189" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C189" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>338</v>
+      <c r="D189" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -9289,19 +9312,19 @@
     </row>
     <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C190" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -9327,24 +9350,22 @@
     </row>
     <row r="191" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C191" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D191" s="3"/>
+      <c r="D191" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E191" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>351</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -9365,22 +9386,26 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C192" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="3"/>
+      <c r="E192" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E192" s="2"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
+      <c r="G192" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
@@ -9403,7 +9428,7 @@
     </row>
     <row r="193" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>328</v>
@@ -9412,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="3"/>
@@ -9439,7 +9464,7 @@
     </row>
     <row r="194" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>330</v>
@@ -9448,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="3"/>
@@ -9475,7 +9500,7 @@
     </row>
     <row r="195" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>332</v>
@@ -9483,16 +9508,12 @@
       <c r="C195" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G195" s="2" t="s">
-        <v>357</v>
-      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
@@ -9515,22 +9536,24 @@
     </row>
     <row r="196" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C196" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="D196" s="3"/>
       <c r="E196" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+        <v>357</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
@@ -9553,19 +9576,19 @@
     </row>
     <row r="197" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C197" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -9591,19 +9614,19 @@
     </row>
     <row r="198" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C198" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -9627,26 +9650,24 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C199" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D199" s="3"/>
+      <c r="D199" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E199" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
@@ -9669,22 +9690,24 @@
     </row>
     <row r="200" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C200" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="D200" s="3"/>
       <c r="E200" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
+        <v>360</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
@@ -9707,19 +9730,19 @@
     </row>
     <row r="201" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C201" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -9745,19 +9768,19 @@
     </row>
     <row r="202" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C202" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -9783,24 +9806,22 @@
     </row>
     <row r="203" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C203" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D203" s="3"/>
+      <c r="D203" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E203" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>363</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
@@ -9823,22 +9844,24 @@
     </row>
     <row r="204" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C204" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="D204" s="3"/>
       <c r="E204" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
+        <v>363</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
@@ -9861,19 +9884,19 @@
     </row>
     <row r="205" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C205" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -9899,19 +9922,19 @@
     </row>
     <row r="206" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C206" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -9937,16 +9960,20 @@
     </row>
     <row r="207" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -9971,15 +9998,16 @@
     </row>
     <row r="208" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C208" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D208" s="3"/>
+      <c r="E208" s="2"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -10002,9 +10030,9 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>367</v>
@@ -10013,7 +10041,6 @@
         <v>2</v>
       </c>
       <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -10036,7 +10063,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
         <v>368</v>
       </c>
@@ -10046,7 +10073,7 @@
       <c r="C210" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D210" s="2"/>
+      <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -10104,7 +10131,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
         <v>372</v>
       </c>
@@ -10114,7 +10141,7 @@
       <c r="C212" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D212" s="3"/>
+      <c r="D212" s="2"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -10207,10 +10234,10 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="2" t="s">
         <v>379</v>
       </c>
       <c r="C215" s="3" t="n">
@@ -10240,19 +10267,17 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
+    <row r="216" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>382</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -10276,7 +10301,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
         <v>382</v>
       </c>
@@ -10286,7 +10311,9 @@
       <c r="C217" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D217" s="3"/>
+      <c r="D217" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -10310,7 +10337,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
         <v>384</v>
       </c>
@@ -10318,7 +10345,7 @@
         <v>385</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -10344,17 +10371,19 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="4" t="s">
+    <row r="219" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>387</v>
       </c>
       <c r="C219" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D219" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -10378,17 +10407,17 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="4" t="s">
+    <row r="220" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>389</v>
       </c>
       <c r="C220" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D220" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -10446,8 +10475,8 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
+    <row r="222" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -10456,7 +10485,7 @@
       <c r="C222" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D222" s="3"/>
+      <c r="D222" s="2"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -10480,8 +10509,8 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
+    <row r="223" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="4" t="s">
         <v>394</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -10490,7 +10519,7 @@
       <c r="C223" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D223" s="3"/>
+      <c r="D223" s="2"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
@@ -10514,12 +10543,12 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>371</v>
+      <c r="B224" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="C224" s="3" t="n">
         <v>2</v>
@@ -10550,21 +10579,44 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B225" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="B225" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="C225" s="3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
+      <c r="U225" s="3"/>
+      <c r="V225" s="3"/>
+      <c r="W225" s="3"/>
+      <c r="X225" s="3"/>
+      <c r="Y225" s="3"/>
+      <c r="Z225" s="3"/>
+    </row>
+    <row r="226" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C226" s="3" t="n">
         <v>2</v>
@@ -10593,19 +10645,19 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="C227" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D227" s="3"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -10629,49 +10681,26 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B228" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="B228" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="C228" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-      <c r="Q228" s="3"/>
-      <c r="R228" s="3"/>
-      <c r="S228" s="3"/>
-      <c r="T228" s="3"/>
-      <c r="U228" s="3"/>
-      <c r="V228" s="3"/>
-      <c r="W228" s="3"/>
-      <c r="X228" s="3"/>
-      <c r="Y228" s="3"/>
-      <c r="Z228" s="3"/>
-    </row>
-    <row r="229" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C229" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D229" s="2"/>
+      <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -10695,9 +10724,112 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="5"/>
-    </row>
+    <row r="230" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C230" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3"/>
+      <c r="S230" s="3"/>
+      <c r="T230" s="3"/>
+      <c r="U230" s="3"/>
+      <c r="V230" s="3"/>
+      <c r="W230" s="3"/>
+      <c r="X230" s="3"/>
+      <c r="Y230" s="3"/>
+      <c r="Z230" s="3"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C231" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+      <c r="R231" s="3"/>
+      <c r="S231" s="3"/>
+      <c r="T231" s="3"/>
+      <c r="U231" s="3"/>
+      <c r="V231" s="3"/>
+      <c r="W231" s="3"/>
+      <c r="X231" s="3"/>
+      <c r="Y231" s="3"/>
+      <c r="Z231" s="3"/>
+    </row>
+    <row r="232" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C232" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="3"/>
+      <c r="S232" s="3"/>
+      <c r="T232" s="3"/>
+      <c r="U232" s="3"/>
+      <c r="V232" s="3"/>
+      <c r="W232" s="3"/>
+      <c r="X232" s="3"/>
+      <c r="Y232" s="3"/>
+      <c r="Z232" s="3"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="5"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="428">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2147,7 +2147,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TXT_CentrifugeManual_content_10</t>
+    <t xml:space="preserve">TXT_CentrifugeManual_reaction_10</t>
   </si>
   <si>
     <t xml:space="preserve">『遠心分離機の設定』
@@ -2158,7 +2158,7 @@
 時間の単位は『秒』で設定します</t>
   </si>
   <si>
-    <t xml:space="preserve">TXT_CentrifugeManual_content_20</t>
+    <t xml:space="preserve">TXT_CentrifugeManual_reaction_20</t>
   </si>
   <si>
     <t xml:space="preserve">分離したい溶液の本数と
@@ -2271,6 +2271,55 @@
       </rPr>
       <t xml:space="preserve">無視しておこう！</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あれ、鍵が掛かってる
+閉めた覚えはないんだけどな...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう実験には用はないよね...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_020_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_020_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外に出よう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_020_dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_030_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_030_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameOver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_030_dummy</t>
   </si>
 </sst>
 </file>
@@ -2583,8 +2632,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D221" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E246" activeCellId="0" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2593,7 +2642,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="22.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="1" width="8.62"/>
   </cols>
   <sheetData>
@@ -10372,7 +10423,7 @@
       <c r="Z218" s="3"/>
     </row>
     <row r="219" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="4" t="s">
         <v>386</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -10381,7 +10432,7 @@
       <c r="C219" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="4" t="s">
         <v>388</v>
       </c>
       <c r="E219" s="3"/>
@@ -10408,7 +10459,7 @@
       <c r="Z219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -10826,6 +10877,123 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
+    <row r="233" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="5"/>
     </row>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="432">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">のぼらない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Dynamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電気はつけておこう</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_001_content_010</t>
@@ -556,8 +562,14 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">『抵抗薬の作成方法』って名前だ！
-やっぱりあのテープ偽物だ！</t>
+あのテープも抵抗薬も偽物だ！</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_GarbageCan_reaction_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机の抵抗薬は無視しなきゃ！</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_GarbageCan_reaction_030</t>
@@ -1188,12 +1200,6 @@
     <t xml:space="preserve">TXT_Centrifuge_reaction_010_add</t>
   </si>
   <si>
-    <t xml:space="preserve">『遠心分離機』はこれだね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT_Centrifuge_reaction_020</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1202,8 +1208,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">『遠心分離機』はこれだね
-</t>
+      <t xml:space="preserve">機械に『遠心分離機』って</t>
     </r>
     <r>
       <rPr>
@@ -1213,8 +1218,15 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ローターって言う部品も探さないと</t>
+      <t xml:space="preserve">書いてある</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機械に『遠心分離機』って書いてある
+ローターって言う部品も探さないと</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Centrifuge_reaction_030</t>
@@ -2207,7 +2219,7 @@
     <t xml:space="preserve">TXT_ReagentBottle_reaction_030</t>
   </si>
   <si>
-    <t xml:space="preserve">試薬瓶がもう持ってる</t>
+    <t xml:space="preserve">試薬瓶はもう持ってる</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_ReagentBottle_reaction_040</t>
@@ -2238,7 +2250,8 @@
   </si>
   <si>
     <t xml:space="preserve">作業机の試薬瓶、これかな
-最初から作ってあったなんて...</t>
+最初から作ってあったなんて...
+持っていこう</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_FakeReagentBottle_reaction_030</t>
@@ -2630,10 +2643,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z245"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D221" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E246" activeCellId="0" sqref="E246"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2819,7 +2832,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2827,11 +2840,9 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2855,17 +2866,17 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="62.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3"/>
@@ -2891,7 +2902,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="62.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2901,7 +2912,9 @@
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2929,15 +2942,13 @@
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2961,7 +2972,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2997,7 +3008,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -3007,7 +3018,9 @@
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3031,17 +3044,17 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3065,19 +3078,17 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3101,7 +3112,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -3137,7 +3148,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -3147,7 +3158,9 @@
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3171,17 +3184,17 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="86.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3205,19 +3218,17 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3241,7 +3252,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -3251,7 +3262,9 @@
       <c r="C18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3275,7 +3288,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3283,11 +3296,9 @@
         <v>45</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3311,7 +3322,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3357,7 +3368,9 @@
       <c r="C21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3381,7 +3394,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -3389,9 +3402,9 @@
         <v>51</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3415,7 +3428,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -3449,7 +3462,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -3457,11 +3470,9 @@
         <v>55</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3485,7 +3496,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -3495,7 +3506,9 @@
       <c r="C25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3519,7 +3532,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -3527,9 +3540,9 @@
         <v>59</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3757,7 +3770,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -3791,7 +3804,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -3825,7 +3838,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
@@ -3835,7 +3848,7 @@
       <c r="C35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3869,7 +3882,7 @@
       <c r="C36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3893,7 +3906,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -3927,7 +3940,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3937,7 +3950,9 @@
       <c r="C38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3961,11 +3976,11 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="2" t="n">
@@ -3995,8 +4010,8 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4033,15 +4048,13 @@
       <c r="A41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4066,7 +4079,7 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4075,9 +4088,7 @@
       <c r="C42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4105,7 +4116,7 @@
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="2" t="n">
@@ -4137,7 +4148,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
@@ -4177,7 +4188,7 @@
       <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="2" t="n">
@@ -4321,7 +4332,7 @@
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C49" s="2" t="n">
@@ -4357,7 +4368,7 @@
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="2" t="n">
@@ -4435,7 +4446,9 @@
       <c r="C52" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4463,7 +4476,7 @@
       <c r="A53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="2" t="n">
@@ -4499,15 +4512,13 @@
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4531,7 +4542,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>116</v>
       </c>
@@ -4607,7 +4618,7 @@
       <c r="A57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C57" s="2" t="n">
@@ -4639,11 +4650,11 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C58" s="2" t="n">
@@ -4675,7 +4686,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -4685,7 +4696,9 @@
       <c r="C59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4709,11 +4722,11 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C60" s="2" t="n">
@@ -4745,19 +4758,17 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -4781,7 +4792,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
@@ -4817,7 +4828,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
@@ -4889,7 +4900,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
@@ -4925,7 +4936,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>138</v>
       </c>
@@ -4935,7 +4946,9 @@
       <c r="C66" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D66" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4959,7 +4972,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>140</v>
       </c>
@@ -4995,7 +5008,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -5005,9 +5018,7 @@
       <c r="C68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -5031,7 +5042,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
@@ -5071,7 +5082,7 @@
       <c r="A70" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C70" s="2" t="n">
@@ -5143,7 +5154,7 @@
       <c r="A72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C72" s="2" t="n">
@@ -5215,13 +5226,15 @@
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -5255,7 +5268,9 @@
       <c r="C75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -5283,7 +5298,7 @@
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="2" t="n">
@@ -5347,7 +5362,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
@@ -5381,7 +5396,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>164</v>
       </c>
@@ -5391,7 +5406,7 @@
       <c r="C79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5415,7 +5430,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>166</v>
       </c>
@@ -5449,17 +5464,17 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -5483,17 +5498,17 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -5517,17 +5532,17 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="2"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -5551,17 +5566,17 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>171</v>
+      <c r="B84" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -5585,17 +5600,17 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -5619,12 +5634,12 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
@@ -5689,10 +5704,10 @@
     </row>
     <row r="88" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
@@ -5721,17 +5736,17 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -5755,7 +5770,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>183</v>
       </c>
@@ -5799,7 +5814,7 @@
       <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -5857,7 +5872,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>189</v>
       </c>
@@ -5935,7 +5950,7 @@
       <c r="C95" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="2"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -5959,17 +5974,17 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -5993,7 +6008,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>197</v>
       </c>
@@ -6003,7 +6018,7 @@
       <c r="C97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -6027,7 +6042,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>199</v>
       </c>
@@ -6037,7 +6052,7 @@
       <c r="C98" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -6069,18 +6084,12 @@
         <v>202</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -6101,19 +6110,17 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>207</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -6137,22 +6144,26 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3"/>
+      <c r="E101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -6175,7 +6186,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>210</v>
@@ -6211,15 +6222,17 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -6243,9 +6256,9 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>214</v>
@@ -6253,16 +6266,12 @@
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -6283,26 +6292,20 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -6328,20 +6331,20 @@
         <v>211</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -6363,20 +6366,26 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+      <c r="E107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -6402,19 +6411,21 @@
         <v>215</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3"/>
+      <c r="E108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="G108" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -6435,22 +6446,18 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>227</v>
-      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -6475,7 +6482,7 @@
     </row>
     <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>229</v>
@@ -6484,10 +6491,10 @@
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -6513,19 +6520,19 @@
     </row>
     <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -6551,19 +6558,19 @@
     </row>
     <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -6589,7 +6596,7 @@
     </row>
     <row r="113" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>229</v>
@@ -6598,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -6627,19 +6634,19 @@
     </row>
     <row r="114" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6665,19 +6672,19 @@
     </row>
     <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -6703,7 +6710,7 @@
     </row>
     <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>229</v>
@@ -6712,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -6741,24 +6748,22 @@
     </row>
     <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="2" t="s">
+      <c r="D117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -6779,20 +6784,22 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E118" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -6815,22 +6822,26 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="3"/>
+      <c r="E119" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+      <c r="F119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -6853,7 +6864,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>210</v>
@@ -6862,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -6889,15 +6900,17 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D121" s="3"/>
+      <c r="D121" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -6921,9 +6934,9 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>214</v>
@@ -6931,16 +6944,12 @@
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -6961,26 +6970,20 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="3"/>
-      <c r="E123" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -7003,23 +7006,23 @@
     </row>
     <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -7041,20 +7044,26 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
+      <c r="E125" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -7077,22 +7086,24 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -7113,22 +7124,18 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>227</v>
-      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -7153,7 +7160,7 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>229</v>
@@ -7162,10 +7169,10 @@
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -7191,19 +7198,19 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -7229,19 +7236,19 @@
     </row>
     <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>248</v>
+      <c r="D130" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -7267,7 +7274,7 @@
     </row>
     <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>229</v>
@@ -7276,10 +7283,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -7305,19 +7312,19 @@
     </row>
     <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>226</v>
+      <c r="D132" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -7343,19 +7350,19 @@
     </row>
     <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -7381,7 +7388,7 @@
     </row>
     <row r="134" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>229</v>
@@ -7390,10 +7397,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -7419,19 +7426,23 @@
     </row>
     <row r="135" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="5"/>
+      <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -7453,16 +7464,20 @@
     </row>
     <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -7490,16 +7505,16 @@
         <v>252</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="E137" s="4"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
+      <c r="H137" s="5"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
@@ -7519,18 +7534,18 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B138" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="2"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -7553,7 +7568,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>256</v>
       </c>
@@ -7563,7 +7578,7 @@
       <c r="C139" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -7587,7 +7602,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>258</v>
       </c>
@@ -7621,11 +7636,11 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C141" s="2" t="n">
@@ -7689,17 +7704,17 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -7723,11 +7738,11 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C144" s="2" t="n">
@@ -7757,7 +7772,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>268</v>
       </c>
@@ -7767,7 +7782,7 @@
       <c r="C145" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -7859,17 +7874,17 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D148" s="3"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -7895,10 +7910,10 @@
     </row>
     <row r="149" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
@@ -7927,9 +7942,9 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>269</v>
@@ -7937,7 +7952,7 @@
       <c r="C150" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D150" s="2"/>
+      <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -7963,10 +7978,10 @@
     </row>
     <row r="151" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
@@ -7997,7 +8012,7 @@
     </row>
     <row r="152" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>273</v>
@@ -8029,17 +8044,17 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D153" s="3"/>
+      <c r="D153" s="2"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -8065,10 +8080,10 @@
     </row>
     <row r="154" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>2</v>
@@ -8097,9 +8112,9 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>269</v>
@@ -8107,7 +8122,7 @@
       <c r="C155" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D155" s="2"/>
+      <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -8133,10 +8148,10 @@
     </row>
     <row r="156" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>2</v>
@@ -8165,9 +8180,9 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>273</v>
@@ -8199,17 +8214,17 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D158" s="3"/>
+      <c r="D158" s="2"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -8233,18 +8248,18 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -8267,17 +8282,17 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D160" s="2"/>
+      <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -8312,7 +8327,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="3"/>
+      <c r="E161" s="2"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -8335,7 +8350,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>295</v>
       </c>
@@ -8369,11 +8384,11 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C163" s="2" t="n">
@@ -8403,14 +8418,14 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="s">
+    <row r="164" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C164" s="3" t="n">
+      <c r="C164" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D164" s="2"/>
@@ -8437,14 +8452,14 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="s">
+    <row r="165" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C165" s="3" t="n">
+      <c r="C165" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D165" s="2"/>
@@ -8475,7 +8490,7 @@
       <c r="A166" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="6" t="s">
         <v>304</v>
       </c>
       <c r="C166" s="3" t="n">
@@ -8505,11 +8520,11 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
+    <row r="167" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C167" s="3" t="n">
@@ -8540,10 +8555,10 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C168" s="3" t="n">
@@ -8573,23 +8588,19 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="s">
+    <row r="169" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>312</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -8612,23 +8623,19 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
-        <v>313</v>
+      <c r="A170" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G170" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -8649,21 +8656,23 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -8685,22 +8694,24 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C172" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="5"/>
+      <c r="E172" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="3"/>
+      <c r="G172" s="4"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
@@ -8726,13 +8737,13 @@
         <v>315</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -8762,13 +8773,13 @@
         <v>316</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C174" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -8795,15 +8806,17 @@
     </row>
     <row r="175" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D175" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="3"/>
@@ -8827,9 +8840,9 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
-        <v>318</v>
+    <row r="176" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>323</v>
@@ -8837,16 +8850,12 @@
       <c r="C176" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="2" t="s">
+      <c r="D176" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>326</v>
-      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
@@ -8867,21 +8876,19 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>327</v>
+    <row r="177" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>329</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D177" s="5"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="3"/>
+      <c r="F177" s="2"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -8905,20 +8912,24 @@
     </row>
     <row r="178" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
@@ -8941,7 +8952,7 @@
     </row>
     <row r="179" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>332</v>
@@ -8985,16 +8996,12 @@
       <c r="C180" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D180" s="3"/>
-      <c r="E180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -9017,20 +9024,18 @@
     </row>
     <row r="181" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>340</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="E181" s="2"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -9055,22 +9060,24 @@
     </row>
     <row r="182" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C182" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="3"/>
+      <c r="E182" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="F182" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
+      <c r="G182" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
@@ -9093,7 +9100,7 @@
     </row>
     <row r="183" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>342</v>
@@ -9102,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -9131,24 +9138,22 @@
     </row>
     <row r="184" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C184" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D184" s="3"/>
+      <c r="D184" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E184" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F184" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G184" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
@@ -9171,19 +9176,19 @@
     </row>
     <row r="185" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C185" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -9209,22 +9214,24 @@
     </row>
     <row r="186" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C186" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="D186" s="3"/>
       <c r="E186" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
+        <v>347</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -9247,7 +9254,7 @@
     </row>
     <row r="187" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>342</v>
@@ -9256,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -9285,24 +9292,22 @@
     </row>
     <row r="188" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C188" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D188" s="3"/>
+      <c r="D188" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E188" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>348</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
@@ -9325,19 +9330,19 @@
     </row>
     <row r="189" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C189" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>350</v>
+      <c r="D189" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -9363,22 +9368,24 @@
     </row>
     <row r="190" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C190" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="D190" s="3"/>
       <c r="E190" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -9401,7 +9408,7 @@
     </row>
     <row r="191" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>342</v>
@@ -9409,11 +9416,11 @@
       <c r="C191" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>340</v>
+      <c r="D191" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -9439,24 +9446,22 @@
     </row>
     <row r="192" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C192" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D192" s="3"/>
+      <c r="D192" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E192" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>353</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
@@ -9477,20 +9482,22 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C193" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E193" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -9513,22 +9520,26 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C194" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="3"/>
+      <c r="E194" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E194" s="2"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+      <c r="F194" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -9551,7 +9562,7 @@
     </row>
     <row r="195" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>332</v>
@@ -9560,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="3"/>
@@ -9587,7 +9598,7 @@
     </row>
     <row r="196" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>334</v>
@@ -9595,16 +9606,12 @@
       <c r="C196" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G196" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
@@ -9630,17 +9637,15 @@
         <v>357</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C197" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>340</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E197" s="2"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -9668,19 +9673,21 @@
         <v>358</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C198" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+        <v>361</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
@@ -9703,7 +9710,7 @@
     </row>
     <row r="199" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>342</v>
@@ -9712,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -9739,26 +9746,24 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C200" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D200" s="3"/>
+      <c r="D200" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E200" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>362</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
@@ -9779,21 +9784,21 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C201" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -9819,22 +9824,24 @@
     </row>
     <row r="202" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C202" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="D202" s="3"/>
       <c r="E202" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
@@ -9857,7 +9864,7 @@
     </row>
     <row r="203" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>342</v>
@@ -9866,10 +9873,10 @@
         <v>0</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
@@ -9895,24 +9902,22 @@
     </row>
     <row r="204" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C204" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D204" s="3"/>
+      <c r="D204" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E204" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>365</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
@@ -9935,19 +9940,19 @@
     </row>
     <row r="205" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C205" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -9973,22 +9978,24 @@
     </row>
     <row r="206" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C206" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="D206" s="3"/>
       <c r="E206" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
+        <v>367</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
@@ -10011,7 +10018,7 @@
     </row>
     <row r="207" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>342</v>
@@ -10020,10 +10027,10 @@
         <v>0</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -10049,16 +10056,20 @@
     </row>
     <row r="208" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -10083,15 +10094,20 @@
     </row>
     <row r="209" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D209" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -10114,18 +10130,18 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C210" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+      <c r="E210" s="2"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -10148,9 +10164,9 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>371</v>
@@ -10158,8 +10174,7 @@
       <c r="C211" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D211" s="2"/>
-      <c r="E211" s="3"/>
+      <c r="D211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -10182,7 +10197,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
         <v>372</v>
       </c>
@@ -10192,7 +10207,7 @@
       <c r="C212" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D212" s="2"/>
+      <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -10216,7 +10231,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
         <v>374</v>
       </c>
@@ -10226,7 +10241,7 @@
       <c r="C213" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D213" s="3"/>
+      <c r="D213" s="2"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
@@ -10250,7 +10265,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
         <v>376</v>
       </c>
@@ -10260,7 +10275,7 @@
       <c r="C214" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D214" s="3"/>
+      <c r="D214" s="2"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -10319,10 +10334,10 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="2" t="s">
         <v>381</v>
       </c>
       <c r="C216" s="3" t="n">
@@ -10352,7 +10367,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
         <v>382</v>
       </c>
@@ -10360,11 +10375,9 @@
         <v>383</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>384</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -10388,15 +10401,15 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
+    <row r="218" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -10422,8 +10435,8 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="4" t="s">
+    <row r="219" customFormat="false" ht="111.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -10432,7 +10445,7 @@
       <c r="C219" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="D219" s="2" t="s">
         <v>388</v>
       </c>
       <c r="E219" s="3"/>
@@ -10458,8 +10471,8 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="4" t="s">
+    <row r="220" customFormat="false" ht="123.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -10492,17 +10505,19 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
+    <row r="221" customFormat="false" ht="98.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="4" t="s">
         <v>390</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>391</v>
       </c>
       <c r="C221" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D221" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
@@ -10526,7 +10541,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="50.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
         <v>392</v>
       </c>
@@ -10534,9 +10549,9 @@
         <v>393</v>
       </c>
       <c r="C222" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D222" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -10560,8 +10575,8 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="4" t="s">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -10570,7 +10585,7 @@
       <c r="C223" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D223" s="2"/>
+      <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
@@ -10594,8 +10609,8 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
+    <row r="224" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -10604,7 +10619,7 @@
       <c r="C224" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D224" s="3"/>
+      <c r="D224" s="2"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -10628,8 +10643,8 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
+    <row r="225" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="4" t="s">
         <v>398</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -10638,7 +10653,7 @@
       <c r="C225" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D225" s="3"/>
+      <c r="D225" s="2"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
@@ -10662,7 +10677,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
         <v>400</v>
       </c>
@@ -10696,12 +10711,12 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>373</v>
+      <c r="B227" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="C227" s="3" t="n">
         <v>2</v>
@@ -10730,23 +10745,46 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B228" s="4" t="s">
         <v>404</v>
       </c>
+      <c r="B228" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="C228" s="3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+      <c r="X228" s="3"/>
+      <c r="Y228" s="3"/>
+      <c r="Z228" s="3"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>391</v>
+        <v>406</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="C229" s="3" t="n">
         <v>2</v>
@@ -10775,46 +10813,23 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B230" s="2" t="s">
         <v>407</v>
       </c>
+      <c r="B230" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="C230" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D230" s="3"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
-      <c r="P230" s="3"/>
-      <c r="Q230" s="3"/>
-      <c r="R230" s="3"/>
-      <c r="S230" s="3"/>
-      <c r="T230" s="3"/>
-      <c r="U230" s="3"/>
-      <c r="V230" s="3"/>
-      <c r="W230" s="3"/>
-      <c r="X230" s="3"/>
-      <c r="Y230" s="3"/>
-      <c r="Z230" s="3"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C231" s="3" t="n">
         <v>2</v>
@@ -10843,7 +10858,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="38.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
         <v>410</v>
       </c>
@@ -10853,9 +10868,9 @@
       <c r="C232" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D232" s="2"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -10877,128 +10892,194 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C233" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
+      <c r="C233" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+      <c r="R233" s="3"/>
+      <c r="S233" s="3"/>
+      <c r="T233" s="3"/>
+      <c r="U233" s="3"/>
+      <c r="V233" s="3"/>
+      <c r="W233" s="3"/>
+      <c r="X233" s="3"/>
+      <c r="Y233" s="3"/>
+      <c r="Z233" s="3"/>
+    </row>
+    <row r="234" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C234" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="3"/>
+      <c r="T234" s="3"/>
+      <c r="U234" s="3"/>
+      <c r="V234" s="3"/>
+      <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
+      <c r="Y234" s="3"/>
+      <c r="Z234" s="3"/>
+    </row>
+    <row r="235" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C235" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E235" s="5" t="s">
+      <c r="B236" s="1" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="C236" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C238" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C239" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E239" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C240" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>427</v>
+      <c r="E240" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>422</v>
       </c>
+      <c r="C241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="5"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A243" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Assets/Tables/DT_Text.xlsx
+++ b/Assets/Tables/DT_Text.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="445">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -173,9 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">『溶液Bの作成方法』はここに記す
-やることは溶液Aと同じだ
-『試験管セット』を
-今度は『卓上遠心分離機』にかけろ</t>
+次は『卓上遠心分離機』が必要だ
+名前の通り、卓上で使う
+小型の遠心分離機を探せ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Memo_003_content_020</t>
@@ -614,7 +614,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">一応の保険としてな</t>
+      <t xml:space="preserve">保身で悪いがな</t>
     </r>
   </si>
   <si>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">TXT_CasettePlayer_Tape003_014</t>
   </si>
   <si>
-    <t xml:space="preserve">『卓上遠心分離器』にかけるんだ</t>
+    <t xml:space="preserve">『卓上遠心分離機』にかけるんだ</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_CasettePlayer_Tape003_016</t>
@@ -1092,7 +1092,7 @@
     <t xml:space="preserve">TXT_Freezer_reaction_060</t>
   </si>
   <si>
-    <t xml:space="preserve">今は試験管セットはいらないな</t>
+    <t xml:space="preserve">作った溶液は大丈夫かな</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Freezer_reaction_070</t>
@@ -1150,6 +1150,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Freezer_reaction_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抵抗薬、これでいいんだよね...？</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_DimpleKey_reaction_010</t>
   </si>
   <si>
@@ -1505,6 +1511,9 @@
     <t xml:space="preserve">一度ローターも取り外して再開だ！</t>
   </si>
   <si>
+    <t xml:space="preserve">TXT_Centrifuge_reaction_140</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_Rotor_4h_reaction_010</t>
   </si>
   <si>
@@ -1690,6 +1699,12 @@
   </si>
   <si>
     <t xml:space="preserve">溶液Aの作り直しに集中しよう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_SmallCentrifuge_reaction_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試験管セットを使うんだよね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_Pipette_reaction_010</t>
@@ -2036,7 +2051,13 @@
     <t xml:space="preserve">TXT_Pipette_reaction_100</t>
   </si>
   <si>
-    <t xml:space="preserve">必要な溶液を揃えないと</t>
+    <t xml:space="preserve">必要なものを揃えないと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Pipette_reaction_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">試薬瓶を準備しないと</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_TipHolder_reaction_010</t>
@@ -2237,10 +2258,23 @@
     <t xml:space="preserve">TXT_ReagentBottle_reaction_060</t>
   </si>
   <si>
+    <t xml:space="preserve">必要な溶液を揃えないと</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXT_ReagentBottle_reaction_070</t>
   </si>
   <si>
     <t xml:space="preserve">今度こそ、抵抗薬を完成させるぞ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_ReagentBottle_reaction_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷蔵庫の中の試薬瓶って
+これのことだよね</t>
   </si>
   <si>
     <t xml:space="preserve">TXT_FakeReagentBottle_reaction_010</t>
@@ -2333,6 +2367,13 @@
   </si>
   <si>
     <t xml:space="preserve">TXT_Door_reaction_030_dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT_Door_reaction_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鍵は開いてるけど
+抵抗薬を作るまでは...</t>
   </si>
 </sst>
 </file>
@@ -2643,10 +2684,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z245"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3148,7 +3189,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="62.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -5770,12 +5811,12 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
@@ -5806,10 +5847,10 @@
     </row>
     <row r="91" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
@@ -5840,10 +5881,10 @@
     </row>
     <row r="92" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>2</v>
@@ -5874,10 +5915,10 @@
     </row>
     <row r="93" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>2</v>
@@ -5908,10 +5949,10 @@
     </row>
     <row r="94" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>2</v>
@@ -5942,10 +5983,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>2</v>
@@ -5976,10 +6017,10 @@
     </row>
     <row r="96" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>2</v>
@@ -6010,10 +6051,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>2</v>
@@ -6044,10 +6085,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>2</v>
@@ -6078,10 +6119,10 @@
     </row>
     <row r="99" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>2</v>
@@ -6112,10 +6153,10 @@
     </row>
     <row r="100" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>2</v>
@@ -6146,23 +6187,23 @@
     </row>
     <row r="101" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -6186,16 +6227,16 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -6222,16 +6263,16 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -6258,16 +6299,16 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -6294,10 +6335,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>0</v>
@@ -6328,23 +6369,23 @@
     </row>
     <row r="106" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -6368,23 +6409,23 @@
     </row>
     <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -6408,23 +6449,23 @@
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -6448,10 +6489,10 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>0</v>
@@ -6482,19 +6523,19 @@
     </row>
     <row r="110" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -6520,19 +6561,19 @@
     </row>
     <row r="111" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -6558,19 +6599,19 @@
     </row>
     <row r="112" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -6596,19 +6637,19 @@
     </row>
     <row r="113" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -6634,19 +6675,19 @@
     </row>
     <row r="114" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -6672,19 +6713,19 @@
     </row>
     <row r="115" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -6710,19 +6751,19 @@
     </row>
     <row r="116" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -6748,19 +6789,19 @@
     </row>
     <row r="117" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -6786,19 +6827,19 @@
     </row>
     <row r="118" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -6824,23 +6865,23 @@
     </row>
     <row r="119" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -6864,16 +6905,16 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -6900,16 +6941,16 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -6936,16 +6977,16 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -6972,10 +7013,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>0</v>
@@ -7006,23 +7047,23 @@
     </row>
     <row r="124" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -7046,23 +7087,23 @@
     </row>
     <row r="125" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -7086,23 +7127,23 @@
     </row>
     <row r="126" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -7126,10 +7167,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>0</v>
@@ -7160,19 +7201,19 @@
     </row>
     <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -7198,19 +7239,19 @@
     </row>
     <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -7236,19 +7277,19 @@
     </row>
     <row r="130" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -7274,19 +7315,19 @@
     </row>
     <row r="131" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -7312,19 +7353,19 @@
     </row>
     <row r="132" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -7350,19 +7391,19 @@
     </row>
     <row r="133" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -7388,19 +7429,19 @@
     </row>
     <row r="134" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -7426,19 +7467,19 @@
     </row>
     <row r="135" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -7464,19 +7505,19 @@
     </row>
     <row r="136" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -7502,10 +7543,10 @@
     </row>
     <row r="137" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
@@ -7536,10 +7577,10 @@
     </row>
     <row r="138" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -7570,10 +7611,10 @@
     </row>
     <row r="139" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
@@ -7604,10 +7645,10 @@
     </row>
     <row r="140" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>2</v>
@@ -7638,10 +7679,10 @@
     </row>
     <row r="141" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
@@ -7672,10 +7713,10 @@
     </row>
     <row r="142" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
@@ -7706,10 +7747,10 @@
     </row>
     <row r="143" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
@@ -7740,10 +7781,10 @@
     </row>
     <row r="144" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>2</v>
@@ -7772,17 +7813,17 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D145" s="3"/>
+      <c r="D145" s="2"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -7806,17 +7847,17 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D146" s="2"/>
+      <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -7842,10 +7883,10 @@
     </row>
     <row r="147" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>2</v>
@@ -7876,10 +7917,10 @@
     </row>
     <row r="148" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
@@ -7910,10 +7951,10 @@
     </row>
     <row r="149" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
@@ -7942,17 +7983,17 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D150" s="3"/>
+      <c r="D150" s="2"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -7976,17 +8017,17 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -8012,10 +8053,10 @@
     </row>
     <row r="152" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>2</v>
@@ -8046,10 +8087,10 @@
     </row>
     <row r="153" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>2</v>
@@ -8080,10 +8121,10 @@
     </row>
     <row r="154" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>2</v>
@@ -8112,17 +8153,17 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D155" s="3"/>
+      <c r="D155" s="2"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -8146,17 +8187,17 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D156" s="2"/>
+      <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -8180,12 +8221,12 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>2</v>
@@ -8214,12 +8255,12 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>2</v>
@@ -8250,10 +8291,10 @@
     </row>
     <row r="159" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>2</v>
@@ -8282,17 +8323,17 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D160" s="3"/>
+      <c r="D160" s="2"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -8316,18 +8357,18 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -8352,16 +8393,16 @@
     </row>
     <row r="162" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B162" s="4" t="s">
         <v>296</v>
       </c>
+      <c r="B162" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="C162" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D162" s="2"/>
-      <c r="E162" s="3"/>
+      <c r="E162" s="2"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -8386,10 +8427,10 @@
     </row>
     <row r="163" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B163" s="2" t="s">
         <v>298</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>2</v>
@@ -8418,12 +8459,12 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B164" s="4" t="s">
         <v>300</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>301</v>
  